--- a/Tài liệu/10.Sprint-backlog-ver.1.0.xlsx
+++ b/Tài liệu/10.Sprint-backlog-ver.1.0.xlsx
@@ -1766,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,6 +2082,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2136,42 +2178,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2194,9 +2200,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2205,28 +2235,16 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2381,10 +2399,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprin 1'!$G$151:$V$151</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprin 1'!$G$151:$V$151</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprin 1'!$G$151:$U$151</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44264</c:v>
                 </c:pt>
@@ -2430,18 +2455,22 @@
                 <c:pt idx="14">
                   <c:v>44278</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>44279</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprin 1'!$F$64:$V$64</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprin 1'!$F$64:$V$64</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprin 1'!$F$64:$T$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>430</c:v>
                 </c:pt>
@@ -2487,12 +2516,6 @@
                 <c:pt idx="14">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2531,10 +2554,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprin 1'!$G$151:$V$151</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprin 1'!$G$151:$V$151</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprin 1'!$G$151:$U$151</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>44264</c:v>
                 </c:pt>
@@ -2580,18 +2610,22 @@
                 <c:pt idx="14">
                   <c:v>44278</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>44279</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprin 1'!$F$148:$V$148</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Sprin 1'!$F$148:$V$148</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Sprin 1'!$F$148:$T$148</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>416</c:v>
                 </c:pt>
@@ -2636,12 +2670,6 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3692,9 +3720,6 @@
                 <c:pt idx="14">
                   <c:v>44278</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>44279</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3841,9 +3866,6 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>44278</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7466,10 +7488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W153" sqref="W153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7490,10 +7512,10 @@
       <c r="B1" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="108"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -7515,10 +7537,10 @@
       <c r="B2" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
@@ -7540,33 +7562,33 @@
       <c r="B3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="89"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="117">
         <v>44264</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -7585,10 +7607,10 @@
       <c r="B5" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="117">
         <v>44279</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="89"/>
       <c r="F5" s="60"/>
       <c r="I5" s="89"/>
@@ -7625,13 +7647,13 @@
       <c r="T6" s="89"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="128" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="92"/>
       <c r="H7" s="86"/>
       <c r="I7" s="80"/>
@@ -7657,17 +7679,17 @@
       <c r="D8" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="92"/>
       <c r="H8" s="89"/>
       <c r="I8" s="99"/>
-      <c r="J8" s="124" t="s">
+      <c r="J8" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="124"/>
+      <c r="K8" s="138"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
@@ -7689,18 +7711,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Hồng",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hậu, Hồng",$F$17:$F$63)/2 + SUMIF($D$17:$F$63,"Hồng, Cường",$F$17:$F$63)/2 + SUMIF($D$17:$F$63,"Thắng, Hồng",$F$17:$F$63)/2</f>
         <v>110</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="133">
         <f ca="1">SUMIF($D$68:$F$147,"Hồng",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hậu, Hồng",$F$68:$F$147)/2 + SUMIF($D$68:$F$147,"Hồng, Cường",$F$68:$F$147)/2 + SUMIF($D$68:$F$147,"Thắng, Hồng",$F$68:$F$147)/2</f>
         <v>107.5</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="92"/>
       <c r="H9" s="89"/>
       <c r="I9" s="100"/>
-      <c r="J9" s="124" t="s">
+      <c r="J9" s="138" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="124"/>
+      <c r="K9" s="138"/>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
       <c r="N9" s="89"/>
@@ -7722,18 +7744,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Thắng",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Thắng, Hồng",$F$17:$F$63)/2</f>
         <v>101</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="134">
         <f ca="1">SUMIF($D$68:$F$147,"Thắng",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Thắng, Hồng",$F$68:$F$147)/2</f>
         <v>100.5</v>
       </c>
-      <c r="F10" s="120"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="92"/>
       <c r="H10" s="89"/>
       <c r="I10" s="101"/>
-      <c r="J10" s="124" t="s">
+      <c r="J10" s="138" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="124"/>
+      <c r="K10" s="138"/>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
       <c r="N10" s="89"/>
@@ -7755,18 +7777,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Hậu",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hậu, Hồng",$F$17:$F$63)/2</f>
         <v>110</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="135">
         <f ca="1">SUMIF($D$68:$F$147,"Hậu",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hậu, Hồng",$F$68:$F$147)/2</f>
         <v>104</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="92"/>
       <c r="H11" s="89"/>
       <c r="I11" s="102"/>
-      <c r="J11" s="124" t="s">
+      <c r="J11" s="138" t="s">
         <v>419</v>
       </c>
-      <c r="K11" s="124"/>
+      <c r="K11" s="138"/>
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -7788,16 +7810,16 @@
         <f ca="1">SUMIF($D$17:$F$63,"Cường",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hồng, Cường",$F$17:$F$63)/2</f>
         <v>109</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="137">
         <f ca="1">SUMIF($D$68:$F$147,"Cường",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hồng, Cường",$F$68:$F$147)/2</f>
         <v>104</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="92"/>
       <c r="H12" s="89"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
@@ -7809,19 +7831,19 @@
       <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="55">
         <f ca="1">SUM(D9:D12)</f>
         <v>430</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="127">
         <f ca="1">SUM(E9:F12)</f>
         <v>416</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="92"/>
       <c r="H13" s="89"/>
       <c r="I13" s="80"/>
@@ -7919,7 +7941,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="125">
+      <c r="A17" s="116">
         <v>1</v>
       </c>
       <c r="B17" s="73" t="s">
@@ -7983,7 +8005,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="125"/>
+      <c r="A18" s="116"/>
       <c r="B18" s="73" t="s">
         <v>82</v>
       </c>
@@ -8045,7 +8067,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1">
-      <c r="A19" s="125"/>
+      <c r="A19" s="116"/>
       <c r="B19" s="48" t="s">
         <v>284</v>
       </c>
@@ -8107,8 +8129,8 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="125"/>
-      <c r="B20" s="125" t="s">
+      <c r="A20" s="116"/>
+      <c r="B20" s="116" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="73" t="s">
@@ -8171,8 +8193,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="125"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="73" t="s">
         <v>287</v>
       </c>
@@ -8233,8 +8255,8 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="125"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="119" t="s">
         <v>288</v>
       </c>
       <c r="C22" s="73" t="s">
@@ -8297,8 +8319,8 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="125"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="73" t="s">
         <v>290</v>
       </c>
@@ -8359,8 +8381,8 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="125"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="73" t="s">
         <v>291</v>
       </c>
@@ -8421,8 +8443,8 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="125"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="73" t="s">
         <v>292</v>
       </c>
@@ -8483,8 +8505,8 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="125"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="73" t="s">
         <v>293</v>
       </c>
@@ -8545,8 +8567,8 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="125"/>
-      <c r="B27" s="128"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="73" t="s">
         <v>294</v>
       </c>
@@ -8607,8 +8629,8 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="125"/>
-      <c r="B28" s="128"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="73" t="s">
         <v>295</v>
       </c>
@@ -8669,8 +8691,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="125"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="73" t="s">
         <v>296</v>
       </c>
@@ -8731,7 +8753,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="125"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="74" t="s">
         <v>297</v>
       </c>
@@ -8795,7 +8817,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="125"/>
+      <c r="A31" s="116"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73" t="s">
         <v>299</v>
@@ -8857,7 +8879,7 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="125"/>
+      <c r="A32" s="116"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73" t="s">
         <v>300</v>
@@ -8919,7 +8941,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="125"/>
+      <c r="A33" s="116"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73" t="s">
         <v>301</v>
@@ -8981,7 +9003,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="125"/>
+      <c r="A34" s="116"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73" t="s">
         <v>302</v>
@@ -9043,7 +9065,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="125"/>
+      <c r="A35" s="116"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73" t="s">
         <v>303</v>
@@ -9105,7 +9127,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="125"/>
+      <c r="A36" s="116"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73" t="s">
         <v>304</v>
@@ -9167,7 +9189,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="125"/>
+      <c r="A37" s="116"/>
       <c r="B37" s="74" t="s">
         <v>101</v>
       </c>
@@ -9231,7 +9253,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="125"/>
+      <c r="A38" s="116"/>
       <c r="B38" s="73"/>
       <c r="C38" s="48" t="s">
         <v>306</v>
@@ -9293,7 +9315,7 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="125"/>
+      <c r="A39" s="116"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73" t="s">
         <v>307</v>
@@ -9355,7 +9377,7 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="125"/>
+      <c r="A40" s="116"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73" t="s">
         <v>308</v>
@@ -9417,7 +9439,7 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="125"/>
+      <c r="A41" s="116"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73" t="s">
         <v>309</v>
@@ -9479,7 +9501,7 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="125"/>
+      <c r="A42" s="116"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73" t="s">
         <v>310</v>
@@ -9541,7 +9563,7 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="125"/>
+      <c r="A43" s="116"/>
       <c r="B43" s="73"/>
       <c r="C43" s="73" t="s">
         <v>311</v>
@@ -9603,7 +9625,7 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="125"/>
+      <c r="A44" s="116"/>
       <c r="B44" s="74" t="s">
         <v>106</v>
       </c>
@@ -9667,7 +9689,7 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="125"/>
+      <c r="A45" s="116"/>
       <c r="B45" s="73"/>
       <c r="C45" s="73" t="s">
         <v>313</v>
@@ -9729,7 +9751,7 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="125"/>
+      <c r="A46" s="116"/>
       <c r="B46" s="73"/>
       <c r="C46" s="73" t="s">
         <v>314</v>
@@ -9791,7 +9813,7 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="125"/>
+      <c r="A47" s="116"/>
       <c r="B47" s="73"/>
       <c r="C47" s="73" t="s">
         <v>315</v>
@@ -9853,7 +9875,7 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="125"/>
+      <c r="A48" s="116"/>
       <c r="B48" s="73"/>
       <c r="C48" s="73" t="s">
         <v>316</v>
@@ -9915,7 +9937,7 @@
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="125"/>
+      <c r="A49" s="116"/>
       <c r="B49" s="73"/>
       <c r="C49" s="48" t="s">
         <v>317</v>
@@ -9977,7 +9999,7 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="125"/>
+      <c r="A50" s="116"/>
       <c r="B50" s="74" t="s">
         <v>318</v>
       </c>
@@ -10041,7 +10063,7 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="125"/>
+      <c r="A51" s="116"/>
       <c r="B51" s="73"/>
       <c r="C51" s="48" t="s">
         <v>320</v>
@@ -10103,7 +10125,7 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="125"/>
+      <c r="A52" s="116"/>
       <c r="B52" s="73"/>
       <c r="C52" s="73" t="s">
         <v>321</v>
@@ -10165,7 +10187,7 @@
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="125"/>
+      <c r="A53" s="116"/>
       <c r="B53" s="73"/>
       <c r="C53" s="73" t="s">
         <v>322</v>
@@ -10227,7 +10249,7 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="125"/>
+      <c r="A54" s="116"/>
       <c r="B54" s="73"/>
       <c r="C54" s="73" t="s">
         <v>323</v>
@@ -10289,7 +10311,7 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="125"/>
+      <c r="A55" s="116"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73" t="s">
         <v>324</v>
@@ -10351,7 +10373,7 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="125"/>
+      <c r="A56" s="116"/>
       <c r="B56" s="74" t="s">
         <v>3</v>
       </c>
@@ -10415,7 +10437,7 @@
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="125"/>
+      <c r="A57" s="116"/>
       <c r="B57" s="73"/>
       <c r="C57" s="73" t="s">
         <v>326</v>
@@ -10477,7 +10499,7 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="125"/>
+      <c r="A58" s="116"/>
       <c r="B58" s="73"/>
       <c r="C58" s="73" t="s">
         <v>327</v>
@@ -10539,7 +10561,7 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="125"/>
+      <c r="A59" s="116"/>
       <c r="B59" s="73"/>
       <c r="C59" s="73" t="s">
         <v>328</v>
@@ -10601,7 +10623,7 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="125"/>
+      <c r="A60" s="116"/>
       <c r="B60" s="73"/>
       <c r="C60" s="73" t="s">
         <v>329</v>
@@ -10663,7 +10685,7 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="125"/>
+      <c r="A61" s="116"/>
       <c r="B61" s="73"/>
       <c r="C61" s="73" t="s">
         <v>330</v>
@@ -10725,7 +10747,7 @@
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="125"/>
+      <c r="A62" s="116"/>
       <c r="B62" s="74" t="s">
         <v>206</v>
       </c>
@@ -10789,7 +10811,7 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="125"/>
+      <c r="A63" s="116"/>
       <c r="B63" s="73"/>
       <c r="C63" s="59" t="s">
         <v>332</v>
@@ -11004,7 +11026,7 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="125">
+      <c r="A68" s="116">
         <v>1</v>
       </c>
       <c r="B68" s="73" t="s">
@@ -11070,7 +11092,7 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="125"/>
+      <c r="A69" s="116"/>
       <c r="B69" s="73" t="s">
         <v>82</v>
       </c>
@@ -11134,7 +11156,7 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="125"/>
+      <c r="A70" s="116"/>
       <c r="B70" s="73"/>
       <c r="C70" s="73"/>
       <c r="D70" s="57"/>
@@ -11159,7 +11181,7 @@
       <c r="V70" s="58"/>
     </row>
     <row r="71" spans="1:22" ht="35.25" customHeight="1">
-      <c r="A71" s="125"/>
+      <c r="A71" s="116"/>
       <c r="B71" s="48" t="s">
         <v>284</v>
       </c>
@@ -11223,8 +11245,8 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="125"/>
-      <c r="B72" s="134" t="s">
+      <c r="A72" s="116"/>
+      <c r="B72" s="110" t="s">
         <v>285</v>
       </c>
       <c r="C72" s="73" t="s">
@@ -11289,8 +11311,8 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="125"/>
-      <c r="B73" s="135"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="111"/>
       <c r="C73" s="73"/>
       <c r="D73" s="57"/>
       <c r="E73" s="73"/>
@@ -11315,8 +11337,8 @@
       <c r="V73" s="58"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="125"/>
-      <c r="B74" s="135"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="111"/>
       <c r="C74" s="73" t="s">
         <v>287</v>
       </c>
@@ -11379,8 +11401,8 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="125"/>
-      <c r="B75" s="136"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="73"/>
       <c r="D75" s="57"/>
       <c r="E75" s="73"/>
@@ -11405,8 +11427,8 @@
       <c r="V75" s="58"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="125"/>
-      <c r="B76" s="130" t="s">
+      <c r="A76" s="116"/>
+      <c r="B76" s="113" t="s">
         <v>288</v>
       </c>
       <c r="C76" s="73" t="s">
@@ -11471,8 +11493,8 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="125"/>
-      <c r="B77" s="131"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="114"/>
       <c r="C77" s="73"/>
       <c r="D77" s="57"/>
       <c r="E77" s="73"/>
@@ -11497,8 +11519,8 @@
       <c r="V77" s="58"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="125"/>
-      <c r="B78" s="131"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="73" t="s">
         <v>290</v>
       </c>
@@ -11561,8 +11583,8 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="125"/>
-      <c r="B79" s="131"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="73"/>
       <c r="D79" s="57"/>
       <c r="E79" s="73"/>
@@ -11586,8 +11608,8 @@
       <c r="V79" s="58"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="125"/>
-      <c r="B80" s="131"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="73" t="s">
         <v>291</v>
       </c>
@@ -11650,8 +11672,8 @@
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="125"/>
-      <c r="B81" s="131"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="73" t="s">
         <v>292</v>
       </c>
@@ -11714,8 +11736,8 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="125"/>
-      <c r="B82" s="131"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="73" t="s">
         <v>293</v>
       </c>
@@ -11778,8 +11800,8 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="125"/>
-      <c r="B83" s="131"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="114"/>
       <c r="C83" s="73"/>
       <c r="D83" s="57"/>
       <c r="E83" s="73"/>
@@ -11804,8 +11826,8 @@
       <c r="V83" s="58"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="125"/>
-      <c r="B84" s="131"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="114"/>
       <c r="C84" s="73" t="s">
         <v>294</v>
       </c>
@@ -11868,8 +11890,8 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="125"/>
-      <c r="B85" s="131"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="114"/>
       <c r="C85" s="73"/>
       <c r="D85" s="57"/>
       <c r="E85" s="73"/>
@@ -11894,8 +11916,8 @@
       <c r="V85" s="58"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="125"/>
-      <c r="B86" s="131"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="114"/>
       <c r="C86" s="73" t="s">
         <v>295</v>
       </c>
@@ -11958,8 +11980,8 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="125"/>
-      <c r="B87" s="131"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="114"/>
       <c r="C87" s="73"/>
       <c r="D87" s="57"/>
       <c r="E87" s="73"/>
@@ -11984,8 +12006,8 @@
       <c r="V87" s="58"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="125"/>
-      <c r="B88" s="131"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="114"/>
       <c r="C88" s="73" t="s">
         <v>296</v>
       </c>
@@ -12048,8 +12070,8 @@
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="125"/>
-      <c r="B89" s="132"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="115"/>
       <c r="C89" s="73"/>
       <c r="D89" s="57"/>
       <c r="E89" s="73"/>
@@ -12074,8 +12096,8 @@
       <c r="V89" s="58"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="125"/>
-      <c r="B90" s="130" t="s">
+      <c r="A90" s="116"/>
+      <c r="B90" s="113" t="s">
         <v>297</v>
       </c>
       <c r="C90" s="73" t="s">
@@ -12140,8 +12162,8 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="125"/>
-      <c r="B91" s="131"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="114"/>
       <c r="C91" s="73"/>
       <c r="D91" s="57"/>
       <c r="E91" s="73"/>
@@ -12166,8 +12188,8 @@
       <c r="V91" s="58"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="125"/>
-      <c r="B92" s="131"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="114"/>
       <c r="C92" s="73" t="s">
         <v>299</v>
       </c>
@@ -12230,8 +12252,8 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="125"/>
-      <c r="B93" s="131"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="114"/>
       <c r="C93" s="73"/>
       <c r="D93" s="57"/>
       <c r="E93" s="73"/>
@@ -12256,8 +12278,8 @@
       <c r="V93" s="58"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="125"/>
-      <c r="B94" s="131"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="114"/>
       <c r="C94" s="73" t="s">
         <v>300</v>
       </c>
@@ -12320,8 +12342,8 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="125"/>
-      <c r="B95" s="131"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="114"/>
       <c r="C95" s="73" t="s">
         <v>301</v>
       </c>
@@ -12384,8 +12406,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="125"/>
-      <c r="B96" s="131"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="114"/>
       <c r="C96" s="73"/>
       <c r="D96" s="57"/>
       <c r="E96" s="73"/>
@@ -12410,8 +12432,8 @@
       <c r="V96" s="58"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="125"/>
-      <c r="B97" s="131"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="114"/>
       <c r="C97" s="73" t="s">
         <v>302</v>
       </c>
@@ -12474,8 +12496,8 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="125"/>
-      <c r="B98" s="131"/>
+      <c r="A98" s="116"/>
+      <c r="B98" s="114"/>
       <c r="C98" s="73"/>
       <c r="D98" s="57"/>
       <c r="E98" s="73"/>
@@ -12500,8 +12522,8 @@
       <c r="V98" s="58"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="125"/>
-      <c r="B99" s="131"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="114"/>
       <c r="C99" s="73" t="s">
         <v>303</v>
       </c>
@@ -12564,8 +12586,8 @@
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="125"/>
-      <c r="B100" s="131"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="114"/>
       <c r="C100" s="73" t="s">
         <v>304</v>
       </c>
@@ -12628,8 +12650,8 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="125"/>
-      <c r="B101" s="132"/>
+      <c r="A101" s="116"/>
+      <c r="B101" s="115"/>
       <c r="C101" s="73"/>
       <c r="D101" s="57"/>
       <c r="E101" s="73"/>
@@ -12654,8 +12676,8 @@
       <c r="V101" s="58"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="125"/>
-      <c r="B102" s="130" t="s">
+      <c r="A102" s="116"/>
+      <c r="B102" s="113" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="73" t="s">
@@ -12720,8 +12742,8 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="125"/>
-      <c r="B103" s="131"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="114"/>
       <c r="C103" s="73"/>
       <c r="D103" s="57"/>
       <c r="E103" s="73"/>
@@ -12746,8 +12768,8 @@
       <c r="V103" s="58"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="125"/>
-      <c r="B104" s="131"/>
+      <c r="A104" s="116"/>
+      <c r="B104" s="114"/>
       <c r="C104" s="48" t="s">
         <v>306</v>
       </c>
@@ -12810,8 +12832,8 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="125"/>
-      <c r="B105" s="131"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="114"/>
       <c r="C105" s="48"/>
       <c r="D105" s="57"/>
       <c r="E105" s="73"/>
@@ -12835,8 +12857,8 @@
       <c r="V105" s="58"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="125"/>
-      <c r="B106" s="131"/>
+      <c r="A106" s="116"/>
+      <c r="B106" s="114"/>
       <c r="C106" s="73" t="s">
         <v>307</v>
       </c>
@@ -12899,8 +12921,8 @@
       </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="125"/>
-      <c r="B107" s="131"/>
+      <c r="A107" s="116"/>
+      <c r="B107" s="114"/>
       <c r="C107" s="73"/>
       <c r="D107" s="57"/>
       <c r="E107" s="73"/>
@@ -12925,8 +12947,8 @@
       <c r="V107" s="58"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="125"/>
-      <c r="B108" s="131"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="114"/>
       <c r="C108" s="73" t="s">
         <v>308</v>
       </c>
@@ -12989,8 +13011,8 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="125"/>
-      <c r="B109" s="131"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="114"/>
       <c r="C109" s="73"/>
       <c r="D109" s="57"/>
       <c r="E109" s="73"/>
@@ -13015,8 +13037,8 @@
       <c r="V109" s="58"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="125"/>
-      <c r="B110" s="131"/>
+      <c r="A110" s="116"/>
+      <c r="B110" s="114"/>
       <c r="C110" s="73" t="s">
         <v>309</v>
       </c>
@@ -13079,8 +13101,8 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="125"/>
-      <c r="B111" s="131"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="114"/>
       <c r="C111" s="73"/>
       <c r="D111" s="57"/>
       <c r="E111" s="73"/>
@@ -13105,8 +13127,8 @@
       <c r="V111" s="58"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="125"/>
-      <c r="B112" s="131"/>
+      <c r="A112" s="116"/>
+      <c r="B112" s="114"/>
       <c r="C112" s="73" t="s">
         <v>310</v>
       </c>
@@ -13169,8 +13191,8 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="125"/>
-      <c r="B113" s="131"/>
+      <c r="A113" s="116"/>
+      <c r="B113" s="114"/>
       <c r="C113" s="73"/>
       <c r="D113" s="57"/>
       <c r="E113" s="73"/>
@@ -13195,8 +13217,8 @@
       <c r="V113" s="58"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="125"/>
-      <c r="B114" s="131"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="114"/>
       <c r="C114" s="73" t="s">
         <v>311</v>
       </c>
@@ -13259,8 +13281,8 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="125"/>
-      <c r="B115" s="132"/>
+      <c r="A115" s="116"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="73"/>
       <c r="D115" s="57"/>
       <c r="E115" s="73"/>
@@ -13285,8 +13307,8 @@
       <c r="V115" s="58"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="125"/>
-      <c r="B116" s="130" t="s">
+      <c r="A116" s="116"/>
+      <c r="B116" s="113" t="s">
         <v>106</v>
       </c>
       <c r="C116" s="73" t="s">
@@ -13351,8 +13373,8 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="125"/>
-      <c r="B117" s="131"/>
+      <c r="A117" s="116"/>
+      <c r="B117" s="114"/>
       <c r="C117" s="73" t="s">
         <v>313</v>
       </c>
@@ -13415,8 +13437,8 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="125"/>
-      <c r="B118" s="131"/>
+      <c r="A118" s="116"/>
+      <c r="B118" s="114"/>
       <c r="C118" s="73" t="s">
         <v>314</v>
       </c>
@@ -13479,8 +13501,8 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="125"/>
-      <c r="B119" s="131"/>
+      <c r="A119" s="116"/>
+      <c r="B119" s="114"/>
       <c r="C119" s="73" t="s">
         <v>315</v>
       </c>
@@ -13543,8 +13565,8 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="125"/>
-      <c r="B120" s="131"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="114"/>
       <c r="C120" s="73"/>
       <c r="D120" s="57"/>
       <c r="E120" s="73"/>
@@ -13569,8 +13591,8 @@
       <c r="V120" s="58"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="125"/>
-      <c r="B121" s="131"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="114"/>
       <c r="C121" s="73" t="s">
         <v>316</v>
       </c>
@@ -13633,8 +13655,8 @@
       </c>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="125"/>
-      <c r="B122" s="132"/>
+      <c r="A122" s="116"/>
+      <c r="B122" s="115"/>
       <c r="C122" s="48" t="s">
         <v>317</v>
       </c>
@@ -13697,8 +13719,8 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="125"/>
-      <c r="B123" s="130" t="s">
+      <c r="A123" s="116"/>
+      <c r="B123" s="113" t="s">
         <v>318</v>
       </c>
       <c r="C123" s="73" t="s">
@@ -13763,8 +13785,8 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="125"/>
-      <c r="B124" s="131"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="114"/>
       <c r="C124" s="73"/>
       <c r="D124" s="57"/>
       <c r="E124" s="73"/>
@@ -13789,8 +13811,8 @@
       <c r="V124" s="58"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="125"/>
-      <c r="B125" s="131"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="114"/>
       <c r="C125" s="48" t="s">
         <v>320</v>
       </c>
@@ -13853,8 +13875,8 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="125"/>
-      <c r="B126" s="131"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="114"/>
       <c r="C126" s="48"/>
       <c r="D126" s="57"/>
       <c r="E126" s="73"/>
@@ -13879,8 +13901,8 @@
       <c r="V126" s="58"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="125"/>
-      <c r="B127" s="131"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="114"/>
       <c r="C127" s="73" t="s">
         <v>321</v>
       </c>
@@ -13943,8 +13965,8 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="125"/>
-      <c r="B128" s="131"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="114"/>
       <c r="C128" s="73"/>
       <c r="D128" s="57"/>
       <c r="E128" s="73"/>
@@ -13969,8 +13991,8 @@
       <c r="V128" s="58"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="125"/>
-      <c r="B129" s="131"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="114"/>
       <c r="C129" s="73" t="s">
         <v>322</v>
       </c>
@@ -14033,8 +14055,8 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="125"/>
-      <c r="B130" s="131"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="114"/>
       <c r="C130" s="73" t="s">
         <v>323</v>
       </c>
@@ -14097,8 +14119,8 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="125"/>
-      <c r="B131" s="131"/>
+      <c r="A131" s="116"/>
+      <c r="B131" s="114"/>
       <c r="C131" s="73"/>
       <c r="D131" s="57"/>
       <c r="E131" s="73"/>
@@ -14123,8 +14145,8 @@
       <c r="V131" s="58"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="125"/>
-      <c r="B132" s="131"/>
+      <c r="A132" s="116"/>
+      <c r="B132" s="114"/>
       <c r="C132" s="73" t="s">
         <v>324</v>
       </c>
@@ -14187,8 +14209,8 @@
       </c>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="125"/>
-      <c r="B133" s="132"/>
+      <c r="A133" s="116"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="73"/>
       <c r="D133" s="57"/>
       <c r="E133" s="73"/>
@@ -14213,8 +14235,8 @@
       <c r="V133" s="58"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="125"/>
-      <c r="B134" s="130" t="s">
+      <c r="A134" s="116"/>
+      <c r="B134" s="113" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="73" t="s">
@@ -14279,8 +14301,8 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="125"/>
-      <c r="B135" s="131"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="114"/>
       <c r="C135" s="73"/>
       <c r="D135" s="57"/>
       <c r="E135" s="73"/>
@@ -14305,8 +14327,8 @@
       <c r="V135" s="58"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="125"/>
-      <c r="B136" s="131"/>
+      <c r="A136" s="116"/>
+      <c r="B136" s="114"/>
       <c r="C136" s="73" t="s">
         <v>326</v>
       </c>
@@ -14369,8 +14391,8 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="125"/>
-      <c r="B137" s="131"/>
+      <c r="A137" s="116"/>
+      <c r="B137" s="114"/>
       <c r="C137" s="73"/>
       <c r="D137" s="57"/>
       <c r="E137" s="73"/>
@@ -14395,8 +14417,8 @@
       <c r="V137" s="58"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="125"/>
-      <c r="B138" s="131"/>
+      <c r="A138" s="116"/>
+      <c r="B138" s="114"/>
       <c r="C138" s="73" t="s">
         <v>327</v>
       </c>
@@ -14459,8 +14481,8 @@
       </c>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="125"/>
-      <c r="B139" s="131"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="114"/>
       <c r="C139" s="73"/>
       <c r="D139" s="57"/>
       <c r="E139" s="73"/>
@@ -14485,8 +14507,8 @@
       <c r="V139" s="58"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="125"/>
-      <c r="B140" s="131"/>
+      <c r="A140" s="116"/>
+      <c r="B140" s="114"/>
       <c r="C140" s="73" t="s">
         <v>328</v>
       </c>
@@ -14549,8 +14571,8 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="125"/>
-      <c r="B141" s="131"/>
+      <c r="A141" s="116"/>
+      <c r="B141" s="114"/>
       <c r="C141" s="73"/>
       <c r="D141" s="57"/>
       <c r="E141" s="73"/>
@@ -14575,8 +14597,8 @@
       <c r="V141" s="58"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="125"/>
-      <c r="B142" s="131"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="114"/>
       <c r="C142" s="73" t="s">
         <v>329</v>
       </c>
@@ -14639,8 +14661,8 @@
       </c>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="125"/>
-      <c r="B143" s="132"/>
+      <c r="A143" s="116"/>
+      <c r="B143" s="115"/>
       <c r="C143" s="73" t="s">
         <v>330</v>
       </c>
@@ -14703,8 +14725,8 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="125"/>
-      <c r="B144" s="130" t="s">
+      <c r="A144" s="116"/>
+      <c r="B144" s="113" t="s">
         <v>206</v>
       </c>
       <c r="C144" s="73" t="s">
@@ -14768,9 +14790,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:22">
-      <c r="A145" s="125"/>
-      <c r="B145" s="131"/>
+    <row r="145" spans="1:23">
+      <c r="A145" s="116"/>
+      <c r="B145" s="114"/>
       <c r="C145" s="73"/>
       <c r="D145" s="57"/>
       <c r="E145" s="73"/>
@@ -14794,9 +14816,9 @@
       </c>
       <c r="V145" s="53"/>
     </row>
-    <row r="146" spans="1:22">
-      <c r="A146" s="125"/>
-      <c r="B146" s="132"/>
+    <row r="146" spans="1:23">
+      <c r="A146" s="116"/>
+      <c r="B146" s="115"/>
       <c r="C146" s="59" t="s">
         <v>332</v>
       </c>
@@ -14858,7 +14880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:23">
       <c r="A147" s="56"/>
       <c r="B147" s="60"/>
       <c r="C147" s="66"/>
@@ -14884,7 +14906,7 @@
       </c>
       <c r="V147" s="52"/>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:23">
       <c r="A148" s="56"/>
       <c r="B148" s="60"/>
       <c r="C148" s="60"/>
@@ -14961,28 +14983,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="26.25">
-      <c r="F150" s="112" t="s">
+    <row r="150" spans="1:23" ht="26.25" customHeight="1">
+      <c r="F150" s="126" t="s">
         <v>348</v>
       </c>
-      <c r="G150" s="112"/>
-      <c r="H150" s="112"/>
-      <c r="I150" s="112"/>
-      <c r="J150" s="112"/>
-      <c r="K150" s="112"/>
-      <c r="L150" s="112"/>
-      <c r="M150" s="112"/>
-      <c r="N150" s="112"/>
-      <c r="O150" s="112"/>
-      <c r="P150" s="112"/>
-      <c r="Q150" s="112"/>
-      <c r="R150" s="112"/>
-      <c r="S150" s="112"/>
-      <c r="T150" s="112"/>
-      <c r="U150" s="112"/>
-      <c r="V150" s="112"/>
-    </row>
-    <row r="151" spans="1:22" ht="51.6" customHeight="1">
+      <c r="G150" s="126"/>
+      <c r="H150" s="126"/>
+      <c r="I150" s="126"/>
+      <c r="J150" s="126"/>
+      <c r="K150" s="126"/>
+      <c r="L150" s="126"/>
+      <c r="M150" s="126"/>
+      <c r="N150" s="126"/>
+      <c r="O150" s="126"/>
+      <c r="P150" s="126"/>
+      <c r="Q150" s="126"/>
+      <c r="R150" s="126"/>
+      <c r="S150" s="126"/>
+      <c r="T150" s="126"/>
+      <c r="U150" s="126"/>
+      <c r="V150" s="158"/>
+      <c r="W150" s="159"/>
+    </row>
+    <row r="151" spans="1:23" ht="51.6" customHeight="1">
       <c r="F151" s="67" t="s">
         <v>347</v>
       </c>
@@ -15031,155 +15054,161 @@
       <c r="U151" s="68">
         <v>44278</v>
       </c>
-      <c r="V151" s="68">
-        <v>44279</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" ht="33">
+      <c r="V151" s="160"/>
+      <c r="W151" s="159"/>
+    </row>
+    <row r="152" spans="1:23" ht="33">
       <c r="F152" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G152" s="73">
+      <c r="G152" s="108">
         <f>G64</f>
         <v>398</v>
       </c>
-      <c r="H152" s="73">
+      <c r="H152" s="108">
         <f>H64</f>
         <v>386</v>
       </c>
-      <c r="I152" s="73">
+      <c r="I152" s="108">
         <f t="shared" ref="I152:V152" si="2">I64</f>
         <v>370</v>
       </c>
-      <c r="J152" s="73">
+      <c r="J152" s="108">
         <f t="shared" si="2"/>
         <v>339</v>
       </c>
-      <c r="K152" s="73">
+      <c r="K152" s="108">
         <f t="shared" si="2"/>
         <v>315</v>
       </c>
-      <c r="L152" s="73">
+      <c r="L152" s="108">
         <f t="shared" si="2"/>
         <v>278</v>
       </c>
-      <c r="M152" s="73">
+      <c r="M152" s="108">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="N152" s="73">
+      <c r="N152" s="108">
         <f t="shared" si="2"/>
         <v>214</v>
       </c>
-      <c r="O152" s="73">
+      <c r="O152" s="108">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="P152" s="73">
+      <c r="P152" s="108">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="Q152" s="73">
+      <c r="Q152" s="108">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="R152" s="73">
+      <c r="R152" s="108">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="S152" s="73">
+      <c r="S152" s="108">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="T152" s="73">
+      <c r="T152" s="108">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="U152" s="73">
+      <c r="U152" s="108">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="V152" s="73">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22">
+      <c r="V152" s="60"/>
+      <c r="W152" s="159"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="F153" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G153" s="48">
+      <c r="G153" s="107">
         <f t="shared" ref="G153:V153" si="3">G148</f>
         <v>396</v>
       </c>
-      <c r="H153" s="48">
+      <c r="H153" s="107">
         <f t="shared" si="3"/>
         <v>382</v>
       </c>
-      <c r="I153" s="48">
+      <c r="I153" s="107">
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
-      <c r="J153" s="48">
+      <c r="J153" s="107">
         <f t="shared" si="3"/>
         <v>344</v>
       </c>
-      <c r="K153" s="48">
+      <c r="K153" s="107">
         <f t="shared" si="3"/>
         <v>308</v>
       </c>
-      <c r="L153" s="48">
+      <c r="L153" s="107">
         <f t="shared" si="3"/>
         <v>277</v>
       </c>
-      <c r="M153" s="48">
+      <c r="M153" s="107">
         <f t="shared" si="3"/>
         <v>242</v>
       </c>
-      <c r="N153" s="48">
+      <c r="N153" s="107">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="O153" s="48">
+      <c r="O153" s="107">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="P153" s="48">
+      <c r="P153" s="107">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
-      <c r="Q153" s="48">
+      <c r="Q153" s="107">
         <f t="shared" si="3"/>
         <v>133</v>
       </c>
-      <c r="R153" s="48">
+      <c r="R153" s="107">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="S153" s="48">
+      <c r="S153" s="107">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="T153" s="48">
+      <c r="T153" s="107">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="U153" s="48">
+      <c r="U153" s="107">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="V153" s="48">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="V153" s="161"/>
+      <c r="W153" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="B90:B101"/>
-    <mergeCell ref="B102:B115"/>
+    <mergeCell ref="F150:U150"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="A68:A146"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -15191,22 +15220,11 @@
     <mergeCell ref="B123:B133"/>
     <mergeCell ref="B134:B143"/>
     <mergeCell ref="B144:B146"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="F150:V150"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="B102:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15241,10 +15259,10 @@
       <c r="B1" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="121" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="108"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -15266,10 +15284,10 @@
       <c r="B2" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
@@ -15291,35 +15309,35 @@
       <c r="B3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="123" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="89"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="117">
         <v>44280</v>
       </c>
-      <c r="D4" s="127"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -15338,10 +15356,10 @@
       <c r="B5" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="117">
         <v>44295</v>
       </c>
-      <c r="D5" s="127"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="89"/>
       <c r="F5" s="60"/>
       <c r="I5" s="89"/>
@@ -15378,13 +15396,13 @@
       <c r="T6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" thickBot="1">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="128" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
       <c r="G7" s="92"/>
       <c r="H7" s="86"/>
       <c r="I7" s="80"/>
@@ -15410,17 +15428,17 @@
       <c r="D8" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="131" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="118"/>
+      <c r="F8" s="132"/>
       <c r="G8" s="92"/>
       <c r="H8" s="89"/>
       <c r="I8" s="93"/>
-      <c r="J8" s="137" t="s">
+      <c r="J8" s="139" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="138"/>
+      <c r="K8" s="140"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
@@ -15442,18 +15460,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Hồng",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4 + SUMIF($D$17:$F$86,"Cường, Hồng",$F$17:$F$86)/2</f>
         <v>124</v>
       </c>
-      <c r="E9" s="119">
+      <c r="E9" s="133">
         <f ca="1">SUMIF($D$91:$F$200,"Hồng",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4 + SUMIF($D$91:$F$200,"Cường, Hồng",$F$91:$F$200)/2</f>
         <v>122</v>
       </c>
-      <c r="F9" s="119"/>
+      <c r="F9" s="133"/>
       <c r="G9" s="92"/>
       <c r="H9" s="89"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="140"/>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
       <c r="N9" s="89"/>
@@ -15475,18 +15493,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Thắng",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4</f>
         <v>120</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="134">
         <f ca="1">SUMIF($D$91:$F$200,"Thắng",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4</f>
         <v>109.5</v>
       </c>
-      <c r="F10" s="120"/>
+      <c r="F10" s="134"/>
       <c r="G10" s="92"/>
       <c r="H10" s="89"/>
       <c r="I10" s="95"/>
-      <c r="J10" s="137" t="s">
+      <c r="J10" s="139" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="138"/>
+      <c r="K10" s="140"/>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
       <c r="N10" s="89"/>
@@ -15508,18 +15526,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Hậu",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4</f>
         <v>118</v>
       </c>
-      <c r="E11" s="121">
+      <c r="E11" s="135">
         <f ca="1">SUMIF($D$91:$F$200,"Hậu",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4</f>
         <v>112.5</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="136"/>
       <c r="G11" s="92"/>
       <c r="H11" s="89"/>
       <c r="I11" s="96"/>
-      <c r="J11" s="137" t="s">
+      <c r="J11" s="139" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="138"/>
+      <c r="K11" s="140"/>
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -15541,16 +15559,16 @@
         <f ca="1">SUMIF($D$17:$F$86,"Cường",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4 + SUMIF($D$17:$F$86,"Cường, Hồng",$F$17:$F$86)/2</f>
         <v>122</v>
       </c>
-      <c r="E12" s="123">
+      <c r="E12" s="137">
         <f ca="1">SUMIF($D$91:$F$200,"Cường",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4 + SUMIF($D$91:$F$200,"Cường, Hồng",$F$91:$F$200)/2</f>
         <v>108.5</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="137"/>
       <c r="G12" s="92"/>
       <c r="H12" s="89"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="133"/>
-      <c r="K12" s="133"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
@@ -15562,19 +15580,19 @@
       <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="120" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="129"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="55">
         <f ca="1">SUM(D9:D12)</f>
         <v>484</v>
       </c>
-      <c r="E13" s="113">
+      <c r="E13" s="127">
         <f ca="1">SUM(E9:F12)</f>
         <v>452.5</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="127"/>
       <c r="G13" s="92"/>
       <c r="H13" s="89"/>
       <c r="I13" s="80"/>
@@ -15672,7 +15690,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="134">
+      <c r="A17" s="110">
         <v>2</v>
       </c>
       <c r="B17" s="74" t="s">
@@ -15736,7 +15754,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="135"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="74" t="s">
         <v>82</v>
       </c>
@@ -15798,7 +15816,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1">
-      <c r="A19" s="135"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="1" t="s">
         <v>351</v>
       </c>
@@ -15860,8 +15878,8 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="135"/>
-      <c r="B20" s="128" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="119" t="s">
         <v>288</v>
       </c>
       <c r="C20" s="73" t="s">
@@ -15924,8 +15942,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="135"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="73" t="s">
         <v>353</v>
       </c>
@@ -15986,8 +16004,8 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="135"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="73" t="s">
         <v>354</v>
       </c>
@@ -16048,8 +16066,8 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="135"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="73" t="s">
         <v>355</v>
       </c>
@@ -16110,8 +16128,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A24" s="135"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="48" t="s">
         <v>356</v>
       </c>
@@ -16172,8 +16190,8 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="135"/>
-      <c r="B25" s="128"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="73" t="s">
         <v>357</v>
       </c>
@@ -16234,8 +16252,8 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="135"/>
-      <c r="B26" s="128"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="73" t="s">
         <v>358</v>
       </c>
@@ -16296,8 +16314,8 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="135"/>
-      <c r="B27" s="128"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="73" t="s">
         <v>359</v>
       </c>
@@ -16358,8 +16376,8 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="135"/>
-      <c r="B28" s="128"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="73" t="s">
         <v>360</v>
       </c>
@@ -16420,8 +16438,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="135"/>
-      <c r="B29" s="128"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="73" t="s">
         <v>361</v>
       </c>
@@ -16482,8 +16500,8 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="135"/>
-      <c r="B30" s="128"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="73" t="s">
         <v>296</v>
       </c>
@@ -16544,8 +16562,8 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="135"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="113" t="s">
         <v>297</v>
       </c>
       <c r="C31" s="73" t="s">
@@ -16608,8 +16626,8 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="135"/>
-      <c r="B32" s="131"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="73" t="s">
         <v>363</v>
       </c>
@@ -16670,8 +16688,8 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="135"/>
-      <c r="B33" s="131"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="114"/>
       <c r="C33" s="73" t="s">
         <v>364</v>
       </c>
@@ -16732,8 +16750,8 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="135"/>
-      <c r="B34" s="131"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="114"/>
       <c r="C34" s="73" t="s">
         <v>365</v>
       </c>
@@ -16794,8 +16812,8 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="135"/>
-      <c r="B35" s="131"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="48" t="s">
         <v>367</v>
       </c>
@@ -16856,8 +16874,8 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="135"/>
-      <c r="B36" s="131"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="73" t="s">
         <v>366</v>
       </c>
@@ -16918,8 +16936,8 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="135"/>
-      <c r="B37" s="131"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="73" t="s">
         <v>368</v>
       </c>
@@ -16980,8 +16998,8 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="135"/>
-      <c r="B38" s="131"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="73" t="s">
         <v>369</v>
       </c>
@@ -17042,8 +17060,8 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="135"/>
-      <c r="B39" s="131"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="73" t="s">
         <v>370</v>
       </c>
@@ -17104,8 +17122,8 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="135"/>
-      <c r="B40" s="131"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="73" t="s">
         <v>371</v>
       </c>
@@ -17166,8 +17184,8 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="135"/>
-      <c r="B41" s="132"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="84" t="s">
         <v>304</v>
       </c>
@@ -17228,8 +17246,8 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="135"/>
-      <c r="B42" s="130" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="113" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="73" t="s">
@@ -17292,8 +17310,8 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="135"/>
-      <c r="B43" s="131"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="114"/>
       <c r="C43" s="48" t="s">
         <v>373</v>
       </c>
@@ -17354,8 +17372,8 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="135"/>
-      <c r="B44" s="131"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="114"/>
       <c r="C44" s="73" t="s">
         <v>374</v>
       </c>
@@ -17416,8 +17434,8 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="135"/>
-      <c r="B45" s="131"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="73" t="s">
         <v>375</v>
       </c>
@@ -17478,8 +17496,8 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="135"/>
-      <c r="B46" s="131"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="73" t="s">
         <v>376</v>
       </c>
@@ -17540,8 +17558,8 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="135"/>
-      <c r="B47" s="131"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="73" t="s">
         <v>377</v>
       </c>
@@ -17602,8 +17620,8 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="135"/>
-      <c r="B48" s="131"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="73" t="s">
         <v>378</v>
       </c>
@@ -17664,8 +17682,8 @@
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="135"/>
-      <c r="B49" s="131"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="73" t="s">
         <v>379</v>
       </c>
@@ -17726,8 +17744,8 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="135"/>
-      <c r="B50" s="131"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="114"/>
       <c r="C50" s="73" t="s">
         <v>380</v>
       </c>
@@ -17788,8 +17806,8 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="135"/>
-      <c r="B51" s="131"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="114"/>
       <c r="C51" s="73" t="s">
         <v>381</v>
       </c>
@@ -17850,8 +17868,8 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="135"/>
-      <c r="B52" s="132"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="73" t="s">
         <v>311</v>
       </c>
@@ -17912,7 +17930,7 @@
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="135"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="74" t="s">
         <v>106</v>
       </c>
@@ -17976,7 +17994,7 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="135"/>
+      <c r="A54" s="111"/>
       <c r="B54" s="73"/>
       <c r="C54" s="73" t="s">
         <v>383</v>
@@ -18038,7 +18056,7 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="135"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73" t="s">
         <v>384</v>
@@ -18100,7 +18118,7 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="135"/>
+      <c r="A56" s="111"/>
       <c r="B56" s="73"/>
       <c r="C56" s="73" t="s">
         <v>385</v>
@@ -18162,7 +18180,7 @@
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="135"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="73"/>
       <c r="C57" s="73" t="s">
         <v>386</v>
@@ -18224,7 +18242,7 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="135"/>
+      <c r="A58" s="111"/>
       <c r="B58" s="73"/>
       <c r="C58" s="48" t="s">
         <v>387</v>
@@ -18286,7 +18304,7 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="135"/>
+      <c r="A59" s="111"/>
       <c r="B59" s="73"/>
       <c r="C59" s="48" t="s">
         <v>388</v>
@@ -18348,7 +18366,7 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="135"/>
+      <c r="A60" s="111"/>
       <c r="B60" s="73"/>
       <c r="C60" s="48" t="s">
         <v>389</v>
@@ -18410,7 +18428,7 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="135"/>
+      <c r="A61" s="111"/>
       <c r="B61" s="73"/>
       <c r="C61" s="48" t="s">
         <v>390</v>
@@ -18472,7 +18490,7 @@
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="135"/>
+      <c r="A62" s="111"/>
       <c r="B62" s="73"/>
       <c r="C62" s="48" t="s">
         <v>391</v>
@@ -18534,7 +18552,7 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="135"/>
+      <c r="A63" s="111"/>
       <c r="B63" s="74" t="s">
         <v>318</v>
       </c>
@@ -18598,7 +18616,7 @@
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="135"/>
+      <c r="A64" s="111"/>
       <c r="B64" s="73"/>
       <c r="C64" s="48" t="s">
         <v>393</v>
@@ -18660,7 +18678,7 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="135"/>
+      <c r="A65" s="111"/>
       <c r="B65" s="73"/>
       <c r="C65" s="73" t="s">
         <v>394</v>
@@ -18722,7 +18740,7 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="135"/>
+      <c r="A66" s="111"/>
       <c r="B66" s="73"/>
       <c r="C66" s="73" t="s">
         <v>395</v>
@@ -18784,7 +18802,7 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="135"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="73"/>
       <c r="C67" s="73" t="s">
         <v>396</v>
@@ -18846,7 +18864,7 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="135"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="73"/>
       <c r="C68" s="73" t="s">
         <v>397</v>
@@ -18908,7 +18926,7 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="135"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="73"/>
       <c r="C69" s="73" t="s">
         <v>398</v>
@@ -18970,7 +18988,7 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="135"/>
+      <c r="A70" s="111"/>
       <c r="B70" s="73"/>
       <c r="C70" s="73" t="s">
         <v>399</v>
@@ -19032,7 +19050,7 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="135"/>
+      <c r="A71" s="111"/>
       <c r="B71" s="73"/>
       <c r="C71" s="73" t="s">
         <v>400</v>
@@ -19094,7 +19112,7 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="135"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="73"/>
       <c r="C72" s="73" t="s">
         <v>401</v>
@@ -19156,7 +19174,7 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="135"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="74" t="s">
         <v>3</v>
       </c>
@@ -19220,7 +19238,7 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="135"/>
+      <c r="A74" s="111"/>
       <c r="B74" s="73"/>
       <c r="C74" s="73" t="s">
         <v>403</v>
@@ -19282,7 +19300,7 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="135"/>
+      <c r="A75" s="111"/>
       <c r="B75" s="73"/>
       <c r="C75" s="73" t="s">
         <v>404</v>
@@ -19344,7 +19362,7 @@
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="135"/>
+      <c r="A76" s="111"/>
       <c r="B76" s="73"/>
       <c r="C76" s="73" t="s">
         <v>405</v>
@@ -19406,7 +19424,7 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="135"/>
+      <c r="A77" s="111"/>
       <c r="B77" s="73"/>
       <c r="C77" s="73" t="s">
         <v>406</v>
@@ -19468,7 +19486,7 @@
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="135"/>
+      <c r="A78" s="111"/>
       <c r="B78" s="73"/>
       <c r="C78" s="73" t="s">
         <v>407</v>
@@ -19530,7 +19548,7 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="135"/>
+      <c r="A79" s="111"/>
       <c r="B79" s="73"/>
       <c r="C79" s="73" t="s">
         <v>408</v>
@@ -19592,7 +19610,7 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="135"/>
+      <c r="A80" s="111"/>
       <c r="B80" s="73"/>
       <c r="C80" s="73" t="s">
         <v>409</v>
@@ -19654,7 +19672,7 @@
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="135"/>
+      <c r="A81" s="111"/>
       <c r="B81" s="73"/>
       <c r="C81" s="73" t="s">
         <v>410</v>
@@ -19716,7 +19734,7 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="135"/>
+      <c r="A82" s="111"/>
       <c r="B82" s="73"/>
       <c r="C82" s="73" t="s">
         <v>411</v>
@@ -19778,7 +19796,7 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="135"/>
+      <c r="A83" s="111"/>
       <c r="B83" s="74" t="s">
         <v>5</v>
       </c>
@@ -19840,7 +19858,7 @@
       <c r="V83" s="70"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="135"/>
+      <c r="A84" s="111"/>
       <c r="B84" s="73"/>
       <c r="C84" s="59" t="s">
         <v>413</v>
@@ -19900,7 +19918,7 @@
       <c r="V84" s="70"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="135"/>
+      <c r="A85" s="111"/>
       <c r="B85" s="74" t="s">
         <v>415</v>
       </c>
@@ -19962,7 +19980,7 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="136"/>
+      <c r="A86" s="112"/>
       <c r="B86" s="74" t="s">
         <v>416</v>
       </c>
@@ -20198,13 +20216,13 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="134">
-        <v>2</v>
-      </c>
-      <c r="B91" s="130" t="s">
+      <c r="A91" s="110">
+        <v>2</v>
+      </c>
+      <c r="B91" s="113" t="s">
         <v>350</v>
       </c>
-      <c r="C91" s="134"/>
+      <c r="C91" s="110"/>
       <c r="D91" s="57" t="s">
         <v>1</v>
       </c>
@@ -20264,9 +20282,9 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="135"/>
-      <c r="B92" s="132"/>
-      <c r="C92" s="136"/>
+      <c r="A92" s="111"/>
+      <c r="B92" s="115"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="57"/>
       <c r="E92" s="73"/>
       <c r="G92" s="62">
@@ -20289,8 +20307,8 @@
       <c r="V92" s="58"/>
     </row>
     <row r="93" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A93" s="135"/>
-      <c r="B93" s="130" t="s">
+      <c r="A93" s="111"/>
+      <c r="B93" s="113" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="73"/>
@@ -20353,8 +20371,8 @@
       </c>
     </row>
     <row r="94" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A94" s="135"/>
-      <c r="B94" s="132"/>
+      <c r="A94" s="111"/>
+      <c r="B94" s="115"/>
       <c r="C94" s="73"/>
       <c r="D94" s="57"/>
       <c r="E94" s="73"/>
@@ -20379,7 +20397,7 @@
       <c r="V94" s="58"/>
     </row>
     <row r="95" spans="1:22" ht="33">
-      <c r="A95" s="135"/>
+      <c r="A95" s="111"/>
       <c r="B95" s="1" t="s">
         <v>351</v>
       </c>
@@ -20443,8 +20461,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="135"/>
-      <c r="B96" s="130" t="s">
+      <c r="A96" s="111"/>
+      <c r="B96" s="113" t="s">
         <v>288</v>
       </c>
       <c r="C96" s="73" t="s">
@@ -20509,8 +20527,8 @@
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="135"/>
-      <c r="B97" s="131"/>
+      <c r="A97" s="111"/>
+      <c r="B97" s="114"/>
       <c r="C97" s="73" t="s">
         <v>353</v>
       </c>
@@ -20573,8 +20591,8 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="135"/>
-      <c r="B98" s="131"/>
+      <c r="A98" s="111"/>
+      <c r="B98" s="114"/>
       <c r="C98" s="73" t="s">
         <v>354</v>
       </c>
@@ -20637,8 +20655,8 @@
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="135"/>
-      <c r="B99" s="131"/>
+      <c r="A99" s="111"/>
+      <c r="B99" s="114"/>
       <c r="C99" s="73" t="s">
         <v>355</v>
       </c>
@@ -20701,8 +20719,8 @@
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="135"/>
-      <c r="B100" s="131"/>
+      <c r="A100" s="111"/>
+      <c r="B100" s="114"/>
       <c r="C100" s="48" t="s">
         <v>356</v>
       </c>
@@ -20765,8 +20783,8 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="135"/>
-      <c r="B101" s="131"/>
+      <c r="A101" s="111"/>
+      <c r="B101" s="114"/>
       <c r="C101" s="73" t="s">
         <v>357</v>
       </c>
@@ -20829,8 +20847,8 @@
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="135"/>
-      <c r="B102" s="131"/>
+      <c r="A102" s="111"/>
+      <c r="B102" s="114"/>
       <c r="C102" s="73" t="s">
         <v>358</v>
       </c>
@@ -20893,8 +20911,8 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="135"/>
-      <c r="B103" s="131"/>
+      <c r="A103" s="111"/>
+      <c r="B103" s="114"/>
       <c r="C103" s="73" t="s">
         <v>359</v>
       </c>
@@ -20957,8 +20975,8 @@
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="135"/>
-      <c r="B104" s="131"/>
+      <c r="A104" s="111"/>
+      <c r="B104" s="114"/>
       <c r="C104" s="73" t="s">
         <v>360</v>
       </c>
@@ -21021,8 +21039,8 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="135"/>
-      <c r="B105" s="131"/>
+      <c r="A105" s="111"/>
+      <c r="B105" s="114"/>
       <c r="C105" s="73" t="s">
         <v>361</v>
       </c>
@@ -21085,8 +21103,8 @@
       </c>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="135"/>
-      <c r="B106" s="131"/>
+      <c r="A106" s="111"/>
+      <c r="B106" s="114"/>
       <c r="C106" s="73" t="s">
         <v>296</v>
       </c>
@@ -21149,8 +21167,8 @@
       </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="135"/>
-      <c r="B107" s="132"/>
+      <c r="A107" s="111"/>
+      <c r="B107" s="115"/>
       <c r="C107" s="73"/>
       <c r="D107" s="57"/>
       <c r="E107" s="73"/>
@@ -21175,8 +21193,8 @@
       <c r="V107" s="58"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="135"/>
-      <c r="B108" s="130" t="s">
+      <c r="A108" s="111"/>
+      <c r="B108" s="113" t="s">
         <v>297</v>
       </c>
       <c r="C108" s="73" t="s">
@@ -21241,8 +21259,8 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="135"/>
-      <c r="B109" s="131"/>
+      <c r="A109" s="111"/>
+      <c r="B109" s="114"/>
       <c r="C109" s="73"/>
       <c r="D109" s="57"/>
       <c r="E109" s="73"/>
@@ -21267,8 +21285,8 @@
       <c r="V109" s="58"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="135"/>
-      <c r="B110" s="131"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="114"/>
       <c r="C110" s="73" t="s">
         <v>363</v>
       </c>
@@ -21331,8 +21349,8 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="135"/>
-      <c r="B111" s="131"/>
+      <c r="A111" s="111"/>
+      <c r="B111" s="114"/>
       <c r="C111" s="73"/>
       <c r="D111" s="57"/>
       <c r="E111" s="73"/>
@@ -21357,8 +21375,8 @@
       <c r="V111" s="58"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="135"/>
-      <c r="B112" s="131"/>
+      <c r="A112" s="111"/>
+      <c r="B112" s="114"/>
       <c r="C112" s="73" t="s">
         <v>364</v>
       </c>
@@ -21421,8 +21439,8 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="135"/>
-      <c r="B113" s="131"/>
+      <c r="A113" s="111"/>
+      <c r="B113" s="114"/>
       <c r="C113" s="73"/>
       <c r="D113" s="57"/>
       <c r="E113" s="73"/>
@@ -21447,8 +21465,8 @@
       <c r="V113" s="58"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="135"/>
-      <c r="B114" s="131"/>
+      <c r="A114" s="111"/>
+      <c r="B114" s="114"/>
       <c r="C114" s="73" t="s">
         <v>365</v>
       </c>
@@ -21511,8 +21529,8 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="135"/>
-      <c r="B115" s="131"/>
+      <c r="A115" s="111"/>
+      <c r="B115" s="114"/>
       <c r="C115" s="73"/>
       <c r="D115" s="57"/>
       <c r="E115" s="73"/>
@@ -21537,8 +21555,8 @@
       <c r="V115" s="58"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="135"/>
-      <c r="B116" s="131"/>
+      <c r="A116" s="111"/>
+      <c r="B116" s="114"/>
       <c r="C116" s="48" t="s">
         <v>367</v>
       </c>
@@ -21601,8 +21619,8 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="135"/>
-      <c r="B117" s="131"/>
+      <c r="A117" s="111"/>
+      <c r="B117" s="114"/>
       <c r="C117" s="48"/>
       <c r="D117" s="57"/>
       <c r="E117" s="73"/>
@@ -21627,8 +21645,8 @@
       <c r="V117" s="58"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="135"/>
-      <c r="B118" s="131"/>
+      <c r="A118" s="111"/>
+      <c r="B118" s="114"/>
       <c r="C118" s="73" t="s">
         <v>366</v>
       </c>
@@ -21691,8 +21709,8 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="135"/>
-      <c r="B119" s="131"/>
+      <c r="A119" s="111"/>
+      <c r="B119" s="114"/>
       <c r="C119" s="73" t="s">
         <v>368</v>
       </c>
@@ -21755,8 +21773,8 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="135"/>
-      <c r="B120" s="131"/>
+      <c r="A120" s="111"/>
+      <c r="B120" s="114"/>
       <c r="C120" s="73" t="s">
         <v>369</v>
       </c>
@@ -21819,8 +21837,8 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="135"/>
-      <c r="B121" s="131"/>
+      <c r="A121" s="111"/>
+      <c r="B121" s="114"/>
       <c r="C121" s="73"/>
       <c r="D121" s="57"/>
       <c r="E121" s="73"/>
@@ -21845,8 +21863,8 @@
       <c r="V121" s="58"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="135"/>
-      <c r="B122" s="131"/>
+      <c r="A122" s="111"/>
+      <c r="B122" s="114"/>
       <c r="C122" s="73" t="s">
         <v>370</v>
       </c>
@@ -21909,8 +21927,8 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="135"/>
-      <c r="B123" s="131"/>
+      <c r="A123" s="111"/>
+      <c r="B123" s="114"/>
       <c r="C123" s="73"/>
       <c r="D123" s="57"/>
       <c r="E123" s="73"/>
@@ -21935,8 +21953,8 @@
       <c r="V123" s="58"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="135"/>
-      <c r="B124" s="131"/>
+      <c r="A124" s="111"/>
+      <c r="B124" s="114"/>
       <c r="C124" s="73" t="s">
         <v>371</v>
       </c>
@@ -21999,8 +22017,8 @@
       </c>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="135"/>
-      <c r="B125" s="131"/>
+      <c r="A125" s="111"/>
+      <c r="B125" s="114"/>
       <c r="C125" s="84" t="s">
         <v>304</v>
       </c>
@@ -22063,8 +22081,8 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="135"/>
-      <c r="B126" s="132"/>
+      <c r="A126" s="111"/>
+      <c r="B126" s="115"/>
       <c r="D126" s="57"/>
       <c r="E126" s="73"/>
       <c r="F126" s="73"/>
@@ -22088,8 +22106,8 @@
       <c r="V126" s="58"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="135"/>
-      <c r="B127" s="130" t="s">
+      <c r="A127" s="111"/>
+      <c r="B127" s="113" t="s">
         <v>101</v>
       </c>
       <c r="C127" s="73" t="s">
@@ -22154,8 +22172,8 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="135"/>
-      <c r="B128" s="131"/>
+      <c r="A128" s="111"/>
+      <c r="B128" s="114"/>
       <c r="C128" s="48" t="s">
         <v>373</v>
       </c>
@@ -22218,8 +22236,8 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="135"/>
-      <c r="B129" s="131"/>
+      <c r="A129" s="111"/>
+      <c r="B129" s="114"/>
       <c r="C129" s="48"/>
       <c r="D129" s="57"/>
       <c r="E129" s="73"/>
@@ -22243,8 +22261,8 @@
       <c r="V129" s="58"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="135"/>
-      <c r="B130" s="131"/>
+      <c r="A130" s="111"/>
+      <c r="B130" s="114"/>
       <c r="C130" s="73" t="s">
         <v>374</v>
       </c>
@@ -22307,8 +22325,8 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="135"/>
-      <c r="B131" s="131"/>
+      <c r="A131" s="111"/>
+      <c r="B131" s="114"/>
       <c r="C131" s="73" t="s">
         <v>375</v>
       </c>
@@ -22371,8 +22389,8 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="135"/>
-      <c r="B132" s="131"/>
+      <c r="A132" s="111"/>
+      <c r="B132" s="114"/>
       <c r="C132" s="73"/>
       <c r="D132" s="57"/>
       <c r="E132" s="73"/>
@@ -22397,8 +22415,8 @@
       <c r="V132" s="58"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="135"/>
-      <c r="B133" s="131"/>
+      <c r="A133" s="111"/>
+      <c r="B133" s="114"/>
       <c r="C133" s="73" t="s">
         <v>376</v>
       </c>
@@ -22461,8 +22479,8 @@
       </c>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="135"/>
-      <c r="B134" s="131"/>
+      <c r="A134" s="111"/>
+      <c r="B134" s="114"/>
       <c r="C134" s="73"/>
       <c r="D134" s="57"/>
       <c r="E134" s="73"/>
@@ -22486,8 +22504,8 @@
       <c r="V134" s="58"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="135"/>
-      <c r="B135" s="131"/>
+      <c r="A135" s="111"/>
+      <c r="B135" s="114"/>
       <c r="C135" s="73" t="s">
         <v>377</v>
       </c>
@@ -22550,8 +22568,8 @@
       </c>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="135"/>
-      <c r="B136" s="131"/>
+      <c r="A136" s="111"/>
+      <c r="B136" s="114"/>
       <c r="C136" s="73" t="s">
         <v>378</v>
       </c>
@@ -22614,8 +22632,8 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="135"/>
-      <c r="B137" s="131"/>
+      <c r="A137" s="111"/>
+      <c r="B137" s="114"/>
       <c r="C137" s="73" t="s">
         <v>379</v>
       </c>
@@ -22678,8 +22696,8 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="135"/>
-      <c r="B138" s="131"/>
+      <c r="A138" s="111"/>
+      <c r="B138" s="114"/>
       <c r="C138" s="73"/>
       <c r="D138" s="57"/>
       <c r="E138" s="73"/>
@@ -22704,8 +22722,8 @@
       <c r="V138" s="58"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="135"/>
-      <c r="B139" s="131"/>
+      <c r="A139" s="111"/>
+      <c r="B139" s="114"/>
       <c r="C139" s="73" t="s">
         <v>380</v>
       </c>
@@ -22768,8 +22786,8 @@
       </c>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="135"/>
-      <c r="B140" s="131"/>
+      <c r="A140" s="111"/>
+      <c r="B140" s="114"/>
       <c r="C140" s="73" t="s">
         <v>381</v>
       </c>
@@ -22832,8 +22850,8 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="135"/>
-      <c r="B141" s="131"/>
+      <c r="A141" s="111"/>
+      <c r="B141" s="114"/>
       <c r="C141" s="73" t="s">
         <v>311</v>
       </c>
@@ -22896,8 +22914,8 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="135"/>
-      <c r="B142" s="132"/>
+      <c r="A142" s="111"/>
+      <c r="B142" s="115"/>
       <c r="C142" s="73"/>
       <c r="D142" s="57"/>
       <c r="E142" s="73"/>
@@ -22922,8 +22940,8 @@
       <c r="V142" s="58"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="135"/>
-      <c r="B143" s="130" t="s">
+      <c r="A143" s="111"/>
+      <c r="B143" s="113" t="s">
         <v>106</v>
       </c>
       <c r="C143" s="73" t="s">
@@ -22988,8 +23006,8 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="135"/>
-      <c r="B144" s="131"/>
+      <c r="A144" s="111"/>
+      <c r="B144" s="114"/>
       <c r="C144" s="73"/>
       <c r="D144" s="57"/>
       <c r="E144" s="73"/>
@@ -23014,8 +23032,8 @@
       <c r="V144" s="58"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="135"/>
-      <c r="B145" s="131"/>
+      <c r="A145" s="111"/>
+      <c r="B145" s="114"/>
       <c r="C145" s="73" t="s">
         <v>383</v>
       </c>
@@ -23078,8 +23096,8 @@
       </c>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="135"/>
-      <c r="B146" s="131"/>
+      <c r="A146" s="111"/>
+      <c r="B146" s="114"/>
       <c r="C146" s="73"/>
       <c r="D146" s="57"/>
       <c r="E146" s="73"/>
@@ -23104,8 +23122,8 @@
       <c r="V146" s="58"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="135"/>
-      <c r="B147" s="131"/>
+      <c r="A147" s="111"/>
+      <c r="B147" s="114"/>
       <c r="C147" s="73" t="s">
         <v>384</v>
       </c>
@@ -23168,8 +23186,8 @@
       </c>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="135"/>
-      <c r="B148" s="131"/>
+      <c r="A148" s="111"/>
+      <c r="B148" s="114"/>
       <c r="C148" s="73"/>
       <c r="D148" s="57"/>
       <c r="E148" s="73"/>
@@ -23194,8 +23212,8 @@
       <c r="V148" s="58"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="135"/>
-      <c r="B149" s="131"/>
+      <c r="A149" s="111"/>
+      <c r="B149" s="114"/>
       <c r="C149" s="73" t="s">
         <v>385</v>
       </c>
@@ -23258,8 +23276,8 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="135"/>
-      <c r="B150" s="131"/>
+      <c r="A150" s="111"/>
+      <c r="B150" s="114"/>
       <c r="C150" s="73"/>
       <c r="D150" s="57"/>
       <c r="E150" s="73"/>
@@ -23284,8 +23302,8 @@
       <c r="V150" s="58"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="135"/>
-      <c r="B151" s="131"/>
+      <c r="A151" s="111"/>
+      <c r="B151" s="114"/>
       <c r="C151" s="73" t="s">
         <v>386</v>
       </c>
@@ -23348,8 +23366,8 @@
       </c>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="135"/>
-      <c r="B152" s="131"/>
+      <c r="A152" s="111"/>
+      <c r="B152" s="114"/>
       <c r="C152" s="48" t="s">
         <v>387</v>
       </c>
@@ -23412,8 +23430,8 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="135"/>
-      <c r="B153" s="131"/>
+      <c r="A153" s="111"/>
+      <c r="B153" s="114"/>
       <c r="C153" s="48" t="s">
         <v>388</v>
       </c>
@@ -23476,8 +23494,8 @@
       </c>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="135"/>
-      <c r="B154" s="131"/>
+      <c r="A154" s="111"/>
+      <c r="B154" s="114"/>
       <c r="C154" s="48" t="s">
         <v>389</v>
       </c>
@@ -23540,8 +23558,8 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="135"/>
-      <c r="B155" s="131"/>
+      <c r="A155" s="111"/>
+      <c r="B155" s="114"/>
       <c r="C155" s="48"/>
       <c r="D155" s="57"/>
       <c r="E155" s="73"/>
@@ -23566,8 +23584,8 @@
       <c r="V155" s="58"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="135"/>
-      <c r="B156" s="131"/>
+      <c r="A156" s="111"/>
+      <c r="B156" s="114"/>
       <c r="C156" s="48" t="s">
         <v>390</v>
       </c>
@@ -23630,8 +23648,8 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="135"/>
-      <c r="B157" s="131"/>
+      <c r="A157" s="111"/>
+      <c r="B157" s="114"/>
       <c r="C157" s="48"/>
       <c r="D157" s="57"/>
       <c r="E157" s="73"/>
@@ -23656,8 +23674,8 @@
       <c r="V157" s="58"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="135"/>
-      <c r="B158" s="131"/>
+      <c r="A158" s="111"/>
+      <c r="B158" s="114"/>
       <c r="C158" s="48" t="s">
         <v>391</v>
       </c>
@@ -23720,8 +23738,8 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="135"/>
-      <c r="B159" s="132"/>
+      <c r="A159" s="111"/>
+      <c r="B159" s="115"/>
       <c r="C159" s="48"/>
       <c r="D159" s="57"/>
       <c r="E159" s="73"/>
@@ -23746,8 +23764,8 @@
       <c r="V159" s="58"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="135"/>
-      <c r="B160" s="130" t="s">
+      <c r="A160" s="111"/>
+      <c r="B160" s="113" t="s">
         <v>318</v>
       </c>
       <c r="C160" s="73" t="s">
@@ -23812,8 +23830,8 @@
       </c>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="135"/>
-      <c r="B161" s="131"/>
+      <c r="A161" s="111"/>
+      <c r="B161" s="114"/>
       <c r="C161" s="73"/>
       <c r="D161" s="57"/>
       <c r="E161" s="73"/>
@@ -23838,8 +23856,8 @@
       <c r="V161" s="58"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="135"/>
-      <c r="B162" s="131"/>
+      <c r="A162" s="111"/>
+      <c r="B162" s="114"/>
       <c r="C162" s="48" t="s">
         <v>393</v>
       </c>
@@ -23902,8 +23920,8 @@
       </c>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="135"/>
-      <c r="B163" s="131"/>
+      <c r="A163" s="111"/>
+      <c r="B163" s="114"/>
       <c r="C163" s="48"/>
       <c r="D163" s="57"/>
       <c r="E163" s="73"/>
@@ -23928,8 +23946,8 @@
       <c r="V163" s="58"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="135"/>
-      <c r="B164" s="131"/>
+      <c r="A164" s="111"/>
+      <c r="B164" s="114"/>
       <c r="C164" s="73" t="s">
         <v>394</v>
       </c>
@@ -23992,8 +24010,8 @@
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="135"/>
-      <c r="B165" s="131"/>
+      <c r="A165" s="111"/>
+      <c r="B165" s="114"/>
       <c r="C165" s="73" t="s">
         <v>395</v>
       </c>
@@ -24056,8 +24074,8 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="135"/>
-      <c r="B166" s="131"/>
+      <c r="A166" s="111"/>
+      <c r="B166" s="114"/>
       <c r="C166" s="73"/>
       <c r="D166" s="57"/>
       <c r="E166" s="73"/>
@@ -24082,8 +24100,8 @@
       <c r="V166" s="58"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="135"/>
-      <c r="B167" s="131"/>
+      <c r="A167" s="111"/>
+      <c r="B167" s="114"/>
       <c r="C167" s="73" t="s">
         <v>396</v>
       </c>
@@ -24146,8 +24164,8 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="135"/>
-      <c r="B168" s="131"/>
+      <c r="A168" s="111"/>
+      <c r="B168" s="114"/>
       <c r="C168" s="73"/>
       <c r="D168" s="57"/>
       <c r="E168" s="73"/>
@@ -24172,8 +24190,8 @@
       <c r="V168" s="58"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="135"/>
-      <c r="B169" s="131"/>
+      <c r="A169" s="111"/>
+      <c r="B169" s="114"/>
       <c r="C169" s="73" t="s">
         <v>397</v>
       </c>
@@ -24236,8 +24254,8 @@
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="135"/>
-      <c r="B170" s="131"/>
+      <c r="A170" s="111"/>
+      <c r="B170" s="114"/>
       <c r="C170" s="73" t="s">
         <v>398</v>
       </c>
@@ -24300,8 +24318,8 @@
       </c>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="135"/>
-      <c r="B171" s="131"/>
+      <c r="A171" s="111"/>
+      <c r="B171" s="114"/>
       <c r="C171" s="73" t="s">
         <v>399</v>
       </c>
@@ -24364,8 +24382,8 @@
       </c>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="135"/>
-      <c r="B172" s="131"/>
+      <c r="A172" s="111"/>
+      <c r="B172" s="114"/>
       <c r="C172" s="73"/>
       <c r="D172" s="57"/>
       <c r="E172" s="73"/>
@@ -24390,8 +24408,8 @@
       <c r="V172" s="58"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="135"/>
-      <c r="B173" s="131"/>
+      <c r="A173" s="111"/>
+      <c r="B173" s="114"/>
       <c r="C173" s="73" t="s">
         <v>400</v>
       </c>
@@ -24454,8 +24472,8 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="135"/>
-      <c r="B174" s="131"/>
+      <c r="A174" s="111"/>
+      <c r="B174" s="114"/>
       <c r="C174" s="73" t="s">
         <v>401</v>
       </c>
@@ -24518,8 +24536,8 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="135"/>
-      <c r="B175" s="132"/>
+      <c r="A175" s="111"/>
+      <c r="B175" s="115"/>
       <c r="C175" s="73"/>
       <c r="D175" s="57"/>
       <c r="E175" s="73"/>
@@ -24544,8 +24562,8 @@
       <c r="V175" s="58"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="135"/>
-      <c r="B176" s="130" t="s">
+      <c r="A176" s="111"/>
+      <c r="B176" s="113" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="73" t="s">
@@ -24610,8 +24628,8 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="135"/>
-      <c r="B177" s="131"/>
+      <c r="A177" s="111"/>
+      <c r="B177" s="114"/>
       <c r="C177" s="73" t="s">
         <v>403</v>
       </c>
@@ -24674,8 +24692,8 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="135"/>
-      <c r="B178" s="131"/>
+      <c r="A178" s="111"/>
+      <c r="B178" s="114"/>
       <c r="C178" s="73"/>
       <c r="D178" s="57"/>
       <c r="E178" s="73"/>
@@ -24700,8 +24718,8 @@
       <c r="V178" s="58"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="135"/>
-      <c r="B179" s="131"/>
+      <c r="A179" s="111"/>
+      <c r="B179" s="114"/>
       <c r="C179" s="73" t="s">
         <v>404</v>
       </c>
@@ -24764,8 +24782,8 @@
       </c>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="135"/>
-      <c r="B180" s="131"/>
+      <c r="A180" s="111"/>
+      <c r="B180" s="114"/>
       <c r="C180" s="73"/>
       <c r="D180" s="57"/>
       <c r="E180" s="73"/>
@@ -24790,8 +24808,8 @@
       <c r="V180" s="58"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="135"/>
-      <c r="B181" s="131"/>
+      <c r="A181" s="111"/>
+      <c r="B181" s="114"/>
       <c r="C181" s="73" t="s">
         <v>405</v>
       </c>
@@ -24854,8 +24872,8 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="135"/>
-      <c r="B182" s="131"/>
+      <c r="A182" s="111"/>
+      <c r="B182" s="114"/>
       <c r="C182" s="73"/>
       <c r="D182" s="57"/>
       <c r="E182" s="73"/>
@@ -24880,8 +24898,8 @@
       <c r="V182" s="58"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="135"/>
-      <c r="B183" s="131"/>
+      <c r="A183" s="111"/>
+      <c r="B183" s="114"/>
       <c r="C183" s="73" t="s">
         <v>406</v>
       </c>
@@ -24944,8 +24962,8 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="135"/>
-      <c r="B184" s="131"/>
+      <c r="A184" s="111"/>
+      <c r="B184" s="114"/>
       <c r="C184" s="73"/>
       <c r="D184" s="57"/>
       <c r="E184" s="73"/>
@@ -24970,8 +24988,8 @@
       <c r="V184" s="58"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="135"/>
-      <c r="B185" s="131"/>
+      <c r="A185" s="111"/>
+      <c r="B185" s="114"/>
       <c r="C185" s="73" t="s">
         <v>407</v>
       </c>
@@ -25034,8 +25052,8 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="135"/>
-      <c r="B186" s="131"/>
+      <c r="A186" s="111"/>
+      <c r="B186" s="114"/>
       <c r="C186" s="73"/>
       <c r="D186" s="57"/>
       <c r="E186" s="73"/>
@@ -25060,8 +25078,8 @@
       <c r="V186" s="58"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="135"/>
-      <c r="B187" s="131"/>
+      <c r="A187" s="111"/>
+      <c r="B187" s="114"/>
       <c r="C187" s="73" t="s">
         <v>408</v>
       </c>
@@ -25124,8 +25142,8 @@
       </c>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="135"/>
-      <c r="B188" s="131"/>
+      <c r="A188" s="111"/>
+      <c r="B188" s="114"/>
       <c r="C188" s="73"/>
       <c r="D188" s="57"/>
       <c r="E188" s="73"/>
@@ -25150,8 +25168,8 @@
       <c r="V188" s="58"/>
     </row>
     <row r="189" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A189" s="135"/>
-      <c r="B189" s="131"/>
+      <c r="A189" s="111"/>
+      <c r="B189" s="114"/>
       <c r="C189" s="73" t="s">
         <v>409</v>
       </c>
@@ -25214,8 +25232,8 @@
       </c>
     </row>
     <row r="190" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A190" s="135"/>
-      <c r="B190" s="131"/>
+      <c r="A190" s="111"/>
+      <c r="B190" s="114"/>
       <c r="C190" s="73"/>
       <c r="D190" s="57"/>
       <c r="E190" s="73"/>
@@ -25240,8 +25258,8 @@
       <c r="V190" s="58"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="135"/>
-      <c r="B191" s="131"/>
+      <c r="A191" s="111"/>
+      <c r="B191" s="114"/>
       <c r="C191" s="73" t="s">
         <v>410</v>
       </c>
@@ -25304,8 +25322,8 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="135"/>
-      <c r="B192" s="131"/>
+      <c r="A192" s="111"/>
+      <c r="B192" s="114"/>
       <c r="C192" s="73"/>
       <c r="D192" s="57"/>
       <c r="E192" s="73"/>
@@ -25330,8 +25348,8 @@
       <c r="V192" s="58"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="135"/>
-      <c r="B193" s="131"/>
+      <c r="A193" s="111"/>
+      <c r="B193" s="114"/>
       <c r="C193" s="73" t="s">
         <v>411</v>
       </c>
@@ -25394,8 +25412,8 @@
       </c>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="135"/>
-      <c r="B194" s="132"/>
+      <c r="A194" s="111"/>
+      <c r="B194" s="115"/>
       <c r="C194" s="73"/>
       <c r="D194" s="57"/>
       <c r="E194" s="73"/>
@@ -25420,8 +25438,8 @@
       <c r="V194" s="58"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="135"/>
-      <c r="B195" s="130" t="s">
+      <c r="A195" s="111"/>
+      <c r="B195" s="113" t="s">
         <v>5</v>
       </c>
       <c r="C195" s="73" t="s">
@@ -25484,8 +25502,8 @@
       <c r="V195" s="70"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="135"/>
-      <c r="B196" s="131"/>
+      <c r="A196" s="111"/>
+      <c r="B196" s="114"/>
       <c r="C196" s="73"/>
       <c r="D196" s="57"/>
       <c r="E196" s="73"/>
@@ -25510,8 +25528,8 @@
       <c r="V196" s="70"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="135"/>
-      <c r="B197" s="131"/>
+      <c r="A197" s="111"/>
+      <c r="B197" s="114"/>
       <c r="C197" s="59" t="s">
         <v>413</v>
       </c>
@@ -25572,8 +25590,8 @@
       <c r="V197" s="70"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="135"/>
-      <c r="B198" s="132"/>
+      <c r="A198" s="111"/>
+      <c r="B198" s="115"/>
       <c r="C198" s="59"/>
       <c r="D198" s="57"/>
       <c r="E198" s="73"/>
@@ -25598,7 +25616,7 @@
       <c r="V198" s="70"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="135"/>
+      <c r="A199" s="111"/>
       <c r="B199" s="74" t="s">
         <v>415</v>
       </c>
@@ -25662,7 +25680,7 @@
       </c>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="136"/>
+      <c r="A200" s="112"/>
       <c r="B200" s="74" t="s">
         <v>416</v>
       </c>
@@ -25803,25 +25821,25 @@
       </c>
     </row>
     <row r="203" spans="1:22" ht="26.25">
-      <c r="F203" s="112" t="s">
+      <c r="F203" s="126" t="s">
         <v>417</v>
       </c>
-      <c r="G203" s="112"/>
-      <c r="H203" s="112"/>
-      <c r="I203" s="112"/>
-      <c r="J203" s="112"/>
-      <c r="K203" s="112"/>
-      <c r="L203" s="112"/>
-      <c r="M203" s="112"/>
-      <c r="N203" s="112"/>
-      <c r="O203" s="112"/>
-      <c r="P203" s="112"/>
-      <c r="Q203" s="112"/>
-      <c r="R203" s="112"/>
-      <c r="S203" s="112"/>
-      <c r="T203" s="112"/>
-      <c r="U203" s="112"/>
-      <c r="V203" s="112"/>
+      <c r="G203" s="126"/>
+      <c r="H203" s="126"/>
+      <c r="I203" s="126"/>
+      <c r="J203" s="126"/>
+      <c r="K203" s="126"/>
+      <c r="L203" s="126"/>
+      <c r="M203" s="126"/>
+      <c r="N203" s="126"/>
+      <c r="O203" s="126"/>
+      <c r="P203" s="126"/>
+      <c r="Q203" s="126"/>
+      <c r="R203" s="126"/>
+      <c r="S203" s="126"/>
+      <c r="T203" s="126"/>
+      <c r="U203" s="126"/>
+      <c r="V203" s="126"/>
     </row>
     <row r="204" spans="1:22" ht="54" customHeight="1">
       <c r="F204" s="67" t="s">
@@ -26016,25 +26034,8 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:T3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="F203:V203"/>
     <mergeCell ref="B20:B30"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
@@ -26049,8 +26050,25 @@
     <mergeCell ref="B96:B107"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="F203:V203"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:T3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26127,11 +26145,11 @@
       <c r="B4" s="103"/>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="141" t="s">
         <v>420</v>
       </c>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="143"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
       <c r="J4" s="103"/>
@@ -27711,11 +27729,11 @@
       <c r="H31" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="144">
+      <c r="I31" s="149">
         <f>SUM(I32,I33,I34,I35)</f>
         <v>24</v>
       </c>
-      <c r="J31" s="145"/>
+      <c r="J31" s="151"/>
       <c r="K31" s="41"/>
       <c r="L31" s="50"/>
     </row>
@@ -27732,10 +27750,10 @@
       <c r="H32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="142">
+      <c r="I32" s="144">
         <v>4</v>
       </c>
-      <c r="J32" s="143"/>
+      <c r="J32" s="145"/>
       <c r="K32" s="15" t="s">
         <v>92</v>
       </c>
@@ -27754,10 +27772,10 @@
       <c r="H33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="142">
+      <c r="I33" s="144">
         <v>4</v>
       </c>
-      <c r="J33" s="143"/>
+      <c r="J33" s="145"/>
       <c r="K33" s="15" t="s">
         <v>7</v>
       </c>
@@ -27776,10 +27794,10 @@
       <c r="H34" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="142">
-        <v>8</v>
-      </c>
-      <c r="J34" s="143"/>
+      <c r="I34" s="144">
+        <v>8</v>
+      </c>
+      <c r="J34" s="145"/>
       <c r="K34" s="15" t="s">
         <v>83</v>
       </c>
@@ -27798,10 +27816,10 @@
       <c r="H35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="142">
-        <v>8</v>
-      </c>
-      <c r="J35" s="143"/>
+      <c r="I35" s="144">
+        <v>8</v>
+      </c>
+      <c r="J35" s="145"/>
       <c r="K35" s="15" t="s">
         <v>7</v>
       </c>
@@ -27820,11 +27838,11 @@
       <c r="H36" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="144">
+      <c r="I36" s="149">
         <f>SUM(I37:J40)</f>
         <v>16</v>
       </c>
-      <c r="J36" s="145"/>
+      <c r="J36" s="151"/>
       <c r="K36" s="37"/>
       <c r="L36" s="50"/>
     </row>
@@ -27841,10 +27859,10 @@
       <c r="H37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="142">
+      <c r="I37" s="144">
         <v>4</v>
       </c>
-      <c r="J37" s="143"/>
+      <c r="J37" s="145"/>
       <c r="K37" s="15" t="s">
         <v>7</v>
       </c>
@@ -27863,10 +27881,10 @@
       <c r="H38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="142">
+      <c r="I38" s="144">
         <v>4</v>
       </c>
-      <c r="J38" s="143"/>
+      <c r="J38" s="145"/>
       <c r="K38" s="15" t="s">
         <v>83</v>
       </c>
@@ -27885,10 +27903,10 @@
       <c r="H39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="142">
+      <c r="I39" s="144">
         <v>4</v>
       </c>
-      <c r="J39" s="143"/>
+      <c r="J39" s="145"/>
       <c r="K39" s="15" t="s">
         <v>92</v>
       </c>
@@ -27907,10 +27925,10 @@
       <c r="H40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="142">
+      <c r="I40" s="144">
         <v>4</v>
       </c>
-      <c r="J40" s="143"/>
+      <c r="J40" s="145"/>
       <c r="K40" s="15" t="s">
         <v>83</v>
       </c>
@@ -27929,11 +27947,11 @@
       <c r="H41" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="144">
+      <c r="I41" s="149">
         <f>SUM(I42:J45)</f>
         <v>24</v>
       </c>
-      <c r="J41" s="145"/>
+      <c r="J41" s="151"/>
       <c r="K41" s="37"/>
       <c r="L41" s="50"/>
     </row>
@@ -27950,10 +27968,10 @@
       <c r="H42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="142">
+      <c r="I42" s="144">
         <v>4</v>
       </c>
-      <c r="J42" s="143"/>
+      <c r="J42" s="145"/>
       <c r="K42" s="15" t="s">
         <v>92</v>
       </c>
@@ -27972,10 +27990,10 @@
       <c r="H43" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="142">
+      <c r="I43" s="144">
         <v>4</v>
       </c>
-      <c r="J43" s="143"/>
+      <c r="J43" s="145"/>
       <c r="K43" s="15" t="s">
         <v>7</v>
       </c>
@@ -27994,10 +28012,10 @@
       <c r="H44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="142">
-        <v>8</v>
-      </c>
-      <c r="J44" s="143"/>
+      <c r="I44" s="144">
+        <v>8</v>
+      </c>
+      <c r="J44" s="145"/>
       <c r="K44" s="15" t="s">
         <v>83</v>
       </c>
@@ -28016,10 +28034,10 @@
       <c r="H45" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="142">
-        <v>8</v>
-      </c>
-      <c r="J45" s="143"/>
+      <c r="I45" s="144">
+        <v>8</v>
+      </c>
+      <c r="J45" s="145"/>
       <c r="K45" s="15" t="s">
         <v>7</v>
       </c>
@@ -28038,11 +28056,11 @@
       <c r="H46" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="144">
+      <c r="I46" s="149">
         <f>SUM(I48:J50,I47)</f>
         <v>24</v>
       </c>
-      <c r="J46" s="145"/>
+      <c r="J46" s="151"/>
       <c r="K46" s="37"/>
       <c r="L46" s="50"/>
     </row>
@@ -28059,10 +28077,10 @@
       <c r="H47" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="142">
+      <c r="I47" s="144">
         <v>4</v>
       </c>
-      <c r="J47" s="143"/>
+      <c r="J47" s="145"/>
       <c r="K47" s="15" t="s">
         <v>7</v>
       </c>
@@ -28081,10 +28099,10 @@
       <c r="H48" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="142">
+      <c r="I48" s="144">
         <v>4</v>
       </c>
-      <c r="J48" s="143"/>
+      <c r="J48" s="145"/>
       <c r="K48" s="37" t="s">
         <v>83</v>
       </c>
@@ -28103,10 +28121,10 @@
       <c r="H49" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="142">
-        <v>8</v>
-      </c>
-      <c r="J49" s="143"/>
+      <c r="I49" s="144">
+        <v>8</v>
+      </c>
+      <c r="J49" s="145"/>
       <c r="K49" s="37" t="s">
         <v>92</v>
       </c>
@@ -28125,10 +28143,10 @@
       <c r="H50" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="142">
-        <v>8</v>
-      </c>
-      <c r="J50" s="143"/>
+      <c r="I50" s="144">
+        <v>8</v>
+      </c>
+      <c r="J50" s="145"/>
       <c r="K50" s="37" t="s">
         <v>83</v>
       </c>
@@ -28147,10 +28165,10 @@
       <c r="H51" s="42">
         <v>42770</v>
       </c>
-      <c r="I51" s="144">
-        <v>16</v>
-      </c>
-      <c r="J51" s="145"/>
+      <c r="I51" s="149">
+        <v>16</v>
+      </c>
+      <c r="J51" s="151"/>
       <c r="K51" s="37"/>
       <c r="L51" s="50"/>
     </row>
@@ -28167,10 +28185,10 @@
       <c r="H52" s="16">
         <v>42739</v>
       </c>
-      <c r="I52" s="142">
-        <v>8</v>
-      </c>
-      <c r="J52" s="143"/>
+      <c r="I52" s="144">
+        <v>8</v>
+      </c>
+      <c r="J52" s="145"/>
       <c r="K52" s="15" t="s">
         <v>65</v>
       </c>
@@ -28189,10 +28207,10 @@
       <c r="H53" s="16">
         <v>42770</v>
       </c>
-      <c r="I53" s="142">
-        <v>8</v>
-      </c>
-      <c r="J53" s="143"/>
+      <c r="I53" s="144">
+        <v>8</v>
+      </c>
+      <c r="J53" s="145"/>
       <c r="K53" s="15" t="s">
         <v>65</v>
       </c>
@@ -28211,11 +28229,11 @@
       <c r="H54" s="30">
         <v>42860</v>
       </c>
-      <c r="I54" s="146">
+      <c r="I54" s="156">
         <f>SUM(I55:J57,I58,I65,I76,I87,I98,I109,I120)</f>
         <v>370</v>
       </c>
-      <c r="J54" s="147"/>
+      <c r="J54" s="157"/>
       <c r="K54" s="43"/>
       <c r="L54" s="50"/>
     </row>
@@ -28232,10 +28250,10 @@
       <c r="H55" s="16">
         <v>42920</v>
       </c>
-      <c r="I55" s="142">
-        <v>8</v>
-      </c>
-      <c r="J55" s="143"/>
+      <c r="I55" s="144">
+        <v>8</v>
+      </c>
+      <c r="J55" s="145"/>
       <c r="K55" s="15" t="s">
         <v>65</v>
       </c>
@@ -28254,10 +28272,10 @@
       <c r="H56" s="16">
         <v>42920</v>
       </c>
-      <c r="I56" s="142">
+      <c r="I56" s="144">
         <v>4</v>
       </c>
-      <c r="J56" s="143"/>
+      <c r="J56" s="145"/>
       <c r="K56" s="15" t="s">
         <v>83</v>
       </c>
@@ -28276,10 +28294,10 @@
       <c r="H57" s="16">
         <v>42951</v>
       </c>
-      <c r="I57" s="142">
-        <v>8</v>
-      </c>
-      <c r="J57" s="143"/>
+      <c r="I57" s="144">
+        <v>8</v>
+      </c>
+      <c r="J57" s="145"/>
       <c r="K57" s="15" t="s">
         <v>83</v>
       </c>
@@ -28298,11 +28316,11 @@
       <c r="H58" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I58" s="144">
+      <c r="I58" s="149">
         <f>SUM(I59,I60,I61,I62,I63,I64)</f>
         <v>24</v>
       </c>
-      <c r="J58" s="145"/>
+      <c r="J58" s="151"/>
       <c r="K58" s="37"/>
       <c r="L58" s="50"/>
     </row>
@@ -28319,10 +28337,10 @@
       <c r="H59" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I59" s="142">
+      <c r="I59" s="144">
         <v>4</v>
       </c>
-      <c r="J59" s="143"/>
+      <c r="J59" s="145"/>
       <c r="K59" s="15" t="s">
         <v>7</v>
       </c>
@@ -28341,10 +28359,10 @@
       <c r="H60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I60" s="142">
+      <c r="I60" s="144">
         <v>4</v>
       </c>
-      <c r="J60" s="143"/>
+      <c r="J60" s="145"/>
       <c r="K60" s="15" t="s">
         <v>92</v>
       </c>
@@ -28363,10 +28381,10 @@
       <c r="H61" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I61" s="142">
+      <c r="I61" s="144">
         <v>4</v>
       </c>
-      <c r="J61" s="143"/>
+      <c r="J61" s="145"/>
       <c r="K61" s="15" t="s">
         <v>83</v>
       </c>
@@ -28385,10 +28403,10 @@
       <c r="H62" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="142">
+      <c r="I62" s="144">
         <v>4</v>
       </c>
-      <c r="J62" s="143"/>
+      <c r="J62" s="145"/>
       <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
@@ -28407,10 +28425,10 @@
       <c r="H63" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="142">
+      <c r="I63" s="144">
         <v>4</v>
       </c>
-      <c r="J63" s="143"/>
+      <c r="J63" s="145"/>
       <c r="K63" s="15" t="s">
         <v>138</v>
       </c>
@@ -28429,10 +28447,10 @@
       <c r="H64" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I64" s="142">
+      <c r="I64" s="144">
         <v>4</v>
       </c>
-      <c r="J64" s="143"/>
+      <c r="J64" s="145"/>
       <c r="K64" s="15" t="s">
         <v>7</v>
       </c>
@@ -28451,11 +28469,11 @@
       <c r="H65" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="144">
+      <c r="I65" s="149">
         <f>SUM(I66:J75)</f>
         <v>40</v>
       </c>
-      <c r="J65" s="145"/>
+      <c r="J65" s="151"/>
       <c r="K65" s="37"/>
       <c r="L65" s="50"/>
     </row>
@@ -28472,10 +28490,10 @@
       <c r="H66" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="142">
+      <c r="I66" s="144">
         <v>4</v>
       </c>
-      <c r="J66" s="143"/>
+      <c r="J66" s="145"/>
       <c r="K66" s="15" t="s">
         <v>7</v>
       </c>
@@ -28494,10 +28512,10 @@
       <c r="H67" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I67" s="142">
+      <c r="I67" s="144">
         <v>4</v>
       </c>
-      <c r="J67" s="143"/>
+      <c r="J67" s="145"/>
       <c r="K67" s="15" t="s">
         <v>92</v>
       </c>
@@ -28516,10 +28534,10 @@
       <c r="H68" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I68" s="142">
+      <c r="I68" s="144">
         <v>4</v>
       </c>
-      <c r="J68" s="143"/>
+      <c r="J68" s="145"/>
       <c r="K68" s="15" t="s">
         <v>83</v>
       </c>
@@ -28538,10 +28556,10 @@
       <c r="H69" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I69" s="142">
+      <c r="I69" s="144">
         <v>4</v>
       </c>
-      <c r="J69" s="143"/>
+      <c r="J69" s="145"/>
       <c r="K69" s="15" t="s">
         <v>83</v>
       </c>
@@ -28560,10 +28578,10 @@
       <c r="H70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I70" s="142">
+      <c r="I70" s="144">
         <v>4</v>
       </c>
-      <c r="J70" s="143"/>
+      <c r="J70" s="145"/>
       <c r="K70" s="15" t="s">
         <v>92</v>
       </c>
@@ -28582,10 +28600,10 @@
       <c r="H71" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I71" s="142">
+      <c r="I71" s="144">
         <v>4</v>
       </c>
-      <c r="J71" s="143"/>
+      <c r="J71" s="145"/>
       <c r="K71" s="15" t="s">
         <v>7</v>
       </c>
@@ -28604,10 +28622,10 @@
       <c r="H72" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="142">
+      <c r="I72" s="144">
         <v>4</v>
       </c>
-      <c r="J72" s="143"/>
+      <c r="J72" s="145"/>
       <c r="K72" s="15" t="s">
         <v>92</v>
       </c>
@@ -28626,10 +28644,10 @@
       <c r="H73" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I73" s="142">
+      <c r="I73" s="144">
         <v>4</v>
       </c>
-      <c r="J73" s="143"/>
+      <c r="J73" s="145"/>
       <c r="K73" s="15" t="s">
         <v>83</v>
       </c>
@@ -28648,10 +28666,10 @@
       <c r="H74" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I74" s="142">
+      <c r="I74" s="144">
         <v>4</v>
       </c>
-      <c r="J74" s="143"/>
+      <c r="J74" s="145"/>
       <c r="K74" s="15" t="s">
         <v>7</v>
       </c>
@@ -28670,10 +28688,10 @@
       <c r="H75" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="142">
+      <c r="I75" s="144">
         <v>4</v>
       </c>
-      <c r="J75" s="143"/>
+      <c r="J75" s="145"/>
       <c r="K75" s="15" t="s">
         <v>92</v>
       </c>
@@ -28692,11 +28710,11 @@
       <c r="H76" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="I76" s="148">
+      <c r="I76" s="154">
         <f>SUM(I77:J86)</f>
         <v>132</v>
       </c>
-      <c r="J76" s="149"/>
+      <c r="J76" s="155"/>
       <c r="K76" s="37"/>
       <c r="L76" s="50"/>
     </row>
@@ -28713,10 +28731,10 @@
       <c r="H77" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I77" s="142">
+      <c r="I77" s="144">
         <v>12</v>
       </c>
-      <c r="J77" s="143"/>
+      <c r="J77" s="145"/>
       <c r="K77" s="15" t="s">
         <v>7</v>
       </c>
@@ -28735,10 +28753,10 @@
       <c r="H78" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I78" s="142">
+      <c r="I78" s="144">
         <v>12</v>
       </c>
-      <c r="J78" s="143"/>
+      <c r="J78" s="145"/>
       <c r="K78" s="15" t="s">
         <v>92</v>
       </c>
@@ -28757,10 +28775,10 @@
       <c r="H79" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="142">
+      <c r="I79" s="144">
         <v>12</v>
       </c>
-      <c r="J79" s="143"/>
+      <c r="J79" s="145"/>
       <c r="K79" s="15" t="s">
         <v>83</v>
       </c>
@@ -28779,10 +28797,10 @@
       <c r="H80" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I80" s="150">
+      <c r="I80" s="152">
         <v>12</v>
       </c>
-      <c r="J80" s="151"/>
+      <c r="J80" s="153"/>
       <c r="K80" s="37" t="s">
         <v>83</v>
       </c>
@@ -28801,10 +28819,10 @@
       <c r="H81" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="142">
+      <c r="I81" s="144">
         <v>12</v>
       </c>
-      <c r="J81" s="143"/>
+      <c r="J81" s="145"/>
       <c r="K81" s="15" t="s">
         <v>7</v>
       </c>
@@ -28823,10 +28841,10 @@
       <c r="H82" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I82" s="142">
+      <c r="I82" s="144">
         <v>12</v>
       </c>
-      <c r="J82" s="143"/>
+      <c r="J82" s="145"/>
       <c r="K82" s="15" t="s">
         <v>92</v>
       </c>
@@ -28845,10 +28863,10 @@
       <c r="H83" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="I83" s="142">
+      <c r="I83" s="144">
         <v>20</v>
       </c>
-      <c r="J83" s="143"/>
+      <c r="J83" s="145"/>
       <c r="K83" s="15" t="s">
         <v>83</v>
       </c>
@@ -28867,10 +28885,10 @@
       <c r="H84" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I84" s="142">
+      <c r="I84" s="144">
         <v>12</v>
       </c>
-      <c r="J84" s="143"/>
+      <c r="J84" s="145"/>
       <c r="K84" s="15" t="s">
         <v>83</v>
       </c>
@@ -28889,10 +28907,10 @@
       <c r="H85" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I85" s="142">
-        <v>16</v>
-      </c>
-      <c r="J85" s="143"/>
+      <c r="I85" s="144">
+        <v>16</v>
+      </c>
+      <c r="J85" s="145"/>
       <c r="K85" s="15" t="s">
         <v>92</v>
       </c>
@@ -28911,10 +28929,10 @@
       <c r="H86" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I86" s="142">
+      <c r="I86" s="144">
         <v>12</v>
       </c>
-      <c r="J86" s="143"/>
+      <c r="J86" s="145"/>
       <c r="K86" s="15" t="s">
         <v>7</v>
       </c>
@@ -28933,11 +28951,11 @@
       <c r="H87" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I87" s="144">
+      <c r="I87" s="149">
         <f>SUM(I88:J97)</f>
         <v>40</v>
       </c>
-      <c r="J87" s="145"/>
+      <c r="J87" s="151"/>
       <c r="K87" s="37"/>
       <c r="L87" s="50"/>
     </row>
@@ -28954,10 +28972,10 @@
       <c r="H88" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I88" s="142">
+      <c r="I88" s="144">
         <v>4</v>
       </c>
-      <c r="J88" s="143"/>
+      <c r="J88" s="145"/>
       <c r="K88" s="15" t="s">
         <v>92</v>
       </c>
@@ -28976,10 +28994,10 @@
       <c r="H89" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I89" s="142">
+      <c r="I89" s="144">
         <v>4</v>
       </c>
-      <c r="J89" s="143"/>
+      <c r="J89" s="145"/>
       <c r="K89" s="15" t="s">
         <v>83</v>
       </c>
@@ -28998,10 +29016,10 @@
       <c r="H90" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I90" s="142">
+      <c r="I90" s="144">
         <v>4</v>
       </c>
-      <c r="J90" s="143"/>
+      <c r="J90" s="145"/>
       <c r="K90" s="15" t="s">
         <v>92</v>
       </c>
@@ -29020,10 +29038,10 @@
       <c r="H91" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I91" s="142">
+      <c r="I91" s="144">
         <v>4</v>
       </c>
-      <c r="J91" s="143"/>
+      <c r="J91" s="145"/>
       <c r="K91" s="15" t="s">
         <v>7</v>
       </c>
@@ -29042,10 +29060,10 @@
       <c r="H92" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I92" s="142">
+      <c r="I92" s="144">
         <v>4</v>
       </c>
-      <c r="J92" s="143"/>
+      <c r="J92" s="145"/>
       <c r="K92" s="15" t="s">
         <v>83</v>
       </c>
@@ -29064,10 +29082,10 @@
       <c r="H93" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I93" s="142">
+      <c r="I93" s="144">
         <v>4</v>
       </c>
-      <c r="J93" s="143"/>
+      <c r="J93" s="145"/>
       <c r="K93" s="15" t="s">
         <v>92</v>
       </c>
@@ -29086,10 +29104,10 @@
       <c r="H94" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I94" s="142">
+      <c r="I94" s="144">
         <v>4</v>
       </c>
-      <c r="J94" s="143"/>
+      <c r="J94" s="145"/>
       <c r="K94" s="15" t="s">
         <v>257</v>
       </c>
@@ -29108,10 +29126,10 @@
       <c r="H95" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I95" s="142">
+      <c r="I95" s="144">
         <v>4</v>
       </c>
-      <c r="J95" s="143"/>
+      <c r="J95" s="145"/>
       <c r="K95" s="15" t="s">
         <v>92</v>
       </c>
@@ -29130,10 +29148,10 @@
       <c r="H96" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I96" s="142">
+      <c r="I96" s="144">
         <v>4</v>
       </c>
-      <c r="J96" s="143"/>
+      <c r="J96" s="145"/>
       <c r="K96" s="15" t="s">
         <v>83</v>
       </c>
@@ -29152,10 +29170,10 @@
       <c r="H97" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I97" s="142">
+      <c r="I97" s="144">
         <v>4</v>
       </c>
-      <c r="J97" s="143"/>
+      <c r="J97" s="145"/>
       <c r="K97" s="15" t="s">
         <v>7</v>
       </c>
@@ -29174,11 +29192,11 @@
       <c r="H98" s="42">
         <v>42740</v>
       </c>
-      <c r="I98" s="144">
+      <c r="I98" s="149">
         <f>SUM(I99:J108)</f>
         <v>56</v>
       </c>
-      <c r="J98" s="145"/>
+      <c r="J98" s="151"/>
       <c r="K98" s="37"/>
       <c r="L98" s="50"/>
     </row>
@@ -29195,10 +29213,10 @@
       <c r="H99" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I99" s="142">
+      <c r="I99" s="144">
         <v>4</v>
       </c>
-      <c r="J99" s="143"/>
+      <c r="J99" s="145"/>
       <c r="K99" s="15" t="s">
         <v>92</v>
       </c>
@@ -29217,10 +29235,10 @@
       <c r="H100" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I100" s="142">
+      <c r="I100" s="144">
         <v>4</v>
       </c>
-      <c r="J100" s="143"/>
+      <c r="J100" s="145"/>
       <c r="K100" s="15" t="s">
         <v>83</v>
       </c>
@@ -29239,10 +29257,10 @@
       <c r="H101" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I101" s="142">
+      <c r="I101" s="144">
         <v>4</v>
       </c>
-      <c r="J101" s="143"/>
+      <c r="J101" s="145"/>
       <c r="K101" s="15" t="s">
         <v>83</v>
       </c>
@@ -29261,10 +29279,10 @@
       <c r="H102" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I102" s="142">
+      <c r="I102" s="144">
         <v>4</v>
       </c>
-      <c r="J102" s="143"/>
+      <c r="J102" s="145"/>
       <c r="K102" s="15" t="s">
         <v>83</v>
       </c>
@@ -29283,10 +29301,10 @@
       <c r="H103" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I103" s="142">
-        <v>8</v>
-      </c>
-      <c r="J103" s="143"/>
+      <c r="I103" s="144">
+        <v>8</v>
+      </c>
+      <c r="J103" s="145"/>
       <c r="K103" s="15" t="s">
         <v>92</v>
       </c>
@@ -29305,10 +29323,10 @@
       <c r="H104" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I104" s="142">
-        <v>8</v>
-      </c>
-      <c r="J104" s="143"/>
+      <c r="I104" s="144">
+        <v>8</v>
+      </c>
+      <c r="J104" s="145"/>
       <c r="K104" s="15" t="s">
         <v>7</v>
       </c>
@@ -29327,10 +29345,10 @@
       <c r="H105" s="16">
         <v>42740</v>
       </c>
-      <c r="I105" s="142">
-        <v>8</v>
-      </c>
-      <c r="J105" s="143"/>
+      <c r="I105" s="144">
+        <v>8</v>
+      </c>
+      <c r="J105" s="145"/>
       <c r="K105" s="15" t="s">
         <v>7</v>
       </c>
@@ -29349,10 +29367,10 @@
       <c r="H106" s="16">
         <v>42740</v>
       </c>
-      <c r="I106" s="142">
-        <v>8</v>
-      </c>
-      <c r="J106" s="143"/>
+      <c r="I106" s="144">
+        <v>8</v>
+      </c>
+      <c r="J106" s="145"/>
       <c r="K106" s="15" t="s">
         <v>92</v>
       </c>
@@ -29371,10 +29389,10 @@
       <c r="H107" s="16">
         <v>42740</v>
       </c>
-      <c r="I107" s="142">
+      <c r="I107" s="144">
         <v>4</v>
       </c>
-      <c r="J107" s="143"/>
+      <c r="J107" s="145"/>
       <c r="K107" s="15" t="s">
         <v>83</v>
       </c>
@@ -29393,10 +29411,10 @@
       <c r="H108" s="16">
         <v>42740</v>
       </c>
-      <c r="I108" s="142">
+      <c r="I108" s="144">
         <v>4</v>
       </c>
-      <c r="J108" s="143"/>
+      <c r="J108" s="145"/>
       <c r="K108" s="15" t="s">
         <v>83</v>
       </c>
@@ -29415,11 +29433,11 @@
       <c r="H109" s="42">
         <v>42799</v>
       </c>
-      <c r="I109" s="144">
+      <c r="I109" s="149">
         <f>SUM(I110:J119)</f>
         <v>42</v>
       </c>
-      <c r="J109" s="145"/>
+      <c r="J109" s="151"/>
       <c r="K109" s="37"/>
       <c r="L109" s="50"/>
     </row>
@@ -29436,10 +29454,10 @@
       <c r="H110" s="16">
         <v>42771</v>
       </c>
-      <c r="I110" s="142">
+      <c r="I110" s="144">
         <v>4</v>
       </c>
-      <c r="J110" s="143"/>
+      <c r="J110" s="145"/>
       <c r="K110" s="15" t="s">
         <v>83</v>
       </c>
@@ -29458,10 +29476,10 @@
       <c r="H111" s="16">
         <v>42771</v>
       </c>
-      <c r="I111" s="142">
+      <c r="I111" s="144">
         <v>4</v>
       </c>
-      <c r="J111" s="143"/>
+      <c r="J111" s="145"/>
       <c r="K111" s="37" t="s">
         <v>92</v>
       </c>
@@ -29480,10 +29498,10 @@
       <c r="H112" s="16">
         <v>42771</v>
       </c>
-      <c r="I112" s="142">
+      <c r="I112" s="144">
         <v>6</v>
       </c>
-      <c r="J112" s="143"/>
+      <c r="J112" s="145"/>
       <c r="K112" s="15" t="s">
         <v>7</v>
       </c>
@@ -29502,10 +29520,10 @@
       <c r="H113" s="16">
         <v>42771</v>
       </c>
-      <c r="I113" s="142">
+      <c r="I113" s="144">
         <v>4</v>
       </c>
-      <c r="J113" s="143"/>
+      <c r="J113" s="145"/>
       <c r="K113" s="15" t="s">
         <v>92</v>
       </c>
@@ -29524,10 +29542,10 @@
       <c r="H114" s="16">
         <v>42771</v>
       </c>
-      <c r="I114" s="142">
+      <c r="I114" s="144">
         <v>4</v>
       </c>
-      <c r="J114" s="143"/>
+      <c r="J114" s="145"/>
       <c r="K114" s="15" t="s">
         <v>83</v>
       </c>
@@ -29546,10 +29564,10 @@
       <c r="H115" s="16">
         <v>42771</v>
       </c>
-      <c r="I115" s="142">
+      <c r="I115" s="144">
         <v>4</v>
       </c>
-      <c r="J115" s="143"/>
+      <c r="J115" s="145"/>
       <c r="K115" s="15" t="s">
         <v>7</v>
       </c>
@@ -29568,10 +29586,10 @@
       <c r="H116" s="16">
         <v>42799</v>
       </c>
-      <c r="I116" s="142">
+      <c r="I116" s="144">
         <v>4</v>
       </c>
-      <c r="J116" s="143"/>
+      <c r="J116" s="145"/>
       <c r="K116" s="15" t="s">
         <v>7</v>
       </c>
@@ -29590,10 +29608,10 @@
       <c r="H117" s="16">
         <v>42799</v>
       </c>
-      <c r="I117" s="142">
+      <c r="I117" s="144">
         <v>4</v>
       </c>
-      <c r="J117" s="143"/>
+      <c r="J117" s="145"/>
       <c r="K117" s="15" t="s">
         <v>92</v>
       </c>
@@ -29612,10 +29630,10 @@
       <c r="H118" s="16">
         <v>42799</v>
       </c>
-      <c r="I118" s="142">
+      <c r="I118" s="144">
         <v>4</v>
       </c>
-      <c r="J118" s="143"/>
+      <c r="J118" s="145"/>
       <c r="K118" s="15" t="s">
         <v>83</v>
       </c>
@@ -29634,10 +29652,10 @@
       <c r="H119" s="16">
         <v>42799</v>
       </c>
-      <c r="I119" s="142">
+      <c r="I119" s="144">
         <v>4</v>
       </c>
-      <c r="J119" s="143"/>
+      <c r="J119" s="145"/>
       <c r="K119" s="15" t="s">
         <v>7</v>
       </c>
@@ -29656,11 +29674,11 @@
       <c r="H120" s="42">
         <v>42860</v>
       </c>
-      <c r="I120" s="144">
+      <c r="I120" s="149">
         <f>SUM(I121:J122)</f>
         <v>16</v>
       </c>
-      <c r="J120" s="145"/>
+      <c r="J120" s="151"/>
       <c r="K120" s="37"/>
       <c r="L120" s="50"/>
     </row>
@@ -29677,10 +29695,10 @@
       <c r="H121" s="16">
         <v>42830</v>
       </c>
-      <c r="I121" s="142">
-        <v>8</v>
-      </c>
-      <c r="J121" s="143"/>
+      <c r="I121" s="144">
+        <v>8</v>
+      </c>
+      <c r="J121" s="145"/>
       <c r="K121" s="15" t="s">
         <v>65</v>
       </c>
@@ -29699,42 +29717,104 @@
       <c r="H122" s="16">
         <v>42860</v>
       </c>
-      <c r="I122" s="142">
-        <v>8</v>
-      </c>
-      <c r="J122" s="143"/>
+      <c r="I122" s="144">
+        <v>8</v>
+      </c>
+      <c r="J122" s="145"/>
       <c r="K122" s="15" t="s">
         <v>65</v>
       </c>
       <c r="L122" s="51"/>
     </row>
     <row r="123" spans="5:12" ht="17.25" thickBot="1">
-      <c r="E123" s="152" t="s">
+      <c r="E123" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="F123" s="153"/>
-      <c r="G123" s="153"/>
-      <c r="H123" s="153"/>
-      <c r="I123" s="154"/>
-      <c r="J123" s="144">
+      <c r="F123" s="147"/>
+      <c r="G123" s="147"/>
+      <c r="H123" s="147"/>
+      <c r="I123" s="148"/>
+      <c r="J123" s="149">
         <f>SUM(I4,I7,I18,I54)</f>
         <v>626</v>
       </c>
-      <c r="K123" s="155"/>
-      <c r="L123" s="145"/>
+      <c r="K123" s="150"/>
+      <c r="L123" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
     <mergeCell ref="I114:J114"/>
     <mergeCell ref="I103:J103"/>
     <mergeCell ref="I104:J104"/>
@@ -29747,78 +29827,16 @@
     <mergeCell ref="I111:J111"/>
     <mergeCell ref="I112:J112"/>
     <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31556,16 +31574,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A91" s="152" t="s">
+      <c r="A91" s="146" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="153"/>
-      <c r="C91" s="153"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="144" t="s">
+      <c r="B91" s="147"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="145"/>
+      <c r="F91" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tài liệu/10.Sprint-backlog-ver.1.0.xlsx
+++ b/Tài liệu/10.Sprint-backlog-ver.1.0.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sprin 1" sheetId="8" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="9" r:id="rId2"/>
-    <sheet name="Report" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Sprint 3" sheetId="12" r:id="rId3"/>
+    <sheet name="Report" sheetId="11" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="423">
   <si>
     <t>Sprint</t>
   </si>
@@ -1766,7 +1767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2088,41 +2089,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2137,9 +2120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2178,6 +2158,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2200,6 +2216,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2208,43 +2248,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2932,6 +2939,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3390,6 +3398,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3565,6 +3574,705 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.8022823322497983E-2"/>
+          <c:y val="0.13160046092174219"/>
+          <c:w val="0.93197717667750202"/>
+          <c:h val="0.80679457076196293"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ước tính</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$10:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="#,##0.0">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FC2-4499-935E-C12DB03913AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 3'!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Thực tế</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$9:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>44296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44303</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44306</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44307</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44308</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44310</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44311</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44312</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44313</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44314</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$H$11:$AA$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="#,##0.0">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FC2-4499-935E-C12DB03913AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1027814912"/>
+        <c:axId val="-1027807840"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="-1027814912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1027807840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="-1027807840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Giờ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1027814912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4105307809866178E-2"/>
+          <c:y val="0.84347491440708156"/>
+          <c:w val="8.7811297684175019E-2"/>
+          <c:h val="0.10107565676609684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -3598,6 +4306,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4145,7 +4854,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4188,6 +4897,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4646,6 +5356,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4921,6 +5632,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7024,6 +7775,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7111,6 +8378,49 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D910869D-EAD0-4606-B463-4B82EBB256AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7490,8 +8800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W153" sqref="W153"/>
+    <sheetView topLeftCell="C151" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG159" sqref="AG159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7512,10 +8822,10 @@
       <c r="B1" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="122"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -7537,10 +8847,10 @@
       <c r="B2" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="124"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
@@ -7562,33 +8872,33 @@
       <c r="B3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="89"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="133">
         <v>44264</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -7607,10 +8917,10 @@
       <c r="B5" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="133">
         <v>44279</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="89"/>
       <c r="F5" s="60"/>
       <c r="I5" s="89"/>
@@ -7647,13 +8957,13 @@
       <c r="T6" s="89"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="121" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="92"/>
       <c r="H7" s="86"/>
       <c r="I7" s="80"/>
@@ -7679,17 +8989,17 @@
       <c r="D8" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="92"/>
       <c r="H8" s="89"/>
       <c r="I8" s="99"/>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="131" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="138"/>
+      <c r="K8" s="131"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
@@ -7711,18 +9021,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Hồng",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hậu, Hồng",$F$17:$F$63)/2 + SUMIF($D$17:$F$63,"Hồng, Cường",$F$17:$F$63)/2 + SUMIF($D$17:$F$63,"Thắng, Hồng",$F$17:$F$63)/2</f>
         <v>110</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="126">
         <f ca="1">SUMIF($D$68:$F$147,"Hồng",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hậu, Hồng",$F$68:$F$147)/2 + SUMIF($D$68:$F$147,"Hồng, Cường",$F$68:$F$147)/2 + SUMIF($D$68:$F$147,"Thắng, Hồng",$F$68:$F$147)/2</f>
         <v>107.5</v>
       </c>
-      <c r="F9" s="133"/>
+      <c r="F9" s="126"/>
       <c r="G9" s="92"/>
       <c r="H9" s="89"/>
       <c r="I9" s="100"/>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="131" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="138"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
       <c r="N9" s="89"/>
@@ -7744,18 +9054,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Thắng",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Thắng, Hồng",$F$17:$F$63)/2</f>
         <v>101</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="127">
         <f ca="1">SUMIF($D$68:$F$147,"Thắng",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Thắng, Hồng",$F$68:$F$147)/2</f>
         <v>100.5</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="92"/>
       <c r="H10" s="89"/>
       <c r="I10" s="101"/>
-      <c r="J10" s="138" t="s">
+      <c r="J10" s="131" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="138"/>
+      <c r="K10" s="131"/>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
       <c r="N10" s="89"/>
@@ -7777,18 +9087,18 @@
         <f ca="1">SUMIF($D$17:$F$63,"Hậu",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hậu, Hồng",$F$17:$F$63)/2</f>
         <v>110</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="128">
         <f ca="1">SUMIF($D$68:$F$147,"Hậu",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hậu, Hồng",$F$68:$F$147)/2</f>
         <v>104</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="92"/>
       <c r="H11" s="89"/>
       <c r="I11" s="102"/>
-      <c r="J11" s="138" t="s">
+      <c r="J11" s="131" t="s">
         <v>419</v>
       </c>
-      <c r="K11" s="138"/>
+      <c r="K11" s="131"/>
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -7810,16 +9120,16 @@
         <f ca="1">SUMIF($D$17:$F$63,"Cường",$F$17:$F$63) + SUMIF($D$17:$F$63,"Team",$F$17:$F$63)/4 + SUMIF($D$17:$F$63,"Hồng, Cường",$F$17:$F$63)/2</f>
         <v>109</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="130">
         <f ca="1">SUMIF($D$68:$F$147,"Cường",$F$68:$F$147) + SUMIF($D$68:$F$147,"Team",$F$68:$F$147)/4 + SUMIF($D$68:$F$147,"Hồng, Cường",$F$68:$F$147)/2</f>
         <v>104</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="92"/>
       <c r="H12" s="89"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
@@ -7831,19 +9141,19 @@
       <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="55">
         <f ca="1">SUM(D9:D12)</f>
         <v>430</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="120">
         <f ca="1">SUM(E9:F12)</f>
         <v>416</v>
       </c>
-      <c r="F13" s="127"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="92"/>
       <c r="H13" s="89"/>
       <c r="I13" s="80"/>
@@ -7941,7 +9251,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="116">
+      <c r="A17" s="132">
         <v>1</v>
       </c>
       <c r="B17" s="73" t="s">
@@ -8005,7 +9315,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="116"/>
+      <c r="A18" s="132"/>
       <c r="B18" s="73" t="s">
         <v>82</v>
       </c>
@@ -8067,7 +9377,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1">
-      <c r="A19" s="116"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="48" t="s">
         <v>284</v>
       </c>
@@ -8129,8 +9439,8 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116" t="s">
+      <c r="A20" s="132"/>
+      <c r="B20" s="132" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="73" t="s">
@@ -8193,8 +9503,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="132"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="73" t="s">
         <v>287</v>
       </c>
@@ -8255,8 +9565,8 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="116"/>
-      <c r="B22" s="119" t="s">
+      <c r="A22" s="132"/>
+      <c r="B22" s="135" t="s">
         <v>288</v>
       </c>
       <c r="C22" s="73" t="s">
@@ -8319,8 +9629,8 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="116"/>
-      <c r="B23" s="119"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="73" t="s">
         <v>290</v>
       </c>
@@ -8381,8 +9691,8 @@
       </c>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="116"/>
-      <c r="B24" s="119"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="73" t="s">
         <v>291</v>
       </c>
@@ -8443,8 +9753,8 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="116"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="132"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="73" t="s">
         <v>292</v>
       </c>
@@ -8505,8 +9815,8 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="116"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="132"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="73" t="s">
         <v>293</v>
       </c>
@@ -8567,8 +9877,8 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="116"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="132"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="73" t="s">
         <v>294</v>
       </c>
@@ -8629,8 +9939,8 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="116"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="132"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="73" t="s">
         <v>295</v>
       </c>
@@ -8691,8 +10001,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="116"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="73" t="s">
         <v>296</v>
       </c>
@@ -8753,7 +10063,7 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="116"/>
+      <c r="A30" s="132"/>
       <c r="B30" s="74" t="s">
         <v>297</v>
       </c>
@@ -8817,7 +10127,7 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="116"/>
+      <c r="A31" s="132"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73" t="s">
         <v>299</v>
@@ -8879,7 +10189,7 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="116"/>
+      <c r="A32" s="132"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73" t="s">
         <v>300</v>
@@ -8941,7 +10251,7 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="116"/>
+      <c r="A33" s="132"/>
       <c r="B33" s="73"/>
       <c r="C33" s="73" t="s">
         <v>301</v>
@@ -9003,7 +10313,7 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="116"/>
+      <c r="A34" s="132"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73" t="s">
         <v>302</v>
@@ -9065,7 +10375,7 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="116"/>
+      <c r="A35" s="132"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73" t="s">
         <v>303</v>
@@ -9127,7 +10437,7 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="116"/>
+      <c r="A36" s="132"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73" t="s">
         <v>304</v>
@@ -9189,7 +10499,7 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="116"/>
+      <c r="A37" s="132"/>
       <c r="B37" s="74" t="s">
         <v>101</v>
       </c>
@@ -9253,7 +10563,7 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="116"/>
+      <c r="A38" s="132"/>
       <c r="B38" s="73"/>
       <c r="C38" s="48" t="s">
         <v>306</v>
@@ -9315,7 +10625,7 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="116"/>
+      <c r="A39" s="132"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73" t="s">
         <v>307</v>
@@ -9377,7 +10687,7 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="116"/>
+      <c r="A40" s="132"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73" t="s">
         <v>308</v>
@@ -9439,7 +10749,7 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="116"/>
+      <c r="A41" s="132"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73" t="s">
         <v>309</v>
@@ -9501,7 +10811,7 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="116"/>
+      <c r="A42" s="132"/>
       <c r="B42" s="73"/>
       <c r="C42" s="73" t="s">
         <v>310</v>
@@ -9563,7 +10873,7 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="116"/>
+      <c r="A43" s="132"/>
       <c r="B43" s="73"/>
       <c r="C43" s="73" t="s">
         <v>311</v>
@@ -9625,7 +10935,7 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="116"/>
+      <c r="A44" s="132"/>
       <c r="B44" s="74" t="s">
         <v>106</v>
       </c>
@@ -9689,7 +10999,7 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="116"/>
+      <c r="A45" s="132"/>
       <c r="B45" s="73"/>
       <c r="C45" s="73" t="s">
         <v>313</v>
@@ -9751,7 +11061,7 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="116"/>
+      <c r="A46" s="132"/>
       <c r="B46" s="73"/>
       <c r="C46" s="73" t="s">
         <v>314</v>
@@ -9813,7 +11123,7 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="116"/>
+      <c r="A47" s="132"/>
       <c r="B47" s="73"/>
       <c r="C47" s="73" t="s">
         <v>315</v>
@@ -9875,7 +11185,7 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="116"/>
+      <c r="A48" s="132"/>
       <c r="B48" s="73"/>
       <c r="C48" s="73" t="s">
         <v>316</v>
@@ -9937,7 +11247,7 @@
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="116"/>
+      <c r="A49" s="132"/>
       <c r="B49" s="73"/>
       <c r="C49" s="48" t="s">
         <v>317</v>
@@ -9999,7 +11309,7 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="116"/>
+      <c r="A50" s="132"/>
       <c r="B50" s="74" t="s">
         <v>318</v>
       </c>
@@ -10063,7 +11373,7 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="116"/>
+      <c r="A51" s="132"/>
       <c r="B51" s="73"/>
       <c r="C51" s="48" t="s">
         <v>320</v>
@@ -10125,7 +11435,7 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="116"/>
+      <c r="A52" s="132"/>
       <c r="B52" s="73"/>
       <c r="C52" s="73" t="s">
         <v>321</v>
@@ -10187,7 +11497,7 @@
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="116"/>
+      <c r="A53" s="132"/>
       <c r="B53" s="73"/>
       <c r="C53" s="73" t="s">
         <v>322</v>
@@ -10249,7 +11559,7 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="116"/>
+      <c r="A54" s="132"/>
       <c r="B54" s="73"/>
       <c r="C54" s="73" t="s">
         <v>323</v>
@@ -10311,7 +11621,7 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="116"/>
+      <c r="A55" s="132"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73" t="s">
         <v>324</v>
@@ -10373,7 +11683,7 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="116"/>
+      <c r="A56" s="132"/>
       <c r="B56" s="74" t="s">
         <v>3</v>
       </c>
@@ -10437,7 +11747,7 @@
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="116"/>
+      <c r="A57" s="132"/>
       <c r="B57" s="73"/>
       <c r="C57" s="73" t="s">
         <v>326</v>
@@ -10499,7 +11809,7 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="116"/>
+      <c r="A58" s="132"/>
       <c r="B58" s="73"/>
       <c r="C58" s="73" t="s">
         <v>327</v>
@@ -10561,7 +11871,7 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="116"/>
+      <c r="A59" s="132"/>
       <c r="B59" s="73"/>
       <c r="C59" s="73" t="s">
         <v>328</v>
@@ -10623,7 +11933,7 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="116"/>
+      <c r="A60" s="132"/>
       <c r="B60" s="73"/>
       <c r="C60" s="73" t="s">
         <v>329</v>
@@ -10685,7 +11995,7 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="116"/>
+      <c r="A61" s="132"/>
       <c r="B61" s="73"/>
       <c r="C61" s="73" t="s">
         <v>330</v>
@@ -10747,7 +12057,7 @@
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="116"/>
+      <c r="A62" s="132"/>
       <c r="B62" s="74" t="s">
         <v>206</v>
       </c>
@@ -10811,7 +12121,7 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="116"/>
+      <c r="A63" s="132"/>
       <c r="B63" s="73"/>
       <c r="C63" s="59" t="s">
         <v>332</v>
@@ -11026,7 +12336,7 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="116">
+      <c r="A68" s="132">
         <v>1</v>
       </c>
       <c r="B68" s="73" t="s">
@@ -11092,7 +12402,7 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="116"/>
+      <c r="A69" s="132"/>
       <c r="B69" s="73" t="s">
         <v>82</v>
       </c>
@@ -11156,7 +12466,7 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="116"/>
+      <c r="A70" s="132"/>
       <c r="B70" s="73"/>
       <c r="C70" s="73"/>
       <c r="D70" s="57"/>
@@ -11181,7 +12491,7 @@
       <c r="V70" s="58"/>
     </row>
     <row r="71" spans="1:22" ht="35.25" customHeight="1">
-      <c r="A71" s="116"/>
+      <c r="A71" s="132"/>
       <c r="B71" s="48" t="s">
         <v>284</v>
       </c>
@@ -11245,8 +12555,8 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="116"/>
-      <c r="B72" s="110" t="s">
+      <c r="A72" s="132"/>
+      <c r="B72" s="141" t="s">
         <v>285</v>
       </c>
       <c r="C72" s="73" t="s">
@@ -11311,8 +12621,8 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="116"/>
-      <c r="B73" s="111"/>
+      <c r="A73" s="132"/>
+      <c r="B73" s="142"/>
       <c r="C73" s="73"/>
       <c r="D73" s="57"/>
       <c r="E73" s="73"/>
@@ -11337,8 +12647,8 @@
       <c r="V73" s="58"/>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="116"/>
-      <c r="B74" s="111"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="142"/>
       <c r="C74" s="73" t="s">
         <v>287</v>
       </c>
@@ -11401,8 +12711,8 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="116"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="132"/>
+      <c r="B75" s="143"/>
       <c r="C75" s="73"/>
       <c r="D75" s="57"/>
       <c r="E75" s="73"/>
@@ -11427,8 +12737,8 @@
       <c r="V75" s="58"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="116"/>
-      <c r="B76" s="113" t="s">
+      <c r="A76" s="132"/>
+      <c r="B76" s="137" t="s">
         <v>288</v>
       </c>
       <c r="C76" s="73" t="s">
@@ -11493,8 +12803,8 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="116"/>
-      <c r="B77" s="114"/>
+      <c r="A77" s="132"/>
+      <c r="B77" s="138"/>
       <c r="C77" s="73"/>
       <c r="D77" s="57"/>
       <c r="E77" s="73"/>
@@ -11519,8 +12829,8 @@
       <c r="V77" s="58"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="116"/>
-      <c r="B78" s="114"/>
+      <c r="A78" s="132"/>
+      <c r="B78" s="138"/>
       <c r="C78" s="73" t="s">
         <v>290</v>
       </c>
@@ -11583,8 +12893,8 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="116"/>
-      <c r="B79" s="114"/>
+      <c r="A79" s="132"/>
+      <c r="B79" s="138"/>
       <c r="C79" s="73"/>
       <c r="D79" s="57"/>
       <c r="E79" s="73"/>
@@ -11608,8 +12918,8 @@
       <c r="V79" s="58"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="116"/>
-      <c r="B80" s="114"/>
+      <c r="A80" s="132"/>
+      <c r="B80" s="138"/>
       <c r="C80" s="73" t="s">
         <v>291</v>
       </c>
@@ -11672,8 +12982,8 @@
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="116"/>
-      <c r="B81" s="114"/>
+      <c r="A81" s="132"/>
+      <c r="B81" s="138"/>
       <c r="C81" s="73" t="s">
         <v>292</v>
       </c>
@@ -11736,8 +13046,8 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="116"/>
-      <c r="B82" s="114"/>
+      <c r="A82" s="132"/>
+      <c r="B82" s="138"/>
       <c r="C82" s="73" t="s">
         <v>293</v>
       </c>
@@ -11800,8 +13110,8 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="116"/>
-      <c r="B83" s="114"/>
+      <c r="A83" s="132"/>
+      <c r="B83" s="138"/>
       <c r="C83" s="73"/>
       <c r="D83" s="57"/>
       <c r="E83" s="73"/>
@@ -11826,8 +13136,8 @@
       <c r="V83" s="58"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="116"/>
-      <c r="B84" s="114"/>
+      <c r="A84" s="132"/>
+      <c r="B84" s="138"/>
       <c r="C84" s="73" t="s">
         <v>294</v>
       </c>
@@ -11890,8 +13200,8 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="116"/>
-      <c r="B85" s="114"/>
+      <c r="A85" s="132"/>
+      <c r="B85" s="138"/>
       <c r="C85" s="73"/>
       <c r="D85" s="57"/>
       <c r="E85" s="73"/>
@@ -11916,8 +13226,8 @@
       <c r="V85" s="58"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="116"/>
-      <c r="B86" s="114"/>
+      <c r="A86" s="132"/>
+      <c r="B86" s="138"/>
       <c r="C86" s="73" t="s">
         <v>295</v>
       </c>
@@ -11980,8 +13290,8 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="116"/>
-      <c r="B87" s="114"/>
+      <c r="A87" s="132"/>
+      <c r="B87" s="138"/>
       <c r="C87" s="73"/>
       <c r="D87" s="57"/>
       <c r="E87" s="73"/>
@@ -12006,8 +13316,8 @@
       <c r="V87" s="58"/>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="116"/>
-      <c r="B88" s="114"/>
+      <c r="A88" s="132"/>
+      <c r="B88" s="138"/>
       <c r="C88" s="73" t="s">
         <v>296</v>
       </c>
@@ -12070,8 +13380,8 @@
       </c>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="116"/>
-      <c r="B89" s="115"/>
+      <c r="A89" s="132"/>
+      <c r="B89" s="139"/>
       <c r="C89" s="73"/>
       <c r="D89" s="57"/>
       <c r="E89" s="73"/>
@@ -12096,8 +13406,8 @@
       <c r="V89" s="58"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="116"/>
-      <c r="B90" s="113" t="s">
+      <c r="A90" s="132"/>
+      <c r="B90" s="137" t="s">
         <v>297</v>
       </c>
       <c r="C90" s="73" t="s">
@@ -12162,8 +13472,8 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="116"/>
-      <c r="B91" s="114"/>
+      <c r="A91" s="132"/>
+      <c r="B91" s="138"/>
       <c r="C91" s="73"/>
       <c r="D91" s="57"/>
       <c r="E91" s="73"/>
@@ -12188,8 +13498,8 @@
       <c r="V91" s="58"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="116"/>
-      <c r="B92" s="114"/>
+      <c r="A92" s="132"/>
+      <c r="B92" s="138"/>
       <c r="C92" s="73" t="s">
         <v>299</v>
       </c>
@@ -12252,8 +13562,8 @@
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="116"/>
-      <c r="B93" s="114"/>
+      <c r="A93" s="132"/>
+      <c r="B93" s="138"/>
       <c r="C93" s="73"/>
       <c r="D93" s="57"/>
       <c r="E93" s="73"/>
@@ -12278,8 +13588,8 @@
       <c r="V93" s="58"/>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="116"/>
-      <c r="B94" s="114"/>
+      <c r="A94" s="132"/>
+      <c r="B94" s="138"/>
       <c r="C94" s="73" t="s">
         <v>300</v>
       </c>
@@ -12342,8 +13652,8 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="116"/>
-      <c r="B95" s="114"/>
+      <c r="A95" s="132"/>
+      <c r="B95" s="138"/>
       <c r="C95" s="73" t="s">
         <v>301</v>
       </c>
@@ -12406,8 +13716,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="116"/>
-      <c r="B96" s="114"/>
+      <c r="A96" s="132"/>
+      <c r="B96" s="138"/>
       <c r="C96" s="73"/>
       <c r="D96" s="57"/>
       <c r="E96" s="73"/>
@@ -12432,8 +13742,8 @@
       <c r="V96" s="58"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="116"/>
-      <c r="B97" s="114"/>
+      <c r="A97" s="132"/>
+      <c r="B97" s="138"/>
       <c r="C97" s="73" t="s">
         <v>302</v>
       </c>
@@ -12496,8 +13806,8 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="116"/>
-      <c r="B98" s="114"/>
+      <c r="A98" s="132"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="73"/>
       <c r="D98" s="57"/>
       <c r="E98" s="73"/>
@@ -12522,8 +13832,8 @@
       <c r="V98" s="58"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="116"/>
-      <c r="B99" s="114"/>
+      <c r="A99" s="132"/>
+      <c r="B99" s="138"/>
       <c r="C99" s="73" t="s">
         <v>303</v>
       </c>
@@ -12586,8 +13896,8 @@
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="116"/>
-      <c r="B100" s="114"/>
+      <c r="A100" s="132"/>
+      <c r="B100" s="138"/>
       <c r="C100" s="73" t="s">
         <v>304</v>
       </c>
@@ -12650,8 +13960,8 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="116"/>
-      <c r="B101" s="115"/>
+      <c r="A101" s="132"/>
+      <c r="B101" s="139"/>
       <c r="C101" s="73"/>
       <c r="D101" s="57"/>
       <c r="E101" s="73"/>
@@ -12676,8 +13986,8 @@
       <c r="V101" s="58"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="116"/>
-      <c r="B102" s="113" t="s">
+      <c r="A102" s="132"/>
+      <c r="B102" s="137" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="73" t="s">
@@ -12742,8 +14052,8 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="116"/>
-      <c r="B103" s="114"/>
+      <c r="A103" s="132"/>
+      <c r="B103" s="138"/>
       <c r="C103" s="73"/>
       <c r="D103" s="57"/>
       <c r="E103" s="73"/>
@@ -12768,8 +14078,8 @@
       <c r="V103" s="58"/>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="116"/>
-      <c r="B104" s="114"/>
+      <c r="A104" s="132"/>
+      <c r="B104" s="138"/>
       <c r="C104" s="48" t="s">
         <v>306</v>
       </c>
@@ -12832,8 +14142,8 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="116"/>
-      <c r="B105" s="114"/>
+      <c r="A105" s="132"/>
+      <c r="B105" s="138"/>
       <c r="C105" s="48"/>
       <c r="D105" s="57"/>
       <c r="E105" s="73"/>
@@ -12857,8 +14167,8 @@
       <c r="V105" s="58"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="116"/>
-      <c r="B106" s="114"/>
+      <c r="A106" s="132"/>
+      <c r="B106" s="138"/>
       <c r="C106" s="73" t="s">
         <v>307</v>
       </c>
@@ -12921,8 +14231,8 @@
       </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="116"/>
-      <c r="B107" s="114"/>
+      <c r="A107" s="132"/>
+      <c r="B107" s="138"/>
       <c r="C107" s="73"/>
       <c r="D107" s="57"/>
       <c r="E107" s="73"/>
@@ -12947,8 +14257,8 @@
       <c r="V107" s="58"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="116"/>
-      <c r="B108" s="114"/>
+      <c r="A108" s="132"/>
+      <c r="B108" s="138"/>
       <c r="C108" s="73" t="s">
         <v>308</v>
       </c>
@@ -13011,8 +14321,8 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="116"/>
-      <c r="B109" s="114"/>
+      <c r="A109" s="132"/>
+      <c r="B109" s="138"/>
       <c r="C109" s="73"/>
       <c r="D109" s="57"/>
       <c r="E109" s="73"/>
@@ -13037,8 +14347,8 @@
       <c r="V109" s="58"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="116"/>
-      <c r="B110" s="114"/>
+      <c r="A110" s="132"/>
+      <c r="B110" s="138"/>
       <c r="C110" s="73" t="s">
         <v>309</v>
       </c>
@@ -13101,8 +14411,8 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="116"/>
-      <c r="B111" s="114"/>
+      <c r="A111" s="132"/>
+      <c r="B111" s="138"/>
       <c r="C111" s="73"/>
       <c r="D111" s="57"/>
       <c r="E111" s="73"/>
@@ -13127,8 +14437,8 @@
       <c r="V111" s="58"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="116"/>
-      <c r="B112" s="114"/>
+      <c r="A112" s="132"/>
+      <c r="B112" s="138"/>
       <c r="C112" s="73" t="s">
         <v>310</v>
       </c>
@@ -13191,8 +14501,8 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="116"/>
-      <c r="B113" s="114"/>
+      <c r="A113" s="132"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="73"/>
       <c r="D113" s="57"/>
       <c r="E113" s="73"/>
@@ -13217,8 +14527,8 @@
       <c r="V113" s="58"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="116"/>
-      <c r="B114" s="114"/>
+      <c r="A114" s="132"/>
+      <c r="B114" s="138"/>
       <c r="C114" s="73" t="s">
         <v>311</v>
       </c>
@@ -13281,8 +14591,8 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="116"/>
-      <c r="B115" s="115"/>
+      <c r="A115" s="132"/>
+      <c r="B115" s="139"/>
       <c r="C115" s="73"/>
       <c r="D115" s="57"/>
       <c r="E115" s="73"/>
@@ -13307,8 +14617,8 @@
       <c r="V115" s="58"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="116"/>
-      <c r="B116" s="113" t="s">
+      <c r="A116" s="132"/>
+      <c r="B116" s="137" t="s">
         <v>106</v>
       </c>
       <c r="C116" s="73" t="s">
@@ -13373,8 +14683,8 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="116"/>
-      <c r="B117" s="114"/>
+      <c r="A117" s="132"/>
+      <c r="B117" s="138"/>
       <c r="C117" s="73" t="s">
         <v>313</v>
       </c>
@@ -13437,8 +14747,8 @@
       </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="116"/>
-      <c r="B118" s="114"/>
+      <c r="A118" s="132"/>
+      <c r="B118" s="138"/>
       <c r="C118" s="73" t="s">
         <v>314</v>
       </c>
@@ -13501,8 +14811,8 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="116"/>
-      <c r="B119" s="114"/>
+      <c r="A119" s="132"/>
+      <c r="B119" s="138"/>
       <c r="C119" s="73" t="s">
         <v>315</v>
       </c>
@@ -13565,8 +14875,8 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="116"/>
-      <c r="B120" s="114"/>
+      <c r="A120" s="132"/>
+      <c r="B120" s="138"/>
       <c r="C120" s="73"/>
       <c r="D120" s="57"/>
       <c r="E120" s="73"/>
@@ -13591,8 +14901,8 @@
       <c r="V120" s="58"/>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="116"/>
-      <c r="B121" s="114"/>
+      <c r="A121" s="132"/>
+      <c r="B121" s="138"/>
       <c r="C121" s="73" t="s">
         <v>316</v>
       </c>
@@ -13655,8 +14965,8 @@
       </c>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="116"/>
-      <c r="B122" s="115"/>
+      <c r="A122" s="132"/>
+      <c r="B122" s="139"/>
       <c r="C122" s="48" t="s">
         <v>317</v>
       </c>
@@ -13719,8 +15029,8 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="116"/>
-      <c r="B123" s="113" t="s">
+      <c r="A123" s="132"/>
+      <c r="B123" s="137" t="s">
         <v>318</v>
       </c>
       <c r="C123" s="73" t="s">
@@ -13785,8 +15095,8 @@
       </c>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="116"/>
-      <c r="B124" s="114"/>
+      <c r="A124" s="132"/>
+      <c r="B124" s="138"/>
       <c r="C124" s="73"/>
       <c r="D124" s="57"/>
       <c r="E124" s="73"/>
@@ -13811,8 +15121,8 @@
       <c r="V124" s="58"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="116"/>
-      <c r="B125" s="114"/>
+      <c r="A125" s="132"/>
+      <c r="B125" s="138"/>
       <c r="C125" s="48" t="s">
         <v>320</v>
       </c>
@@ -13875,8 +15185,8 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="116"/>
-      <c r="B126" s="114"/>
+      <c r="A126" s="132"/>
+      <c r="B126" s="138"/>
       <c r="C126" s="48"/>
       <c r="D126" s="57"/>
       <c r="E126" s="73"/>
@@ -13901,8 +15211,8 @@
       <c r="V126" s="58"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="116"/>
-      <c r="B127" s="114"/>
+      <c r="A127" s="132"/>
+      <c r="B127" s="138"/>
       <c r="C127" s="73" t="s">
         <v>321</v>
       </c>
@@ -13965,8 +15275,8 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="116"/>
-      <c r="B128" s="114"/>
+      <c r="A128" s="132"/>
+      <c r="B128" s="138"/>
       <c r="C128" s="73"/>
       <c r="D128" s="57"/>
       <c r="E128" s="73"/>
@@ -13991,8 +15301,8 @@
       <c r="V128" s="58"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="116"/>
-      <c r="B129" s="114"/>
+      <c r="A129" s="132"/>
+      <c r="B129" s="138"/>
       <c r="C129" s="73" t="s">
         <v>322</v>
       </c>
@@ -14055,8 +15365,8 @@
       </c>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="116"/>
-      <c r="B130" s="114"/>
+      <c r="A130" s="132"/>
+      <c r="B130" s="138"/>
       <c r="C130" s="73" t="s">
         <v>323</v>
       </c>
@@ -14119,8 +15429,8 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="116"/>
-      <c r="B131" s="114"/>
+      <c r="A131" s="132"/>
+      <c r="B131" s="138"/>
       <c r="C131" s="73"/>
       <c r="D131" s="57"/>
       <c r="E131" s="73"/>
@@ -14145,8 +15455,8 @@
       <c r="V131" s="58"/>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="116"/>
-      <c r="B132" s="114"/>
+      <c r="A132" s="132"/>
+      <c r="B132" s="138"/>
       <c r="C132" s="73" t="s">
         <v>324</v>
       </c>
@@ -14209,8 +15519,8 @@
       </c>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="116"/>
-      <c r="B133" s="115"/>
+      <c r="A133" s="132"/>
+      <c r="B133" s="139"/>
       <c r="C133" s="73"/>
       <c r="D133" s="57"/>
       <c r="E133" s="73"/>
@@ -14235,8 +15545,8 @@
       <c r="V133" s="58"/>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="116"/>
-      <c r="B134" s="113" t="s">
+      <c r="A134" s="132"/>
+      <c r="B134" s="137" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="73" t="s">
@@ -14301,8 +15611,8 @@
       </c>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="116"/>
-      <c r="B135" s="114"/>
+      <c r="A135" s="132"/>
+      <c r="B135" s="138"/>
       <c r="C135" s="73"/>
       <c r="D135" s="57"/>
       <c r="E135" s="73"/>
@@ -14327,8 +15637,8 @@
       <c r="V135" s="58"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="116"/>
-      <c r="B136" s="114"/>
+      <c r="A136" s="132"/>
+      <c r="B136" s="138"/>
       <c r="C136" s="73" t="s">
         <v>326</v>
       </c>
@@ -14391,8 +15701,8 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="116"/>
-      <c r="B137" s="114"/>
+      <c r="A137" s="132"/>
+      <c r="B137" s="138"/>
       <c r="C137" s="73"/>
       <c r="D137" s="57"/>
       <c r="E137" s="73"/>
@@ -14417,8 +15727,8 @@
       <c r="V137" s="58"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="116"/>
-      <c r="B138" s="114"/>
+      <c r="A138" s="132"/>
+      <c r="B138" s="138"/>
       <c r="C138" s="73" t="s">
         <v>327</v>
       </c>
@@ -14481,8 +15791,8 @@
       </c>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="116"/>
-      <c r="B139" s="114"/>
+      <c r="A139" s="132"/>
+      <c r="B139" s="138"/>
       <c r="C139" s="73"/>
       <c r="D139" s="57"/>
       <c r="E139" s="73"/>
@@ -14507,8 +15817,8 @@
       <c r="V139" s="58"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="116"/>
-      <c r="B140" s="114"/>
+      <c r="A140" s="132"/>
+      <c r="B140" s="138"/>
       <c r="C140" s="73" t="s">
         <v>328</v>
       </c>
@@ -14571,8 +15881,8 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="116"/>
-      <c r="B141" s="114"/>
+      <c r="A141" s="132"/>
+      <c r="B141" s="138"/>
       <c r="C141" s="73"/>
       <c r="D141" s="57"/>
       <c r="E141" s="73"/>
@@ -14597,8 +15907,8 @@
       <c r="V141" s="58"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="116"/>
-      <c r="B142" s="114"/>
+      <c r="A142" s="132"/>
+      <c r="B142" s="138"/>
       <c r="C142" s="73" t="s">
         <v>329</v>
       </c>
@@ -14661,8 +15971,8 @@
       </c>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="116"/>
-      <c r="B143" s="115"/>
+      <c r="A143" s="132"/>
+      <c r="B143" s="139"/>
       <c r="C143" s="73" t="s">
         <v>330</v>
       </c>
@@ -14725,8 +16035,8 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="116"/>
-      <c r="B144" s="113" t="s">
+      <c r="A144" s="132"/>
+      <c r="B144" s="137" t="s">
         <v>206</v>
       </c>
       <c r="C144" s="73" t="s">
@@ -14791,8 +16101,8 @@
       </c>
     </row>
     <row r="145" spans="1:23">
-      <c r="A145" s="116"/>
-      <c r="B145" s="114"/>
+      <c r="A145" s="132"/>
+      <c r="B145" s="138"/>
       <c r="C145" s="73"/>
       <c r="D145" s="57"/>
       <c r="E145" s="73"/>
@@ -14817,8 +16127,8 @@
       <c r="V145" s="53"/>
     </row>
     <row r="146" spans="1:23">
-      <c r="A146" s="116"/>
-      <c r="B146" s="115"/>
+      <c r="A146" s="132"/>
+      <c r="B146" s="139"/>
       <c r="C146" s="59" t="s">
         <v>332</v>
       </c>
@@ -14984,26 +16294,26 @@
       </c>
     </row>
     <row r="150" spans="1:23" ht="26.25" customHeight="1">
-      <c r="F150" s="126" t="s">
+      <c r="F150" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="G150" s="126"/>
-      <c r="H150" s="126"/>
-      <c r="I150" s="126"/>
-      <c r="J150" s="126"/>
-      <c r="K150" s="126"/>
-      <c r="L150" s="126"/>
-      <c r="M150" s="126"/>
-      <c r="N150" s="126"/>
-      <c r="O150" s="126"/>
-      <c r="P150" s="126"/>
-      <c r="Q150" s="126"/>
-      <c r="R150" s="126"/>
-      <c r="S150" s="126"/>
-      <c r="T150" s="126"/>
-      <c r="U150" s="126"/>
-      <c r="V150" s="158"/>
-      <c r="W150" s="159"/>
+      <c r="G150" s="114"/>
+      <c r="H150" s="114"/>
+      <c r="I150" s="114"/>
+      <c r="J150" s="114"/>
+      <c r="K150" s="114"/>
+      <c r="L150" s="114"/>
+      <c r="M150" s="114"/>
+      <c r="N150" s="114"/>
+      <c r="O150" s="114"/>
+      <c r="P150" s="114"/>
+      <c r="Q150" s="114"/>
+      <c r="R150" s="114"/>
+      <c r="S150" s="114"/>
+      <c r="T150" s="114"/>
+      <c r="U150" s="114"/>
+      <c r="V150" s="110"/>
+      <c r="W150" s="111"/>
     </row>
     <row r="151" spans="1:23" ht="51.6" customHeight="1">
       <c r="F151" s="67" t="s">
@@ -15054,8 +16364,8 @@
       <c r="U151" s="68">
         <v>44278</v>
       </c>
-      <c r="V151" s="160"/>
-      <c r="W151" s="159"/>
+      <c r="V151" s="112"/>
+      <c r="W151" s="111"/>
     </row>
     <row r="152" spans="1:23" ht="33">
       <c r="F152" s="1" t="s">
@@ -15070,7 +16380,7 @@
         <v>386</v>
       </c>
       <c r="I152" s="108">
-        <f t="shared" ref="I152:V152" si="2">I64</f>
+        <f t="shared" ref="I152:U152" si="2">I64</f>
         <v>370</v>
       </c>
       <c r="J152" s="108">
@@ -15122,14 +16432,14 @@
         <v>32</v>
       </c>
       <c r="V152" s="60"/>
-      <c r="W152" s="159"/>
+      <c r="W152" s="111"/>
     </row>
     <row r="153" spans="1:23">
       <c r="F153" s="1" t="s">
         <v>280</v>
       </c>
       <c r="G153" s="107">
-        <f t="shared" ref="G153:V153" si="3">G148</f>
+        <f t="shared" ref="G153:U153" si="3">G148</f>
         <v>396</v>
       </c>
       <c r="H153" s="107">
@@ -15188,11 +16498,27 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="V153" s="161"/>
-      <c r="W153" s="159"/>
+      <c r="V153" s="113"/>
+      <c r="W153" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B89"/>
+    <mergeCell ref="B90:B101"/>
+    <mergeCell ref="B102:B115"/>
+    <mergeCell ref="A68:A146"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="A17:A63"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="B134:B143"/>
+    <mergeCell ref="B144:B146"/>
     <mergeCell ref="F150:U150"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -15209,22 +16535,6 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A68:A146"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="A17:A63"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="B134:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B89"/>
-    <mergeCell ref="B90:B101"/>
-    <mergeCell ref="B102:B115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15236,8 +16546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V206"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G231" sqref="G231"/>
+    <sheetView topLeftCell="A195" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -15259,10 +16569,10 @@
       <c r="B1" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="115" t="s">
         <v>343</v>
       </c>
-      <c r="D1" s="122"/>
+      <c r="D1" s="116"/>
       <c r="E1" s="86"/>
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
@@ -15284,10 +16594,10 @@
       <c r="B2" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="124"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
@@ -15309,35 +16619,35 @@
       <c r="B3" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="117" t="s">
         <v>418</v>
       </c>
-      <c r="D3" s="124"/>
+      <c r="D3" s="118"/>
       <c r="E3" s="89"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
     </row>
     <row r="4" spans="1:22">
       <c r="B4" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C4" s="117">
+      <c r="C4" s="133">
         <v>44280</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="89"/>
       <c r="I4" s="89"/>
       <c r="J4" s="89"/>
@@ -15356,10 +16666,10 @@
       <c r="B5" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="133">
         <v>44295</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="89"/>
       <c r="F5" s="60"/>
       <c r="I5" s="89"/>
@@ -15396,13 +16706,13 @@
       <c r="T6" s="89"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" thickBot="1">
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="121" t="s">
         <v>349</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="92"/>
       <c r="H7" s="86"/>
       <c r="I7" s="80"/>
@@ -15428,17 +16738,17 @@
       <c r="D8" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="124" t="s">
         <v>280</v>
       </c>
-      <c r="F8" s="132"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="92"/>
       <c r="H8" s="89"/>
       <c r="I8" s="93"/>
-      <c r="J8" s="139" t="s">
+      <c r="J8" s="144" t="s">
         <v>344</v>
       </c>
-      <c r="K8" s="140"/>
+      <c r="K8" s="145"/>
       <c r="L8" s="89"/>
       <c r="M8" s="89"/>
       <c r="N8" s="89"/>
@@ -15460,18 +16770,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Hồng",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4 + SUMIF($D$17:$F$86,"Cường, Hồng",$F$17:$F$86)/2</f>
         <v>124</v>
       </c>
-      <c r="E9" s="133">
+      <c r="E9" s="126">
         <f ca="1">SUMIF($D$91:$F$200,"Hồng",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4 + SUMIF($D$91:$F$200,"Cường, Hồng",$F$91:$F$200)/2</f>
         <v>122</v>
       </c>
-      <c r="F9" s="133"/>
+      <c r="F9" s="126"/>
       <c r="G9" s="92"/>
       <c r="H9" s="89"/>
       <c r="I9" s="94"/>
-      <c r="J9" s="139" t="s">
+      <c r="J9" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="140"/>
+      <c r="K9" s="145"/>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
       <c r="N9" s="89"/>
@@ -15493,18 +16803,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Thắng",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4</f>
         <v>120</v>
       </c>
-      <c r="E10" s="134">
+      <c r="E10" s="127">
         <f ca="1">SUMIF($D$91:$F$200,"Thắng",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4</f>
         <v>109.5</v>
       </c>
-      <c r="F10" s="134"/>
+      <c r="F10" s="127"/>
       <c r="G10" s="92"/>
       <c r="H10" s="89"/>
       <c r="I10" s="95"/>
-      <c r="J10" s="139" t="s">
+      <c r="J10" s="144" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="140"/>
+      <c r="K10" s="145"/>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
       <c r="N10" s="89"/>
@@ -15526,18 +16836,18 @@
         <f ca="1">SUMIF($D$17:$F$86,"Hậu",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4</f>
         <v>118</v>
       </c>
-      <c r="E11" s="135">
+      <c r="E11" s="128">
         <f ca="1">SUMIF($D$91:$F$200,"Hậu",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4</f>
         <v>112.5</v>
       </c>
-      <c r="F11" s="136"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="92"/>
       <c r="H11" s="89"/>
       <c r="I11" s="96"/>
-      <c r="J11" s="139" t="s">
+      <c r="J11" s="144" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="140"/>
+      <c r="K11" s="145"/>
       <c r="L11" s="89"/>
       <c r="M11" s="89"/>
       <c r="N11" s="89"/>
@@ -15559,16 +16869,16 @@
         <f ca="1">SUMIF($D$17:$F$86,"Cường",$F$17:$F$86) + SUMIF($D$17:$F$86,"Team",$F$17:$F$86)/4 + SUMIF($D$17:$F$86,"Cường, Hồng",$F$17:$F$86)/2</f>
         <v>122</v>
       </c>
-      <c r="E12" s="137">
+      <c r="E12" s="130">
         <f ca="1">SUMIF($D$91:$F$200,"Cường",$F$91:$F$200) + SUMIF($D$91:$F$200,"Team",$F$91:$F$200)/4 + SUMIF($D$91:$F$200,"Cường, Hồng",$F$91:$F$200)/2</f>
         <v>108.5</v>
       </c>
-      <c r="F12" s="137"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="92"/>
       <c r="H12" s="89"/>
       <c r="I12" s="97"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="140"/>
       <c r="L12" s="89"/>
       <c r="M12" s="89"/>
       <c r="N12" s="89"/>
@@ -15580,19 +16890,19 @@
       <c r="T12" s="89"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="120"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="55">
         <f ca="1">SUM(D9:D12)</f>
         <v>484</v>
       </c>
-      <c r="E13" s="127">
+      <c r="E13" s="120">
         <f ca="1">SUM(E9:F12)</f>
         <v>452.5</v>
       </c>
-      <c r="F13" s="127"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="92"/>
       <c r="H13" s="89"/>
       <c r="I13" s="80"/>
@@ -15690,7 +17000,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="110">
+      <c r="A17" s="141">
         <v>2</v>
       </c>
       <c r="B17" s="74" t="s">
@@ -15754,7 +17064,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="111"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="74" t="s">
         <v>82</v>
       </c>
@@ -15816,7 +17126,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="36" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="1" t="s">
         <v>351</v>
       </c>
@@ -15878,8 +17188,8 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="111"/>
-      <c r="B20" s="119" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="135" t="s">
         <v>288</v>
       </c>
       <c r="C20" s="73" t="s">
@@ -15942,8 +17252,8 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="111"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="142"/>
+      <c r="B21" s="135"/>
       <c r="C21" s="73" t="s">
         <v>353</v>
       </c>
@@ -16004,8 +17314,8 @@
       </c>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="111"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="142"/>
+      <c r="B22" s="135"/>
       <c r="C22" s="73" t="s">
         <v>354</v>
       </c>
@@ -16066,8 +17376,8 @@
       </c>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="111"/>
-      <c r="B23" s="119"/>
+      <c r="A23" s="142"/>
+      <c r="B23" s="135"/>
       <c r="C23" s="73" t="s">
         <v>355</v>
       </c>
@@ -16128,8 +17438,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="119"/>
+      <c r="A24" s="142"/>
+      <c r="B24" s="135"/>
       <c r="C24" s="48" t="s">
         <v>356</v>
       </c>
@@ -16190,8 +17500,8 @@
       </c>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="111"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="142"/>
+      <c r="B25" s="135"/>
       <c r="C25" s="73" t="s">
         <v>357</v>
       </c>
@@ -16252,8 +17562,8 @@
       </c>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="111"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="142"/>
+      <c r="B26" s="135"/>
       <c r="C26" s="73" t="s">
         <v>358</v>
       </c>
@@ -16314,8 +17624,8 @@
       </c>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="111"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="142"/>
+      <c r="B27" s="135"/>
       <c r="C27" s="73" t="s">
         <v>359</v>
       </c>
@@ -16376,8 +17686,8 @@
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="111"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="142"/>
+      <c r="B28" s="135"/>
       <c r="C28" s="73" t="s">
         <v>360</v>
       </c>
@@ -16438,8 +17748,8 @@
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="111"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="142"/>
+      <c r="B29" s="135"/>
       <c r="C29" s="73" t="s">
         <v>361</v>
       </c>
@@ -16500,8 +17810,8 @@
       </c>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="111"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="142"/>
+      <c r="B30" s="135"/>
       <c r="C30" s="73" t="s">
         <v>296</v>
       </c>
@@ -16562,8 +17872,8 @@
       </c>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="111"/>
-      <c r="B31" s="113" t="s">
+      <c r="A31" s="142"/>
+      <c r="B31" s="137" t="s">
         <v>297</v>
       </c>
       <c r="C31" s="73" t="s">
@@ -16626,8 +17936,8 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="111"/>
-      <c r="B32" s="114"/>
+      <c r="A32" s="142"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="73" t="s">
         <v>363</v>
       </c>
@@ -16688,8 +17998,8 @@
       </c>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="111"/>
-      <c r="B33" s="114"/>
+      <c r="A33" s="142"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="73" t="s">
         <v>364</v>
       </c>
@@ -16750,8 +18060,8 @@
       </c>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="111"/>
-      <c r="B34" s="114"/>
+      <c r="A34" s="142"/>
+      <c r="B34" s="138"/>
       <c r="C34" s="73" t="s">
         <v>365</v>
       </c>
@@ -16812,8 +18122,8 @@
       </c>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="111"/>
-      <c r="B35" s="114"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="138"/>
       <c r="C35" s="48" t="s">
         <v>367</v>
       </c>
@@ -16874,8 +18184,8 @@
       </c>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="111"/>
-      <c r="B36" s="114"/>
+      <c r="A36" s="142"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="73" t="s">
         <v>366</v>
       </c>
@@ -16936,8 +18246,8 @@
       </c>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="111"/>
-      <c r="B37" s="114"/>
+      <c r="A37" s="142"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="73" t="s">
         <v>368</v>
       </c>
@@ -16998,8 +18308,8 @@
       </c>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="111"/>
-      <c r="B38" s="114"/>
+      <c r="A38" s="142"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="73" t="s">
         <v>369</v>
       </c>
@@ -17060,8 +18370,8 @@
       </c>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="111"/>
-      <c r="B39" s="114"/>
+      <c r="A39" s="142"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="73" t="s">
         <v>370</v>
       </c>
@@ -17122,8 +18432,8 @@
       </c>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="111"/>
-      <c r="B40" s="114"/>
+      <c r="A40" s="142"/>
+      <c r="B40" s="138"/>
       <c r="C40" s="73" t="s">
         <v>371</v>
       </c>
@@ -17184,8 +18494,8 @@
       </c>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="111"/>
-      <c r="B41" s="115"/>
+      <c r="A41" s="142"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="84" t="s">
         <v>304</v>
       </c>
@@ -17246,8 +18556,8 @@
       </c>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="111"/>
-      <c r="B42" s="113" t="s">
+      <c r="A42" s="142"/>
+      <c r="B42" s="137" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="73" t="s">
@@ -17310,8 +18620,8 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="111"/>
-      <c r="B43" s="114"/>
+      <c r="A43" s="142"/>
+      <c r="B43" s="138"/>
       <c r="C43" s="48" t="s">
         <v>373</v>
       </c>
@@ -17372,8 +18682,8 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="111"/>
-      <c r="B44" s="114"/>
+      <c r="A44" s="142"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="73" t="s">
         <v>374</v>
       </c>
@@ -17434,8 +18744,8 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="111"/>
-      <c r="B45" s="114"/>
+      <c r="A45" s="142"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="73" t="s">
         <v>375</v>
       </c>
@@ -17496,8 +18806,8 @@
       </c>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="111"/>
-      <c r="B46" s="114"/>
+      <c r="A46" s="142"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="73" t="s">
         <v>376</v>
       </c>
@@ -17558,8 +18868,8 @@
       </c>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="111"/>
-      <c r="B47" s="114"/>
+      <c r="A47" s="142"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="73" t="s">
         <v>377</v>
       </c>
@@ -17620,8 +18930,8 @@
       </c>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="111"/>
-      <c r="B48" s="114"/>
+      <c r="A48" s="142"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="73" t="s">
         <v>378</v>
       </c>
@@ -17682,8 +18992,8 @@
       </c>
     </row>
     <row r="49" spans="1:22">
-      <c r="A49" s="111"/>
-      <c r="B49" s="114"/>
+      <c r="A49" s="142"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="73" t="s">
         <v>379</v>
       </c>
@@ -17744,8 +19054,8 @@
       </c>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="111"/>
-      <c r="B50" s="114"/>
+      <c r="A50" s="142"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="73" t="s">
         <v>380</v>
       </c>
@@ -17806,8 +19116,8 @@
       </c>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="111"/>
-      <c r="B51" s="114"/>
+      <c r="A51" s="142"/>
+      <c r="B51" s="138"/>
       <c r="C51" s="73" t="s">
         <v>381</v>
       </c>
@@ -17868,8 +19178,8 @@
       </c>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="111"/>
-      <c r="B52" s="115"/>
+      <c r="A52" s="142"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="73" t="s">
         <v>311</v>
       </c>
@@ -17930,7 +19240,7 @@
       </c>
     </row>
     <row r="53" spans="1:22">
-      <c r="A53" s="111"/>
+      <c r="A53" s="142"/>
       <c r="B53" s="74" t="s">
         <v>106</v>
       </c>
@@ -17994,7 +19304,7 @@
       </c>
     </row>
     <row r="54" spans="1:22">
-      <c r="A54" s="111"/>
+      <c r="A54" s="142"/>
       <c r="B54" s="73"/>
       <c r="C54" s="73" t="s">
         <v>383</v>
@@ -18056,7 +19366,7 @@
       </c>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="111"/>
+      <c r="A55" s="142"/>
       <c r="B55" s="73"/>
       <c r="C55" s="73" t="s">
         <v>384</v>
@@ -18118,7 +19428,7 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="111"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="73"/>
       <c r="C56" s="73" t="s">
         <v>385</v>
@@ -18180,7 +19490,7 @@
       </c>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="111"/>
+      <c r="A57" s="142"/>
       <c r="B57" s="73"/>
       <c r="C57" s="73" t="s">
         <v>386</v>
@@ -18242,7 +19552,7 @@
       </c>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="111"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="73"/>
       <c r="C58" s="48" t="s">
         <v>387</v>
@@ -18304,7 +19614,7 @@
       </c>
     </row>
     <row r="59" spans="1:22">
-      <c r="A59" s="111"/>
+      <c r="A59" s="142"/>
       <c r="B59" s="73"/>
       <c r="C59" s="48" t="s">
         <v>388</v>
@@ -18366,7 +19676,7 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="111"/>
+      <c r="A60" s="142"/>
       <c r="B60" s="73"/>
       <c r="C60" s="48" t="s">
         <v>389</v>
@@ -18428,7 +19738,7 @@
       </c>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="111"/>
+      <c r="A61" s="142"/>
       <c r="B61" s="73"/>
       <c r="C61" s="48" t="s">
         <v>390</v>
@@ -18490,7 +19800,7 @@
       </c>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="111"/>
+      <c r="A62" s="142"/>
       <c r="B62" s="73"/>
       <c r="C62" s="48" t="s">
         <v>391</v>
@@ -18552,7 +19862,7 @@
       </c>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="111"/>
+      <c r="A63" s="142"/>
       <c r="B63" s="74" t="s">
         <v>318</v>
       </c>
@@ -18616,7 +19926,7 @@
       </c>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="111"/>
+      <c r="A64" s="142"/>
       <c r="B64" s="73"/>
       <c r="C64" s="48" t="s">
         <v>393</v>
@@ -18678,7 +19988,7 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="111"/>
+      <c r="A65" s="142"/>
       <c r="B65" s="73"/>
       <c r="C65" s="73" t="s">
         <v>394</v>
@@ -18740,7 +20050,7 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="111"/>
+      <c r="A66" s="142"/>
       <c r="B66" s="73"/>
       <c r="C66" s="73" t="s">
         <v>395</v>
@@ -18802,7 +20112,7 @@
       </c>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="111"/>
+      <c r="A67" s="142"/>
       <c r="B67" s="73"/>
       <c r="C67" s="73" t="s">
         <v>396</v>
@@ -18864,7 +20174,7 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="111"/>
+      <c r="A68" s="142"/>
       <c r="B68" s="73"/>
       <c r="C68" s="73" t="s">
         <v>397</v>
@@ -18926,7 +20236,7 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="111"/>
+      <c r="A69" s="142"/>
       <c r="B69" s="73"/>
       <c r="C69" s="73" t="s">
         <v>398</v>
@@ -18988,7 +20298,7 @@
       </c>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="111"/>
+      <c r="A70" s="142"/>
       <c r="B70" s="73"/>
       <c r="C70" s="73" t="s">
         <v>399</v>
@@ -19050,7 +20360,7 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="111"/>
+      <c r="A71" s="142"/>
       <c r="B71" s="73"/>
       <c r="C71" s="73" t="s">
         <v>400</v>
@@ -19112,7 +20422,7 @@
       </c>
     </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="111"/>
+      <c r="A72" s="142"/>
       <c r="B72" s="73"/>
       <c r="C72" s="73" t="s">
         <v>401</v>
@@ -19174,7 +20484,7 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="111"/>
+      <c r="A73" s="142"/>
       <c r="B73" s="74" t="s">
         <v>3</v>
       </c>
@@ -19238,7 +20548,7 @@
       </c>
     </row>
     <row r="74" spans="1:22">
-      <c r="A74" s="111"/>
+      <c r="A74" s="142"/>
       <c r="B74" s="73"/>
       <c r="C74" s="73" t="s">
         <v>403</v>
@@ -19300,7 +20610,7 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="111"/>
+      <c r="A75" s="142"/>
       <c r="B75" s="73"/>
       <c r="C75" s="73" t="s">
         <v>404</v>
@@ -19362,7 +20672,7 @@
       </c>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="111"/>
+      <c r="A76" s="142"/>
       <c r="B76" s="73"/>
       <c r="C76" s="73" t="s">
         <v>405</v>
@@ -19424,7 +20734,7 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="111"/>
+      <c r="A77" s="142"/>
       <c r="B77" s="73"/>
       <c r="C77" s="73" t="s">
         <v>406</v>
@@ -19486,7 +20796,7 @@
       </c>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="111"/>
+      <c r="A78" s="142"/>
       <c r="B78" s="73"/>
       <c r="C78" s="73" t="s">
         <v>407</v>
@@ -19548,7 +20858,7 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="111"/>
+      <c r="A79" s="142"/>
       <c r="B79" s="73"/>
       <c r="C79" s="73" t="s">
         <v>408</v>
@@ -19610,7 +20920,7 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="111"/>
+      <c r="A80" s="142"/>
       <c r="B80" s="73"/>
       <c r="C80" s="73" t="s">
         <v>409</v>
@@ -19672,7 +20982,7 @@
       </c>
     </row>
     <row r="81" spans="1:22">
-      <c r="A81" s="111"/>
+      <c r="A81" s="142"/>
       <c r="B81" s="73"/>
       <c r="C81" s="73" t="s">
         <v>410</v>
@@ -19734,7 +21044,7 @@
       </c>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="111"/>
+      <c r="A82" s="142"/>
       <c r="B82" s="73"/>
       <c r="C82" s="73" t="s">
         <v>411</v>
@@ -19796,7 +21106,7 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="111"/>
+      <c r="A83" s="142"/>
       <c r="B83" s="74" t="s">
         <v>5</v>
       </c>
@@ -19858,7 +21168,7 @@
       <c r="V83" s="70"/>
     </row>
     <row r="84" spans="1:22">
-      <c r="A84" s="111"/>
+      <c r="A84" s="142"/>
       <c r="B84" s="73"/>
       <c r="C84" s="59" t="s">
         <v>413</v>
@@ -19918,7 +21228,7 @@
       <c r="V84" s="70"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="111"/>
+      <c r="A85" s="142"/>
       <c r="B85" s="74" t="s">
         <v>415</v>
       </c>
@@ -19980,7 +21290,7 @@
       </c>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="112"/>
+      <c r="A86" s="143"/>
       <c r="B86" s="74" t="s">
         <v>416</v>
       </c>
@@ -20216,13 +21526,13 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="110">
-        <v>2</v>
-      </c>
-      <c r="B91" s="113" t="s">
+      <c r="A91" s="141">
+        <v>2</v>
+      </c>
+      <c r="B91" s="137" t="s">
         <v>350</v>
       </c>
-      <c r="C91" s="110"/>
+      <c r="C91" s="141"/>
       <c r="D91" s="57" t="s">
         <v>1</v>
       </c>
@@ -20282,9 +21592,9 @@
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="111"/>
-      <c r="B92" s="115"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="142"/>
+      <c r="B92" s="139"/>
+      <c r="C92" s="143"/>
       <c r="D92" s="57"/>
       <c r="E92" s="73"/>
       <c r="G92" s="62">
@@ -20307,8 +21617,8 @@
       <c r="V92" s="58"/>
     </row>
     <row r="93" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A93" s="111"/>
-      <c r="B93" s="113" t="s">
+      <c r="A93" s="142"/>
+      <c r="B93" s="137" t="s">
         <v>82</v>
       </c>
       <c r="C93" s="73"/>
@@ -20371,8 +21681,8 @@
       </c>
     </row>
     <row r="94" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A94" s="111"/>
-      <c r="B94" s="115"/>
+      <c r="A94" s="142"/>
+      <c r="B94" s="139"/>
       <c r="C94" s="73"/>
       <c r="D94" s="57"/>
       <c r="E94" s="73"/>
@@ -20397,7 +21707,7 @@
       <c r="V94" s="58"/>
     </row>
     <row r="95" spans="1:22" ht="33">
-      <c r="A95" s="111"/>
+      <c r="A95" s="142"/>
       <c r="B95" s="1" t="s">
         <v>351</v>
       </c>
@@ -20461,8 +21771,8 @@
       </c>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="111"/>
-      <c r="B96" s="113" t="s">
+      <c r="A96" s="142"/>
+      <c r="B96" s="137" t="s">
         <v>288</v>
       </c>
       <c r="C96" s="73" t="s">
@@ -20527,8 +21837,8 @@
       </c>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="111"/>
-      <c r="B97" s="114"/>
+      <c r="A97" s="142"/>
+      <c r="B97" s="138"/>
       <c r="C97" s="73" t="s">
         <v>353</v>
       </c>
@@ -20591,8 +21901,8 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="111"/>
-      <c r="B98" s="114"/>
+      <c r="A98" s="142"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="73" t="s">
         <v>354</v>
       </c>
@@ -20655,8 +21965,8 @@
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="111"/>
-      <c r="B99" s="114"/>
+      <c r="A99" s="142"/>
+      <c r="B99" s="138"/>
       <c r="C99" s="73" t="s">
         <v>355</v>
       </c>
@@ -20719,8 +22029,8 @@
       </c>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="111"/>
-      <c r="B100" s="114"/>
+      <c r="A100" s="142"/>
+      <c r="B100" s="138"/>
       <c r="C100" s="48" t="s">
         <v>356</v>
       </c>
@@ -20783,8 +22093,8 @@
       </c>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="111"/>
-      <c r="B101" s="114"/>
+      <c r="A101" s="142"/>
+      <c r="B101" s="138"/>
       <c r="C101" s="73" t="s">
         <v>357</v>
       </c>
@@ -20847,8 +22157,8 @@
       </c>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="111"/>
-      <c r="B102" s="114"/>
+      <c r="A102" s="142"/>
+      <c r="B102" s="138"/>
       <c r="C102" s="73" t="s">
         <v>358</v>
       </c>
@@ -20911,8 +22221,8 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="111"/>
-      <c r="B103" s="114"/>
+      <c r="A103" s="142"/>
+      <c r="B103" s="138"/>
       <c r="C103" s="73" t="s">
         <v>359</v>
       </c>
@@ -20975,8 +22285,8 @@
       </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="111"/>
-      <c r="B104" s="114"/>
+      <c r="A104" s="142"/>
+      <c r="B104" s="138"/>
       <c r="C104" s="73" t="s">
         <v>360</v>
       </c>
@@ -21039,8 +22349,8 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="111"/>
-      <c r="B105" s="114"/>
+      <c r="A105" s="142"/>
+      <c r="B105" s="138"/>
       <c r="C105" s="73" t="s">
         <v>361</v>
       </c>
@@ -21103,8 +22413,8 @@
       </c>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="111"/>
-      <c r="B106" s="114"/>
+      <c r="A106" s="142"/>
+      <c r="B106" s="138"/>
       <c r="C106" s="73" t="s">
         <v>296</v>
       </c>
@@ -21167,8 +22477,8 @@
       </c>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="111"/>
-      <c r="B107" s="115"/>
+      <c r="A107" s="142"/>
+      <c r="B107" s="139"/>
       <c r="C107" s="73"/>
       <c r="D107" s="57"/>
       <c r="E107" s="73"/>
@@ -21193,8 +22503,8 @@
       <c r="V107" s="58"/>
     </row>
     <row r="108" spans="1:22">
-      <c r="A108" s="111"/>
-      <c r="B108" s="113" t="s">
+      <c r="A108" s="142"/>
+      <c r="B108" s="137" t="s">
         <v>297</v>
       </c>
       <c r="C108" s="73" t="s">
@@ -21259,8 +22569,8 @@
       </c>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="111"/>
-      <c r="B109" s="114"/>
+      <c r="A109" s="142"/>
+      <c r="B109" s="138"/>
       <c r="C109" s="73"/>
       <c r="D109" s="57"/>
       <c r="E109" s="73"/>
@@ -21285,8 +22595,8 @@
       <c r="V109" s="58"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="111"/>
-      <c r="B110" s="114"/>
+      <c r="A110" s="142"/>
+      <c r="B110" s="138"/>
       <c r="C110" s="73" t="s">
         <v>363</v>
       </c>
@@ -21349,8 +22659,8 @@
       </c>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="111"/>
-      <c r="B111" s="114"/>
+      <c r="A111" s="142"/>
+      <c r="B111" s="138"/>
       <c r="C111" s="73"/>
       <c r="D111" s="57"/>
       <c r="E111" s="73"/>
@@ -21375,8 +22685,8 @@
       <c r="V111" s="58"/>
     </row>
     <row r="112" spans="1:22">
-      <c r="A112" s="111"/>
-      <c r="B112" s="114"/>
+      <c r="A112" s="142"/>
+      <c r="B112" s="138"/>
       <c r="C112" s="73" t="s">
         <v>364</v>
       </c>
@@ -21439,8 +22749,8 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="111"/>
-      <c r="B113" s="114"/>
+      <c r="A113" s="142"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="73"/>
       <c r="D113" s="57"/>
       <c r="E113" s="73"/>
@@ -21465,8 +22775,8 @@
       <c r="V113" s="58"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="111"/>
-      <c r="B114" s="114"/>
+      <c r="A114" s="142"/>
+      <c r="B114" s="138"/>
       <c r="C114" s="73" t="s">
         <v>365</v>
       </c>
@@ -21529,8 +22839,8 @@
       </c>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="111"/>
-      <c r="B115" s="114"/>
+      <c r="A115" s="142"/>
+      <c r="B115" s="138"/>
       <c r="C115" s="73"/>
       <c r="D115" s="57"/>
       <c r="E115" s="73"/>
@@ -21555,8 +22865,8 @@
       <c r="V115" s="58"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="111"/>
-      <c r="B116" s="114"/>
+      <c r="A116" s="142"/>
+      <c r="B116" s="138"/>
       <c r="C116" s="48" t="s">
         <v>367</v>
       </c>
@@ -21619,8 +22929,8 @@
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="111"/>
-      <c r="B117" s="114"/>
+      <c r="A117" s="142"/>
+      <c r="B117" s="138"/>
       <c r="C117" s="48"/>
       <c r="D117" s="57"/>
       <c r="E117" s="73"/>
@@ -21645,8 +22955,8 @@
       <c r="V117" s="58"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="111"/>
-      <c r="B118" s="114"/>
+      <c r="A118" s="142"/>
+      <c r="B118" s="138"/>
       <c r="C118" s="73" t="s">
         <v>366</v>
       </c>
@@ -21709,8 +23019,8 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="111"/>
-      <c r="B119" s="114"/>
+      <c r="A119" s="142"/>
+      <c r="B119" s="138"/>
       <c r="C119" s="73" t="s">
         <v>368</v>
       </c>
@@ -21773,8 +23083,8 @@
       </c>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="111"/>
-      <c r="B120" s="114"/>
+      <c r="A120" s="142"/>
+      <c r="B120" s="138"/>
       <c r="C120" s="73" t="s">
         <v>369</v>
       </c>
@@ -21837,8 +23147,8 @@
       </c>
     </row>
     <row r="121" spans="1:22">
-      <c r="A121" s="111"/>
-      <c r="B121" s="114"/>
+      <c r="A121" s="142"/>
+      <c r="B121" s="138"/>
       <c r="C121" s="73"/>
       <c r="D121" s="57"/>
       <c r="E121" s="73"/>
@@ -21863,8 +23173,8 @@
       <c r="V121" s="58"/>
     </row>
     <row r="122" spans="1:22">
-      <c r="A122" s="111"/>
-      <c r="B122" s="114"/>
+      <c r="A122" s="142"/>
+      <c r="B122" s="138"/>
       <c r="C122" s="73" t="s">
         <v>370</v>
       </c>
@@ -21927,8 +23237,8 @@
       </c>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="111"/>
-      <c r="B123" s="114"/>
+      <c r="A123" s="142"/>
+      <c r="B123" s="138"/>
       <c r="C123" s="73"/>
       <c r="D123" s="57"/>
       <c r="E123" s="73"/>
@@ -21953,8 +23263,8 @@
       <c r="V123" s="58"/>
     </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="111"/>
-      <c r="B124" s="114"/>
+      <c r="A124" s="142"/>
+      <c r="B124" s="138"/>
       <c r="C124" s="73" t="s">
         <v>371</v>
       </c>
@@ -22017,8 +23327,8 @@
       </c>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="111"/>
-      <c r="B125" s="114"/>
+      <c r="A125" s="142"/>
+      <c r="B125" s="138"/>
       <c r="C125" s="84" t="s">
         <v>304</v>
       </c>
@@ -22081,8 +23391,8 @@
       </c>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="111"/>
-      <c r="B126" s="115"/>
+      <c r="A126" s="142"/>
+      <c r="B126" s="139"/>
       <c r="D126" s="57"/>
       <c r="E126" s="73"/>
       <c r="F126" s="73"/>
@@ -22106,8 +23416,8 @@
       <c r="V126" s="58"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="111"/>
-      <c r="B127" s="113" t="s">
+      <c r="A127" s="142"/>
+      <c r="B127" s="137" t="s">
         <v>101</v>
       </c>
       <c r="C127" s="73" t="s">
@@ -22172,8 +23482,8 @@
       </c>
     </row>
     <row r="128" spans="1:22">
-      <c r="A128" s="111"/>
-      <c r="B128" s="114"/>
+      <c r="A128" s="142"/>
+      <c r="B128" s="138"/>
       <c r="C128" s="48" t="s">
         <v>373</v>
       </c>
@@ -22236,8 +23546,8 @@
       </c>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="111"/>
-      <c r="B129" s="114"/>
+      <c r="A129" s="142"/>
+      <c r="B129" s="138"/>
       <c r="C129" s="48"/>
       <c r="D129" s="57"/>
       <c r="E129" s="73"/>
@@ -22261,8 +23571,8 @@
       <c r="V129" s="58"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="111"/>
-      <c r="B130" s="114"/>
+      <c r="A130" s="142"/>
+      <c r="B130" s="138"/>
       <c r="C130" s="73" t="s">
         <v>374</v>
       </c>
@@ -22325,8 +23635,8 @@
       </c>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="111"/>
-      <c r="B131" s="114"/>
+      <c r="A131" s="142"/>
+      <c r="B131" s="138"/>
       <c r="C131" s="73" t="s">
         <v>375</v>
       </c>
@@ -22389,8 +23699,8 @@
       </c>
     </row>
     <row r="132" spans="1:22">
-      <c r="A132" s="111"/>
-      <c r="B132" s="114"/>
+      <c r="A132" s="142"/>
+      <c r="B132" s="138"/>
       <c r="C132" s="73"/>
       <c r="D132" s="57"/>
       <c r="E132" s="73"/>
@@ -22415,8 +23725,8 @@
       <c r="V132" s="58"/>
     </row>
     <row r="133" spans="1:22">
-      <c r="A133" s="111"/>
-      <c r="B133" s="114"/>
+      <c r="A133" s="142"/>
+      <c r="B133" s="138"/>
       <c r="C133" s="73" t="s">
         <v>376</v>
       </c>
@@ -22479,8 +23789,8 @@
       </c>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="111"/>
-      <c r="B134" s="114"/>
+      <c r="A134" s="142"/>
+      <c r="B134" s="138"/>
       <c r="C134" s="73"/>
       <c r="D134" s="57"/>
       <c r="E134" s="73"/>
@@ -22504,8 +23814,8 @@
       <c r="V134" s="58"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="111"/>
-      <c r="B135" s="114"/>
+      <c r="A135" s="142"/>
+      <c r="B135" s="138"/>
       <c r="C135" s="73" t="s">
         <v>377</v>
       </c>
@@ -22568,8 +23878,8 @@
       </c>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="111"/>
-      <c r="B136" s="114"/>
+      <c r="A136" s="142"/>
+      <c r="B136" s="138"/>
       <c r="C136" s="73" t="s">
         <v>378</v>
       </c>
@@ -22632,8 +23942,8 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="111"/>
-      <c r="B137" s="114"/>
+      <c r="A137" s="142"/>
+      <c r="B137" s="138"/>
       <c r="C137" s="73" t="s">
         <v>379</v>
       </c>
@@ -22696,8 +24006,8 @@
       </c>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="111"/>
-      <c r="B138" s="114"/>
+      <c r="A138" s="142"/>
+      <c r="B138" s="138"/>
       <c r="C138" s="73"/>
       <c r="D138" s="57"/>
       <c r="E138" s="73"/>
@@ -22722,8 +24032,8 @@
       <c r="V138" s="58"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="111"/>
-      <c r="B139" s="114"/>
+      <c r="A139" s="142"/>
+      <c r="B139" s="138"/>
       <c r="C139" s="73" t="s">
         <v>380</v>
       </c>
@@ -22786,8 +24096,8 @@
       </c>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="111"/>
-      <c r="B140" s="114"/>
+      <c r="A140" s="142"/>
+      <c r="B140" s="138"/>
       <c r="C140" s="73" t="s">
         <v>381</v>
       </c>
@@ -22850,8 +24160,8 @@
       </c>
     </row>
     <row r="141" spans="1:22">
-      <c r="A141" s="111"/>
-      <c r="B141" s="114"/>
+      <c r="A141" s="142"/>
+      <c r="B141" s="138"/>
       <c r="C141" s="73" t="s">
         <v>311</v>
       </c>
@@ -22914,8 +24224,8 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="111"/>
-      <c r="B142" s="115"/>
+      <c r="A142" s="142"/>
+      <c r="B142" s="139"/>
       <c r="C142" s="73"/>
       <c r="D142" s="57"/>
       <c r="E142" s="73"/>
@@ -22940,8 +24250,8 @@
       <c r="V142" s="58"/>
     </row>
     <row r="143" spans="1:22">
-      <c r="A143" s="111"/>
-      <c r="B143" s="113" t="s">
+      <c r="A143" s="142"/>
+      <c r="B143" s="137" t="s">
         <v>106</v>
       </c>
       <c r="C143" s="73" t="s">
@@ -23006,8 +24316,8 @@
       </c>
     </row>
     <row r="144" spans="1:22">
-      <c r="A144" s="111"/>
-      <c r="B144" s="114"/>
+      <c r="A144" s="142"/>
+      <c r="B144" s="138"/>
       <c r="C144" s="73"/>
       <c r="D144" s="57"/>
       <c r="E144" s="73"/>
@@ -23032,8 +24342,8 @@
       <c r="V144" s="58"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="111"/>
-      <c r="B145" s="114"/>
+      <c r="A145" s="142"/>
+      <c r="B145" s="138"/>
       <c r="C145" s="73" t="s">
         <v>383</v>
       </c>
@@ -23096,8 +24406,8 @@
       </c>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="111"/>
-      <c r="B146" s="114"/>
+      <c r="A146" s="142"/>
+      <c r="B146" s="138"/>
       <c r="C146" s="73"/>
       <c r="D146" s="57"/>
       <c r="E146" s="73"/>
@@ -23122,8 +24432,8 @@
       <c r="V146" s="58"/>
     </row>
     <row r="147" spans="1:22">
-      <c r="A147" s="111"/>
-      <c r="B147" s="114"/>
+      <c r="A147" s="142"/>
+      <c r="B147" s="138"/>
       <c r="C147" s="73" t="s">
         <v>384</v>
       </c>
@@ -23186,8 +24496,8 @@
       </c>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="111"/>
-      <c r="B148" s="114"/>
+      <c r="A148" s="142"/>
+      <c r="B148" s="138"/>
       <c r="C148" s="73"/>
       <c r="D148" s="57"/>
       <c r="E148" s="73"/>
@@ -23212,8 +24522,8 @@
       <c r="V148" s="58"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="111"/>
-      <c r="B149" s="114"/>
+      <c r="A149" s="142"/>
+      <c r="B149" s="138"/>
       <c r="C149" s="73" t="s">
         <v>385</v>
       </c>
@@ -23276,8 +24586,8 @@
       </c>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="111"/>
-      <c r="B150" s="114"/>
+      <c r="A150" s="142"/>
+      <c r="B150" s="138"/>
       <c r="C150" s="73"/>
       <c r="D150" s="57"/>
       <c r="E150" s="73"/>
@@ -23302,8 +24612,8 @@
       <c r="V150" s="58"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="111"/>
-      <c r="B151" s="114"/>
+      <c r="A151" s="142"/>
+      <c r="B151" s="138"/>
       <c r="C151" s="73" t="s">
         <v>386</v>
       </c>
@@ -23366,8 +24676,8 @@
       </c>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="111"/>
-      <c r="B152" s="114"/>
+      <c r="A152" s="142"/>
+      <c r="B152" s="138"/>
       <c r="C152" s="48" t="s">
         <v>387</v>
       </c>
@@ -23430,8 +24740,8 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="111"/>
-      <c r="B153" s="114"/>
+      <c r="A153" s="142"/>
+      <c r="B153" s="138"/>
       <c r="C153" s="48" t="s">
         <v>388</v>
       </c>
@@ -23494,8 +24804,8 @@
       </c>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="111"/>
-      <c r="B154" s="114"/>
+      <c r="A154" s="142"/>
+      <c r="B154" s="138"/>
       <c r="C154" s="48" t="s">
         <v>389</v>
       </c>
@@ -23558,8 +24868,8 @@
       </c>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="111"/>
-      <c r="B155" s="114"/>
+      <c r="A155" s="142"/>
+      <c r="B155" s="138"/>
       <c r="C155" s="48"/>
       <c r="D155" s="57"/>
       <c r="E155" s="73"/>
@@ -23584,8 +24894,8 @@
       <c r="V155" s="58"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="111"/>
-      <c r="B156" s="114"/>
+      <c r="A156" s="142"/>
+      <c r="B156" s="138"/>
       <c r="C156" s="48" t="s">
         <v>390</v>
       </c>
@@ -23648,8 +24958,8 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="111"/>
-      <c r="B157" s="114"/>
+      <c r="A157" s="142"/>
+      <c r="B157" s="138"/>
       <c r="C157" s="48"/>
       <c r="D157" s="57"/>
       <c r="E157" s="73"/>
@@ -23674,8 +24984,8 @@
       <c r="V157" s="58"/>
     </row>
     <row r="158" spans="1:22">
-      <c r="A158" s="111"/>
-      <c r="B158" s="114"/>
+      <c r="A158" s="142"/>
+      <c r="B158" s="138"/>
       <c r="C158" s="48" t="s">
         <v>391</v>
       </c>
@@ -23738,8 +25048,8 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="111"/>
-      <c r="B159" s="115"/>
+      <c r="A159" s="142"/>
+      <c r="B159" s="139"/>
       <c r="C159" s="48"/>
       <c r="D159" s="57"/>
       <c r="E159" s="73"/>
@@ -23764,8 +25074,8 @@
       <c r="V159" s="58"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="111"/>
-      <c r="B160" s="113" t="s">
+      <c r="A160" s="142"/>
+      <c r="B160" s="137" t="s">
         <v>318</v>
       </c>
       <c r="C160" s="73" t="s">
@@ -23830,8 +25140,8 @@
       </c>
     </row>
     <row r="161" spans="1:22">
-      <c r="A161" s="111"/>
-      <c r="B161" s="114"/>
+      <c r="A161" s="142"/>
+      <c r="B161" s="138"/>
       <c r="C161" s="73"/>
       <c r="D161" s="57"/>
       <c r="E161" s="73"/>
@@ -23856,8 +25166,8 @@
       <c r="V161" s="58"/>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="111"/>
-      <c r="B162" s="114"/>
+      <c r="A162" s="142"/>
+      <c r="B162" s="138"/>
       <c r="C162" s="48" t="s">
         <v>393</v>
       </c>
@@ -23920,8 +25230,8 @@
       </c>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="111"/>
-      <c r="B163" s="114"/>
+      <c r="A163" s="142"/>
+      <c r="B163" s="138"/>
       <c r="C163" s="48"/>
       <c r="D163" s="57"/>
       <c r="E163" s="73"/>
@@ -23946,8 +25256,8 @@
       <c r="V163" s="58"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="111"/>
-      <c r="B164" s="114"/>
+      <c r="A164" s="142"/>
+      <c r="B164" s="138"/>
       <c r="C164" s="73" t="s">
         <v>394</v>
       </c>
@@ -24010,8 +25320,8 @@
       </c>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="111"/>
-      <c r="B165" s="114"/>
+      <c r="A165" s="142"/>
+      <c r="B165" s="138"/>
       <c r="C165" s="73" t="s">
         <v>395</v>
       </c>
@@ -24074,8 +25384,8 @@
       </c>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="111"/>
-      <c r="B166" s="114"/>
+      <c r="A166" s="142"/>
+      <c r="B166" s="138"/>
       <c r="C166" s="73"/>
       <c r="D166" s="57"/>
       <c r="E166" s="73"/>
@@ -24100,8 +25410,8 @@
       <c r="V166" s="58"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="111"/>
-      <c r="B167" s="114"/>
+      <c r="A167" s="142"/>
+      <c r="B167" s="138"/>
       <c r="C167" s="73" t="s">
         <v>396</v>
       </c>
@@ -24164,8 +25474,8 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="111"/>
-      <c r="B168" s="114"/>
+      <c r="A168" s="142"/>
+      <c r="B168" s="138"/>
       <c r="C168" s="73"/>
       <c r="D168" s="57"/>
       <c r="E168" s="73"/>
@@ -24190,8 +25500,8 @@
       <c r="V168" s="58"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="111"/>
-      <c r="B169" s="114"/>
+      <c r="A169" s="142"/>
+      <c r="B169" s="138"/>
       <c r="C169" s="73" t="s">
         <v>397</v>
       </c>
@@ -24254,8 +25564,8 @@
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="111"/>
-      <c r="B170" s="114"/>
+      <c r="A170" s="142"/>
+      <c r="B170" s="138"/>
       <c r="C170" s="73" t="s">
         <v>398</v>
       </c>
@@ -24318,8 +25628,8 @@
       </c>
     </row>
     <row r="171" spans="1:22">
-      <c r="A171" s="111"/>
-      <c r="B171" s="114"/>
+      <c r="A171" s="142"/>
+      <c r="B171" s="138"/>
       <c r="C171" s="73" t="s">
         <v>399</v>
       </c>
@@ -24382,8 +25692,8 @@
       </c>
     </row>
     <row r="172" spans="1:22">
-      <c r="A172" s="111"/>
-      <c r="B172" s="114"/>
+      <c r="A172" s="142"/>
+      <c r="B172" s="138"/>
       <c r="C172" s="73"/>
       <c r="D172" s="57"/>
       <c r="E172" s="73"/>
@@ -24408,8 +25718,8 @@
       <c r="V172" s="58"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="111"/>
-      <c r="B173" s="114"/>
+      <c r="A173" s="142"/>
+      <c r="B173" s="138"/>
       <c r="C173" s="73" t="s">
         <v>400</v>
       </c>
@@ -24472,8 +25782,8 @@
       </c>
     </row>
     <row r="174" spans="1:22">
-      <c r="A174" s="111"/>
-      <c r="B174" s="114"/>
+      <c r="A174" s="142"/>
+      <c r="B174" s="138"/>
       <c r="C174" s="73" t="s">
         <v>401</v>
       </c>
@@ -24536,8 +25846,8 @@
       </c>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="111"/>
-      <c r="B175" s="115"/>
+      <c r="A175" s="142"/>
+      <c r="B175" s="139"/>
       <c r="C175" s="73"/>
       <c r="D175" s="57"/>
       <c r="E175" s="73"/>
@@ -24562,8 +25872,8 @@
       <c r="V175" s="58"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="111"/>
-      <c r="B176" s="113" t="s">
+      <c r="A176" s="142"/>
+      <c r="B176" s="137" t="s">
         <v>3</v>
       </c>
       <c r="C176" s="73" t="s">
@@ -24628,8 +25938,8 @@
       </c>
     </row>
     <row r="177" spans="1:22">
-      <c r="A177" s="111"/>
-      <c r="B177" s="114"/>
+      <c r="A177" s="142"/>
+      <c r="B177" s="138"/>
       <c r="C177" s="73" t="s">
         <v>403</v>
       </c>
@@ -24692,8 +26002,8 @@
       </c>
     </row>
     <row r="178" spans="1:22">
-      <c r="A178" s="111"/>
-      <c r="B178" s="114"/>
+      <c r="A178" s="142"/>
+      <c r="B178" s="138"/>
       <c r="C178" s="73"/>
       <c r="D178" s="57"/>
       <c r="E178" s="73"/>
@@ -24718,8 +26028,8 @@
       <c r="V178" s="58"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="111"/>
-      <c r="B179" s="114"/>
+      <c r="A179" s="142"/>
+      <c r="B179" s="138"/>
       <c r="C179" s="73" t="s">
         <v>404</v>
       </c>
@@ -24782,8 +26092,8 @@
       </c>
     </row>
     <row r="180" spans="1:22">
-      <c r="A180" s="111"/>
-      <c r="B180" s="114"/>
+      <c r="A180" s="142"/>
+      <c r="B180" s="138"/>
       <c r="C180" s="73"/>
       <c r="D180" s="57"/>
       <c r="E180" s="73"/>
@@ -24808,8 +26118,8 @@
       <c r="V180" s="58"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="111"/>
-      <c r="B181" s="114"/>
+      <c r="A181" s="142"/>
+      <c r="B181" s="138"/>
       <c r="C181" s="73" t="s">
         <v>405</v>
       </c>
@@ -24872,8 +26182,8 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="111"/>
-      <c r="B182" s="114"/>
+      <c r="A182" s="142"/>
+      <c r="B182" s="138"/>
       <c r="C182" s="73"/>
       <c r="D182" s="57"/>
       <c r="E182" s="73"/>
@@ -24898,8 +26208,8 @@
       <c r="V182" s="58"/>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="111"/>
-      <c r="B183" s="114"/>
+      <c r="A183" s="142"/>
+      <c r="B183" s="138"/>
       <c r="C183" s="73" t="s">
         <v>406</v>
       </c>
@@ -24962,8 +26272,8 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="111"/>
-      <c r="B184" s="114"/>
+      <c r="A184" s="142"/>
+      <c r="B184" s="138"/>
       <c r="C184" s="73"/>
       <c r="D184" s="57"/>
       <c r="E184" s="73"/>
@@ -24988,8 +26298,8 @@
       <c r="V184" s="58"/>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="111"/>
-      <c r="B185" s="114"/>
+      <c r="A185" s="142"/>
+      <c r="B185" s="138"/>
       <c r="C185" s="73" t="s">
         <v>407</v>
       </c>
@@ -25052,8 +26362,8 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="111"/>
-      <c r="B186" s="114"/>
+      <c r="A186" s="142"/>
+      <c r="B186" s="138"/>
       <c r="C186" s="73"/>
       <c r="D186" s="57"/>
       <c r="E186" s="73"/>
@@ -25078,8 +26388,8 @@
       <c r="V186" s="58"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="111"/>
-      <c r="B187" s="114"/>
+      <c r="A187" s="142"/>
+      <c r="B187" s="138"/>
       <c r="C187" s="73" t="s">
         <v>408</v>
       </c>
@@ -25142,8 +26452,8 @@
       </c>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="111"/>
-      <c r="B188" s="114"/>
+      <c r="A188" s="142"/>
+      <c r="B188" s="138"/>
       <c r="C188" s="73"/>
       <c r="D188" s="57"/>
       <c r="E188" s="73"/>
@@ -25168,8 +26478,8 @@
       <c r="V188" s="58"/>
     </row>
     <row r="189" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A189" s="111"/>
-      <c r="B189" s="114"/>
+      <c r="A189" s="142"/>
+      <c r="B189" s="138"/>
       <c r="C189" s="73" t="s">
         <v>409</v>
       </c>
@@ -25232,8 +26542,8 @@
       </c>
     </row>
     <row r="190" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A190" s="111"/>
-      <c r="B190" s="114"/>
+      <c r="A190" s="142"/>
+      <c r="B190" s="138"/>
       <c r="C190" s="73"/>
       <c r="D190" s="57"/>
       <c r="E190" s="73"/>
@@ -25258,8 +26568,8 @@
       <c r="V190" s="58"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="111"/>
-      <c r="B191" s="114"/>
+      <c r="A191" s="142"/>
+      <c r="B191" s="138"/>
       <c r="C191" s="73" t="s">
         <v>410</v>
       </c>
@@ -25322,8 +26632,8 @@
       </c>
     </row>
     <row r="192" spans="1:22">
-      <c r="A192" s="111"/>
-      <c r="B192" s="114"/>
+      <c r="A192" s="142"/>
+      <c r="B192" s="138"/>
       <c r="C192" s="73"/>
       <c r="D192" s="57"/>
       <c r="E192" s="73"/>
@@ -25348,8 +26658,8 @@
       <c r="V192" s="58"/>
     </row>
     <row r="193" spans="1:22">
-      <c r="A193" s="111"/>
-      <c r="B193" s="114"/>
+      <c r="A193" s="142"/>
+      <c r="B193" s="138"/>
       <c r="C193" s="73" t="s">
         <v>411</v>
       </c>
@@ -25412,8 +26722,8 @@
       </c>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="111"/>
-      <c r="B194" s="115"/>
+      <c r="A194" s="142"/>
+      <c r="B194" s="139"/>
       <c r="C194" s="73"/>
       <c r="D194" s="57"/>
       <c r="E194" s="73"/>
@@ -25438,8 +26748,8 @@
       <c r="V194" s="58"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="111"/>
-      <c r="B195" s="113" t="s">
+      <c r="A195" s="142"/>
+      <c r="B195" s="137" t="s">
         <v>5</v>
       </c>
       <c r="C195" s="73" t="s">
@@ -25502,8 +26812,8 @@
       <c r="V195" s="70"/>
     </row>
     <row r="196" spans="1:22">
-      <c r="A196" s="111"/>
-      <c r="B196" s="114"/>
+      <c r="A196" s="142"/>
+      <c r="B196" s="138"/>
       <c r="C196" s="73"/>
       <c r="D196" s="57"/>
       <c r="E196" s="73"/>
@@ -25528,8 +26838,8 @@
       <c r="V196" s="70"/>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="111"/>
-      <c r="B197" s="114"/>
+      <c r="A197" s="142"/>
+      <c r="B197" s="138"/>
       <c r="C197" s="59" t="s">
         <v>413</v>
       </c>
@@ -25590,8 +26900,8 @@
       <c r="V197" s="70"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="111"/>
-      <c r="B198" s="115"/>
+      <c r="A198" s="142"/>
+      <c r="B198" s="139"/>
       <c r="C198" s="59"/>
       <c r="D198" s="57"/>
       <c r="E198" s="73"/>
@@ -25616,7 +26926,7 @@
       <c r="V198" s="70"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="111"/>
+      <c r="A199" s="142"/>
       <c r="B199" s="74" t="s">
         <v>415</v>
       </c>
@@ -25680,7 +26990,7 @@
       </c>
     </row>
     <row r="200" spans="1:22">
-      <c r="A200" s="112"/>
+      <c r="A200" s="143"/>
       <c r="B200" s="74" t="s">
         <v>416</v>
       </c>
@@ -25821,25 +27131,25 @@
       </c>
     </row>
     <row r="203" spans="1:22" ht="26.25">
-      <c r="F203" s="126" t="s">
+      <c r="F203" s="114" t="s">
         <v>417</v>
       </c>
-      <c r="G203" s="126"/>
-      <c r="H203" s="126"/>
-      <c r="I203" s="126"/>
-      <c r="J203" s="126"/>
-      <c r="K203" s="126"/>
-      <c r="L203" s="126"/>
-      <c r="M203" s="126"/>
-      <c r="N203" s="126"/>
-      <c r="O203" s="126"/>
-      <c r="P203" s="126"/>
-      <c r="Q203" s="126"/>
-      <c r="R203" s="126"/>
-      <c r="S203" s="126"/>
-      <c r="T203" s="126"/>
-      <c r="U203" s="126"/>
-      <c r="V203" s="126"/>
+      <c r="G203" s="114"/>
+      <c r="H203" s="114"/>
+      <c r="I203" s="114"/>
+      <c r="J203" s="114"/>
+      <c r="K203" s="114"/>
+      <c r="L203" s="114"/>
+      <c r="M203" s="114"/>
+      <c r="N203" s="114"/>
+      <c r="O203" s="114"/>
+      <c r="P203" s="114"/>
+      <c r="Q203" s="114"/>
+      <c r="R203" s="114"/>
+      <c r="S203" s="114"/>
+      <c r="T203" s="114"/>
+      <c r="U203" s="114"/>
+      <c r="V203" s="114"/>
     </row>
     <row r="204" spans="1:22" ht="54" customHeight="1">
       <c r="F204" s="67" t="s">
@@ -26034,28 +27344,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="F203:V203"/>
-    <mergeCell ref="B20:B30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="A17:A86"/>
-    <mergeCell ref="A91:A200"/>
-    <mergeCell ref="B195:B198"/>
-    <mergeCell ref="B176:B194"/>
-    <mergeCell ref="B160:B175"/>
-    <mergeCell ref="B143:B159"/>
-    <mergeCell ref="B127:B142"/>
-    <mergeCell ref="B108:B126"/>
-    <mergeCell ref="B96:B107"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="C1:D1"/>
@@ -26069,6 +27357,28 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A17:A86"/>
+    <mergeCell ref="A91:A200"/>
+    <mergeCell ref="B195:B198"/>
+    <mergeCell ref="B176:B194"/>
+    <mergeCell ref="B160:B175"/>
+    <mergeCell ref="B143:B159"/>
+    <mergeCell ref="B127:B142"/>
+    <mergeCell ref="B108:B126"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="F203:V203"/>
+    <mergeCell ref="B20:B30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26077,6 +27387,241 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G8:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="8" spans="7:27" ht="26.25">
+      <c r="G8" s="114" t="s">
+        <v>417</v>
+      </c>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+    </row>
+    <row r="9" spans="7:27" ht="88.5" customHeight="1">
+      <c r="G9" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44296</v>
+      </c>
+      <c r="I9" s="2">
+        <v>44297</v>
+      </c>
+      <c r="J9" s="2">
+        <v>44298</v>
+      </c>
+      <c r="K9" s="2">
+        <v>44299</v>
+      </c>
+      <c r="L9" s="2">
+        <v>44300</v>
+      </c>
+      <c r="M9" s="2">
+        <v>44301</v>
+      </c>
+      <c r="N9" s="2">
+        <v>44302</v>
+      </c>
+      <c r="O9" s="2">
+        <v>44303</v>
+      </c>
+      <c r="P9" s="2">
+        <v>44304</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>44305</v>
+      </c>
+      <c r="R9" s="2">
+        <v>44306</v>
+      </c>
+      <c r="S9" s="2">
+        <v>44307</v>
+      </c>
+      <c r="T9" s="2">
+        <v>44308</v>
+      </c>
+      <c r="U9" s="2">
+        <v>44309</v>
+      </c>
+      <c r="V9" s="2">
+        <v>44310</v>
+      </c>
+      <c r="W9" s="2">
+        <v>44311</v>
+      </c>
+      <c r="X9" s="2">
+        <v>44312</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>44313</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>44314</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>44315</v>
+      </c>
+    </row>
+    <row r="10" spans="7:27" ht="33">
+      <c r="G10" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="98">
+        <v>590</v>
+      </c>
+      <c r="I10">
+        <v>565</v>
+      </c>
+      <c r="J10">
+        <v>545</v>
+      </c>
+      <c r="K10">
+        <v>515</v>
+      </c>
+      <c r="L10" s="109">
+        <v>470</v>
+      </c>
+      <c r="M10" s="109">
+        <v>440</v>
+      </c>
+      <c r="N10" s="109">
+        <v>415</v>
+      </c>
+      <c r="O10" s="109">
+        <v>400</v>
+      </c>
+      <c r="P10" s="109">
+        <v>355</v>
+      </c>
+      <c r="Q10" s="109">
+        <v>320</v>
+      </c>
+      <c r="R10" s="109">
+        <v>285</v>
+      </c>
+      <c r="S10" s="109">
+        <v>255</v>
+      </c>
+      <c r="T10" s="109">
+        <v>230</v>
+      </c>
+      <c r="U10" s="109">
+        <v>200</v>
+      </c>
+      <c r="V10" s="109">
+        <v>166</v>
+      </c>
+      <c r="W10" s="109">
+        <v>125</v>
+      </c>
+      <c r="X10" s="109">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="109">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="109">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="7:27" ht="16.5">
+      <c r="G11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="98">
+        <v>605</v>
+      </c>
+      <c r="I11">
+        <v>570</v>
+      </c>
+      <c r="J11">
+        <v>540</v>
+      </c>
+      <c r="K11">
+        <v>505</v>
+      </c>
+      <c r="L11" s="109">
+        <v>460</v>
+      </c>
+      <c r="M11" s="109">
+        <v>445</v>
+      </c>
+      <c r="N11" s="109">
+        <v>410</v>
+      </c>
+      <c r="O11" s="109">
+        <v>390</v>
+      </c>
+      <c r="P11" s="109">
+        <v>350</v>
+      </c>
+      <c r="Q11" s="109">
+        <v>340</v>
+      </c>
+      <c r="R11" s="109">
+        <v>315</v>
+      </c>
+      <c r="S11" s="109">
+        <v>270</v>
+      </c>
+      <c r="T11" s="109">
+        <v>230</v>
+      </c>
+      <c r="U11" s="109">
+        <v>195</v>
+      </c>
+      <c r="V11" s="109">
+        <v>150</v>
+      </c>
+      <c r="W11" s="109">
+        <v>135</v>
+      </c>
+      <c r="X11" s="109">
+        <v>95</v>
+      </c>
+      <c r="Y11" s="109">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="109">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="163">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G8:W8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O63"/>
   <sheetViews>
@@ -26145,11 +27690,11 @@
       <c r="B4" s="103"/>
       <c r="C4" s="103"/>
       <c r="D4" s="103"/>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="146" t="s">
         <v>420</v>
       </c>
-      <c r="F4" s="142"/>
-      <c r="G4" s="143"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="148"/>
       <c r="H4" s="103"/>
       <c r="I4" s="103"/>
       <c r="J4" s="103"/>
@@ -27199,7 +28744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:L123"/>
   <sheetViews>
@@ -27729,11 +29274,11 @@
       <c r="H31" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="149">
+      <c r="I31" s="151">
         <f>SUM(I32,I33,I34,I35)</f>
         <v>24</v>
       </c>
-      <c r="J31" s="151"/>
+      <c r="J31" s="152"/>
       <c r="K31" s="41"/>
       <c r="L31" s="50"/>
     </row>
@@ -27750,10 +29295,10 @@
       <c r="H32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I32" s="144">
+      <c r="I32" s="149">
         <v>4</v>
       </c>
-      <c r="J32" s="145"/>
+      <c r="J32" s="150"/>
       <c r="K32" s="15" t="s">
         <v>92</v>
       </c>
@@ -27772,10 +29317,10 @@
       <c r="H33" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I33" s="144">
+      <c r="I33" s="149">
         <v>4</v>
       </c>
-      <c r="J33" s="145"/>
+      <c r="J33" s="150"/>
       <c r="K33" s="15" t="s">
         <v>7</v>
       </c>
@@ -27794,10 +29339,10 @@
       <c r="H34" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="I34" s="144">
-        <v>8</v>
-      </c>
-      <c r="J34" s="145"/>
+      <c r="I34" s="149">
+        <v>8</v>
+      </c>
+      <c r="J34" s="150"/>
       <c r="K34" s="15" t="s">
         <v>83</v>
       </c>
@@ -27816,10 +29361,10 @@
       <c r="H35" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="144">
-        <v>8</v>
-      </c>
-      <c r="J35" s="145"/>
+      <c r="I35" s="149">
+        <v>8</v>
+      </c>
+      <c r="J35" s="150"/>
       <c r="K35" s="15" t="s">
         <v>7</v>
       </c>
@@ -27838,11 +29383,11 @@
       <c r="H36" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="149">
+      <c r="I36" s="151">
         <f>SUM(I37:J40)</f>
         <v>16</v>
       </c>
-      <c r="J36" s="151"/>
+      <c r="J36" s="152"/>
       <c r="K36" s="37"/>
       <c r="L36" s="50"/>
     </row>
@@ -27859,10 +29404,10 @@
       <c r="H37" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="144">
+      <c r="I37" s="149">
         <v>4</v>
       </c>
-      <c r="J37" s="145"/>
+      <c r="J37" s="150"/>
       <c r="K37" s="15" t="s">
         <v>7</v>
       </c>
@@ -27881,10 +29426,10 @@
       <c r="H38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="144">
+      <c r="I38" s="149">
         <v>4</v>
       </c>
-      <c r="J38" s="145"/>
+      <c r="J38" s="150"/>
       <c r="K38" s="15" t="s">
         <v>83</v>
       </c>
@@ -27903,10 +29448,10 @@
       <c r="H39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="144">
+      <c r="I39" s="149">
         <v>4</v>
       </c>
-      <c r="J39" s="145"/>
+      <c r="J39" s="150"/>
       <c r="K39" s="15" t="s">
         <v>92</v>
       </c>
@@ -27925,10 +29470,10 @@
       <c r="H40" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I40" s="144">
+      <c r="I40" s="149">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
+      <c r="J40" s="150"/>
       <c r="K40" s="15" t="s">
         <v>83</v>
       </c>
@@ -27947,11 +29492,11 @@
       <c r="H41" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="I41" s="149">
+      <c r="I41" s="151">
         <f>SUM(I42:J45)</f>
         <v>24</v>
       </c>
-      <c r="J41" s="151"/>
+      <c r="J41" s="152"/>
       <c r="K41" s="37"/>
       <c r="L41" s="50"/>
     </row>
@@ -27968,10 +29513,10 @@
       <c r="H42" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I42" s="144">
+      <c r="I42" s="149">
         <v>4</v>
       </c>
-      <c r="J42" s="145"/>
+      <c r="J42" s="150"/>
       <c r="K42" s="15" t="s">
         <v>92</v>
       </c>
@@ -27990,10 +29535,10 @@
       <c r="H43" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="144">
+      <c r="I43" s="149">
         <v>4</v>
       </c>
-      <c r="J43" s="145"/>
+      <c r="J43" s="150"/>
       <c r="K43" s="15" t="s">
         <v>7</v>
       </c>
@@ -28012,10 +29557,10 @@
       <c r="H44" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I44" s="144">
-        <v>8</v>
-      </c>
-      <c r="J44" s="145"/>
+      <c r="I44" s="149">
+        <v>8</v>
+      </c>
+      <c r="J44" s="150"/>
       <c r="K44" s="15" t="s">
         <v>83</v>
       </c>
@@ -28034,10 +29579,10 @@
       <c r="H45" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I45" s="144">
-        <v>8</v>
-      </c>
-      <c r="J45" s="145"/>
+      <c r="I45" s="149">
+        <v>8</v>
+      </c>
+      <c r="J45" s="150"/>
       <c r="K45" s="15" t="s">
         <v>7</v>
       </c>
@@ -28056,11 +29601,11 @@
       <c r="H46" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="I46" s="149">
+      <c r="I46" s="151">
         <f>SUM(I48:J50,I47)</f>
         <v>24</v>
       </c>
-      <c r="J46" s="151"/>
+      <c r="J46" s="152"/>
       <c r="K46" s="37"/>
       <c r="L46" s="50"/>
     </row>
@@ -28077,10 +29622,10 @@
       <c r="H47" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="144">
+      <c r="I47" s="149">
         <v>4</v>
       </c>
-      <c r="J47" s="145"/>
+      <c r="J47" s="150"/>
       <c r="K47" s="15" t="s">
         <v>7</v>
       </c>
@@ -28099,10 +29644,10 @@
       <c r="H48" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I48" s="144">
+      <c r="I48" s="149">
         <v>4</v>
       </c>
-      <c r="J48" s="145"/>
+      <c r="J48" s="150"/>
       <c r="K48" s="37" t="s">
         <v>83</v>
       </c>
@@ -28121,10 +29666,10 @@
       <c r="H49" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I49" s="144">
-        <v>8</v>
-      </c>
-      <c r="J49" s="145"/>
+      <c r="I49" s="149">
+        <v>8</v>
+      </c>
+      <c r="J49" s="150"/>
       <c r="K49" s="37" t="s">
         <v>92</v>
       </c>
@@ -28143,10 +29688,10 @@
       <c r="H50" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="144">
-        <v>8</v>
-      </c>
-      <c r="J50" s="145"/>
+      <c r="I50" s="149">
+        <v>8</v>
+      </c>
+      <c r="J50" s="150"/>
       <c r="K50" s="37" t="s">
         <v>83</v>
       </c>
@@ -28165,10 +29710,10 @@
       <c r="H51" s="42">
         <v>42770</v>
       </c>
-      <c r="I51" s="149">
-        <v>16</v>
-      </c>
-      <c r="J51" s="151"/>
+      <c r="I51" s="151">
+        <v>16</v>
+      </c>
+      <c r="J51" s="152"/>
       <c r="K51" s="37"/>
       <c r="L51" s="50"/>
     </row>
@@ -28185,10 +29730,10 @@
       <c r="H52" s="16">
         <v>42739</v>
       </c>
-      <c r="I52" s="144">
-        <v>8</v>
-      </c>
-      <c r="J52" s="145"/>
+      <c r="I52" s="149">
+        <v>8</v>
+      </c>
+      <c r="J52" s="150"/>
       <c r="K52" s="15" t="s">
         <v>65</v>
       </c>
@@ -28207,10 +29752,10 @@
       <c r="H53" s="16">
         <v>42770</v>
       </c>
-      <c r="I53" s="144">
-        <v>8</v>
-      </c>
-      <c r="J53" s="145"/>
+      <c r="I53" s="149">
+        <v>8</v>
+      </c>
+      <c r="J53" s="150"/>
       <c r="K53" s="15" t="s">
         <v>65</v>
       </c>
@@ -28229,11 +29774,11 @@
       <c r="H54" s="30">
         <v>42860</v>
       </c>
-      <c r="I54" s="156">
+      <c r="I54" s="153">
         <f>SUM(I55:J57,I58,I65,I76,I87,I98,I109,I120)</f>
         <v>370</v>
       </c>
-      <c r="J54" s="157"/>
+      <c r="J54" s="154"/>
       <c r="K54" s="43"/>
       <c r="L54" s="50"/>
     </row>
@@ -28250,10 +29795,10 @@
       <c r="H55" s="16">
         <v>42920</v>
       </c>
-      <c r="I55" s="144">
-        <v>8</v>
-      </c>
-      <c r="J55" s="145"/>
+      <c r="I55" s="149">
+        <v>8</v>
+      </c>
+      <c r="J55" s="150"/>
       <c r="K55" s="15" t="s">
         <v>65</v>
       </c>
@@ -28272,10 +29817,10 @@
       <c r="H56" s="16">
         <v>42920</v>
       </c>
-      <c r="I56" s="144">
+      <c r="I56" s="149">
         <v>4</v>
       </c>
-      <c r="J56" s="145"/>
+      <c r="J56" s="150"/>
       <c r="K56" s="15" t="s">
         <v>83</v>
       </c>
@@ -28294,10 +29839,10 @@
       <c r="H57" s="16">
         <v>42951</v>
       </c>
-      <c r="I57" s="144">
-        <v>8</v>
-      </c>
-      <c r="J57" s="145"/>
+      <c r="I57" s="149">
+        <v>8</v>
+      </c>
+      <c r="J57" s="150"/>
       <c r="K57" s="15" t="s">
         <v>83</v>
       </c>
@@ -28316,11 +29861,11 @@
       <c r="H58" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="I58" s="149">
+      <c r="I58" s="151">
         <f>SUM(I59,I60,I61,I62,I63,I64)</f>
         <v>24</v>
       </c>
-      <c r="J58" s="151"/>
+      <c r="J58" s="152"/>
       <c r="K58" s="37"/>
       <c r="L58" s="50"/>
     </row>
@@ -28337,10 +29882,10 @@
       <c r="H59" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I59" s="144">
+      <c r="I59" s="149">
         <v>4</v>
       </c>
-      <c r="J59" s="145"/>
+      <c r="J59" s="150"/>
       <c r="K59" s="15" t="s">
         <v>7</v>
       </c>
@@ -28359,10 +29904,10 @@
       <c r="H60" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I60" s="144">
+      <c r="I60" s="149">
         <v>4</v>
       </c>
-      <c r="J60" s="145"/>
+      <c r="J60" s="150"/>
       <c r="K60" s="15" t="s">
         <v>92</v>
       </c>
@@ -28381,10 +29926,10 @@
       <c r="H61" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="I61" s="144">
+      <c r="I61" s="149">
         <v>4</v>
       </c>
-      <c r="J61" s="145"/>
+      <c r="J61" s="150"/>
       <c r="K61" s="15" t="s">
         <v>83</v>
       </c>
@@ -28403,10 +29948,10 @@
       <c r="H62" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="144">
+      <c r="I62" s="149">
         <v>4</v>
       </c>
-      <c r="J62" s="145"/>
+      <c r="J62" s="150"/>
       <c r="K62" s="15" t="s">
         <v>83</v>
       </c>
@@ -28425,10 +29970,10 @@
       <c r="H63" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I63" s="144">
+      <c r="I63" s="149">
         <v>4</v>
       </c>
-      <c r="J63" s="145"/>
+      <c r="J63" s="150"/>
       <c r="K63" s="15" t="s">
         <v>138</v>
       </c>
@@ -28447,10 +29992,10 @@
       <c r="H64" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I64" s="144">
+      <c r="I64" s="149">
         <v>4</v>
       </c>
-      <c r="J64" s="145"/>
+      <c r="J64" s="150"/>
       <c r="K64" s="15" t="s">
         <v>7</v>
       </c>
@@ -28469,11 +30014,11 @@
       <c r="H65" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="149">
+      <c r="I65" s="151">
         <f>SUM(I66:J75)</f>
         <v>40</v>
       </c>
-      <c r="J65" s="151"/>
+      <c r="J65" s="152"/>
       <c r="K65" s="37"/>
       <c r="L65" s="50"/>
     </row>
@@ -28490,10 +30035,10 @@
       <c r="H66" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I66" s="144">
+      <c r="I66" s="149">
         <v>4</v>
       </c>
-      <c r="J66" s="145"/>
+      <c r="J66" s="150"/>
       <c r="K66" s="15" t="s">
         <v>7</v>
       </c>
@@ -28512,10 +30057,10 @@
       <c r="H67" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I67" s="144">
+      <c r="I67" s="149">
         <v>4</v>
       </c>
-      <c r="J67" s="145"/>
+      <c r="J67" s="150"/>
       <c r="K67" s="15" t="s">
         <v>92</v>
       </c>
@@ -28534,10 +30079,10 @@
       <c r="H68" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I68" s="144">
+      <c r="I68" s="149">
         <v>4</v>
       </c>
-      <c r="J68" s="145"/>
+      <c r="J68" s="150"/>
       <c r="K68" s="15" t="s">
         <v>83</v>
       </c>
@@ -28556,10 +30101,10 @@
       <c r="H69" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I69" s="144">
+      <c r="I69" s="149">
         <v>4</v>
       </c>
-      <c r="J69" s="145"/>
+      <c r="J69" s="150"/>
       <c r="K69" s="15" t="s">
         <v>83</v>
       </c>
@@ -28578,10 +30123,10 @@
       <c r="H70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I70" s="144">
+      <c r="I70" s="149">
         <v>4</v>
       </c>
-      <c r="J70" s="145"/>
+      <c r="J70" s="150"/>
       <c r="K70" s="15" t="s">
         <v>92</v>
       </c>
@@ -28600,10 +30145,10 @@
       <c r="H71" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="I71" s="144">
+      <c r="I71" s="149">
         <v>4</v>
       </c>
-      <c r="J71" s="145"/>
+      <c r="J71" s="150"/>
       <c r="K71" s="15" t="s">
         <v>7</v>
       </c>
@@ -28622,10 +30167,10 @@
       <c r="H72" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="144">
+      <c r="I72" s="149">
         <v>4</v>
       </c>
-      <c r="J72" s="145"/>
+      <c r="J72" s="150"/>
       <c r="K72" s="15" t="s">
         <v>92</v>
       </c>
@@ -28644,10 +30189,10 @@
       <c r="H73" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I73" s="144">
+      <c r="I73" s="149">
         <v>4</v>
       </c>
-      <c r="J73" s="145"/>
+      <c r="J73" s="150"/>
       <c r="K73" s="15" t="s">
         <v>83</v>
       </c>
@@ -28666,10 +30211,10 @@
       <c r="H74" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I74" s="144">
+      <c r="I74" s="149">
         <v>4</v>
       </c>
-      <c r="J74" s="145"/>
+      <c r="J74" s="150"/>
       <c r="K74" s="15" t="s">
         <v>7</v>
       </c>
@@ -28688,10 +30233,10 @@
       <c r="H75" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I75" s="144">
+      <c r="I75" s="149">
         <v>4</v>
       </c>
-      <c r="J75" s="145"/>
+      <c r="J75" s="150"/>
       <c r="K75" s="15" t="s">
         <v>92</v>
       </c>
@@ -28710,11 +30255,11 @@
       <c r="H76" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="I76" s="154">
+      <c r="I76" s="155">
         <f>SUM(I77:J86)</f>
         <v>132</v>
       </c>
-      <c r="J76" s="155"/>
+      <c r="J76" s="156"/>
       <c r="K76" s="37"/>
       <c r="L76" s="50"/>
     </row>
@@ -28731,10 +30276,10 @@
       <c r="H77" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I77" s="144">
+      <c r="I77" s="149">
         <v>12</v>
       </c>
-      <c r="J77" s="145"/>
+      <c r="J77" s="150"/>
       <c r="K77" s="15" t="s">
         <v>7</v>
       </c>
@@ -28753,10 +30298,10 @@
       <c r="H78" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I78" s="144">
+      <c r="I78" s="149">
         <v>12</v>
       </c>
-      <c r="J78" s="145"/>
+      <c r="J78" s="150"/>
       <c r="K78" s="15" t="s">
         <v>92</v>
       </c>
@@ -28775,10 +30320,10 @@
       <c r="H79" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="I79" s="144">
+      <c r="I79" s="149">
         <v>12</v>
       </c>
-      <c r="J79" s="145"/>
+      <c r="J79" s="150"/>
       <c r="K79" s="15" t="s">
         <v>83</v>
       </c>
@@ -28797,10 +30342,10 @@
       <c r="H80" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I80" s="152">
+      <c r="I80" s="157">
         <v>12</v>
       </c>
-      <c r="J80" s="153"/>
+      <c r="J80" s="158"/>
       <c r="K80" s="37" t="s">
         <v>83</v>
       </c>
@@ -28819,10 +30364,10 @@
       <c r="H81" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I81" s="144">
+      <c r="I81" s="149">
         <v>12</v>
       </c>
-      <c r="J81" s="145"/>
+      <c r="J81" s="150"/>
       <c r="K81" s="15" t="s">
         <v>7</v>
       </c>
@@ -28841,10 +30386,10 @@
       <c r="H82" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I82" s="144">
+      <c r="I82" s="149">
         <v>12</v>
       </c>
-      <c r="J82" s="145"/>
+      <c r="J82" s="150"/>
       <c r="K82" s="15" t="s">
         <v>92</v>
       </c>
@@ -28863,10 +30408,10 @@
       <c r="H83" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="I83" s="144">
+      <c r="I83" s="149">
         <v>20</v>
       </c>
-      <c r="J83" s="145"/>
+      <c r="J83" s="150"/>
       <c r="K83" s="15" t="s">
         <v>83</v>
       </c>
@@ -28885,10 +30430,10 @@
       <c r="H84" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I84" s="144">
+      <c r="I84" s="149">
         <v>12</v>
       </c>
-      <c r="J84" s="145"/>
+      <c r="J84" s="150"/>
       <c r="K84" s="15" t="s">
         <v>83</v>
       </c>
@@ -28907,10 +30452,10 @@
       <c r="H85" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I85" s="144">
-        <v>16</v>
-      </c>
-      <c r="J85" s="145"/>
+      <c r="I85" s="149">
+        <v>16</v>
+      </c>
+      <c r="J85" s="150"/>
       <c r="K85" s="15" t="s">
         <v>92</v>
       </c>
@@ -28929,10 +30474,10 @@
       <c r="H86" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I86" s="144">
+      <c r="I86" s="149">
         <v>12</v>
       </c>
-      <c r="J86" s="145"/>
+      <c r="J86" s="150"/>
       <c r="K86" s="15" t="s">
         <v>7</v>
       </c>
@@ -28951,11 +30496,11 @@
       <c r="H87" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I87" s="149">
+      <c r="I87" s="151">
         <f>SUM(I88:J97)</f>
         <v>40</v>
       </c>
-      <c r="J87" s="151"/>
+      <c r="J87" s="152"/>
       <c r="K87" s="37"/>
       <c r="L87" s="50"/>
     </row>
@@ -28972,10 +30517,10 @@
       <c r="H88" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I88" s="144">
+      <c r="I88" s="149">
         <v>4</v>
       </c>
-      <c r="J88" s="145"/>
+      <c r="J88" s="150"/>
       <c r="K88" s="15" t="s">
         <v>92</v>
       </c>
@@ -28994,10 +30539,10 @@
       <c r="H89" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I89" s="144">
+      <c r="I89" s="149">
         <v>4</v>
       </c>
-      <c r="J89" s="145"/>
+      <c r="J89" s="150"/>
       <c r="K89" s="15" t="s">
         <v>83</v>
       </c>
@@ -29016,10 +30561,10 @@
       <c r="H90" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I90" s="144">
+      <c r="I90" s="149">
         <v>4</v>
       </c>
-      <c r="J90" s="145"/>
+      <c r="J90" s="150"/>
       <c r="K90" s="15" t="s">
         <v>92</v>
       </c>
@@ -29038,10 +30583,10 @@
       <c r="H91" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I91" s="144">
+      <c r="I91" s="149">
         <v>4</v>
       </c>
-      <c r="J91" s="145"/>
+      <c r="J91" s="150"/>
       <c r="K91" s="15" t="s">
         <v>7</v>
       </c>
@@ -29060,10 +30605,10 @@
       <c r="H92" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I92" s="144">
+      <c r="I92" s="149">
         <v>4</v>
       </c>
-      <c r="J92" s="145"/>
+      <c r="J92" s="150"/>
       <c r="K92" s="15" t="s">
         <v>83</v>
       </c>
@@ -29082,10 +30627,10 @@
       <c r="H93" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="149">
         <v>4</v>
       </c>
-      <c r="J93" s="145"/>
+      <c r="J93" s="150"/>
       <c r="K93" s="15" t="s">
         <v>92</v>
       </c>
@@ -29104,10 +30649,10 @@
       <c r="H94" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="149">
         <v>4</v>
       </c>
-      <c r="J94" s="145"/>
+      <c r="J94" s="150"/>
       <c r="K94" s="15" t="s">
         <v>257</v>
       </c>
@@ -29126,10 +30671,10 @@
       <c r="H95" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I95" s="144">
+      <c r="I95" s="149">
         <v>4</v>
       </c>
-      <c r="J95" s="145"/>
+      <c r="J95" s="150"/>
       <c r="K95" s="15" t="s">
         <v>92</v>
       </c>
@@ -29148,10 +30693,10 @@
       <c r="H96" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I96" s="144">
+      <c r="I96" s="149">
         <v>4</v>
       </c>
-      <c r="J96" s="145"/>
+      <c r="J96" s="150"/>
       <c r="K96" s="15" t="s">
         <v>83</v>
       </c>
@@ -29170,10 +30715,10 @@
       <c r="H97" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I97" s="144">
+      <c r="I97" s="149">
         <v>4</v>
       </c>
-      <c r="J97" s="145"/>
+      <c r="J97" s="150"/>
       <c r="K97" s="15" t="s">
         <v>7</v>
       </c>
@@ -29192,11 +30737,11 @@
       <c r="H98" s="42">
         <v>42740</v>
       </c>
-      <c r="I98" s="149">
+      <c r="I98" s="151">
         <f>SUM(I99:J108)</f>
         <v>56</v>
       </c>
-      <c r="J98" s="151"/>
+      <c r="J98" s="152"/>
       <c r="K98" s="37"/>
       <c r="L98" s="50"/>
     </row>
@@ -29213,10 +30758,10 @@
       <c r="H99" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I99" s="144">
+      <c r="I99" s="149">
         <v>4</v>
       </c>
-      <c r="J99" s="145"/>
+      <c r="J99" s="150"/>
       <c r="K99" s="15" t="s">
         <v>92</v>
       </c>
@@ -29235,10 +30780,10 @@
       <c r="H100" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I100" s="144">
+      <c r="I100" s="149">
         <v>4</v>
       </c>
-      <c r="J100" s="145"/>
+      <c r="J100" s="150"/>
       <c r="K100" s="15" t="s">
         <v>83</v>
       </c>
@@ -29257,10 +30802,10 @@
       <c r="H101" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="I101" s="144">
+      <c r="I101" s="149">
         <v>4</v>
       </c>
-      <c r="J101" s="145"/>
+      <c r="J101" s="150"/>
       <c r="K101" s="15" t="s">
         <v>83</v>
       </c>
@@ -29279,10 +30824,10 @@
       <c r="H102" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I102" s="144">
+      <c r="I102" s="149">
         <v>4</v>
       </c>
-      <c r="J102" s="145"/>
+      <c r="J102" s="150"/>
       <c r="K102" s="15" t="s">
         <v>83</v>
       </c>
@@ -29301,10 +30846,10 @@
       <c r="H103" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I103" s="144">
-        <v>8</v>
-      </c>
-      <c r="J103" s="145"/>
+      <c r="I103" s="149">
+        <v>8</v>
+      </c>
+      <c r="J103" s="150"/>
       <c r="K103" s="15" t="s">
         <v>92</v>
       </c>
@@ -29323,10 +30868,10 @@
       <c r="H104" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="I104" s="144">
-        <v>8</v>
-      </c>
-      <c r="J104" s="145"/>
+      <c r="I104" s="149">
+        <v>8</v>
+      </c>
+      <c r="J104" s="150"/>
       <c r="K104" s="15" t="s">
         <v>7</v>
       </c>
@@ -29345,10 +30890,10 @@
       <c r="H105" s="16">
         <v>42740</v>
       </c>
-      <c r="I105" s="144">
-        <v>8</v>
-      </c>
-      <c r="J105" s="145"/>
+      <c r="I105" s="149">
+        <v>8</v>
+      </c>
+      <c r="J105" s="150"/>
       <c r="K105" s="15" t="s">
         <v>7</v>
       </c>
@@ -29367,10 +30912,10 @@
       <c r="H106" s="16">
         <v>42740</v>
       </c>
-      <c r="I106" s="144">
-        <v>8</v>
-      </c>
-      <c r="J106" s="145"/>
+      <c r="I106" s="149">
+        <v>8</v>
+      </c>
+      <c r="J106" s="150"/>
       <c r="K106" s="15" t="s">
         <v>92</v>
       </c>
@@ -29389,16 +30934,16 @@
       <c r="H107" s="16">
         <v>42740</v>
       </c>
-      <c r="I107" s="144">
+      <c r="I107" s="149">
         <v>4</v>
       </c>
-      <c r="J107" s="145"/>
+      <c r="J107" s="150"/>
       <c r="K107" s="15" t="s">
         <v>83</v>
       </c>
       <c r="L107" s="50"/>
     </row>
-    <row r="108" spans="5:12" ht="33.75" thickBot="1">
+    <row r="108" spans="5:12" ht="17.25" thickBot="1">
       <c r="E108" s="13" t="s">
         <v>264</v>
       </c>
@@ -29411,10 +30956,10 @@
       <c r="H108" s="16">
         <v>42740</v>
       </c>
-      <c r="I108" s="144">
+      <c r="I108" s="149">
         <v>4</v>
       </c>
-      <c r="J108" s="145"/>
+      <c r="J108" s="150"/>
       <c r="K108" s="15" t="s">
         <v>83</v>
       </c>
@@ -29433,11 +30978,11 @@
       <c r="H109" s="42">
         <v>42799</v>
       </c>
-      <c r="I109" s="149">
+      <c r="I109" s="151">
         <f>SUM(I110:J119)</f>
         <v>42</v>
       </c>
-      <c r="J109" s="151"/>
+      <c r="J109" s="152"/>
       <c r="K109" s="37"/>
       <c r="L109" s="50"/>
     </row>
@@ -29454,10 +30999,10 @@
       <c r="H110" s="16">
         <v>42771</v>
       </c>
-      <c r="I110" s="144">
+      <c r="I110" s="149">
         <v>4</v>
       </c>
-      <c r="J110" s="145"/>
+      <c r="J110" s="150"/>
       <c r="K110" s="15" t="s">
         <v>83</v>
       </c>
@@ -29476,10 +31021,10 @@
       <c r="H111" s="16">
         <v>42771</v>
       </c>
-      <c r="I111" s="144">
+      <c r="I111" s="149">
         <v>4</v>
       </c>
-      <c r="J111" s="145"/>
+      <c r="J111" s="150"/>
       <c r="K111" s="37" t="s">
         <v>92</v>
       </c>
@@ -29498,10 +31043,10 @@
       <c r="H112" s="16">
         <v>42771</v>
       </c>
-      <c r="I112" s="144">
+      <c r="I112" s="149">
         <v>6</v>
       </c>
-      <c r="J112" s="145"/>
+      <c r="J112" s="150"/>
       <c r="K112" s="15" t="s">
         <v>7</v>
       </c>
@@ -29520,10 +31065,10 @@
       <c r="H113" s="16">
         <v>42771</v>
       </c>
-      <c r="I113" s="144">
+      <c r="I113" s="149">
         <v>4</v>
       </c>
-      <c r="J113" s="145"/>
+      <c r="J113" s="150"/>
       <c r="K113" s="15" t="s">
         <v>92</v>
       </c>
@@ -29542,10 +31087,10 @@
       <c r="H114" s="16">
         <v>42771</v>
       </c>
-      <c r="I114" s="144">
+      <c r="I114" s="149">
         <v>4</v>
       </c>
-      <c r="J114" s="145"/>
+      <c r="J114" s="150"/>
       <c r="K114" s="15" t="s">
         <v>83</v>
       </c>
@@ -29564,10 +31109,10 @@
       <c r="H115" s="16">
         <v>42771</v>
       </c>
-      <c r="I115" s="144">
+      <c r="I115" s="149">
         <v>4</v>
       </c>
-      <c r="J115" s="145"/>
+      <c r="J115" s="150"/>
       <c r="K115" s="15" t="s">
         <v>7</v>
       </c>
@@ -29586,10 +31131,10 @@
       <c r="H116" s="16">
         <v>42799</v>
       </c>
-      <c r="I116" s="144">
+      <c r="I116" s="149">
         <v>4</v>
       </c>
-      <c r="J116" s="145"/>
+      <c r="J116" s="150"/>
       <c r="K116" s="15" t="s">
         <v>7</v>
       </c>
@@ -29608,10 +31153,10 @@
       <c r="H117" s="16">
         <v>42799</v>
       </c>
-      <c r="I117" s="144">
+      <c r="I117" s="149">
         <v>4</v>
       </c>
-      <c r="J117" s="145"/>
+      <c r="J117" s="150"/>
       <c r="K117" s="15" t="s">
         <v>92</v>
       </c>
@@ -29630,10 +31175,10 @@
       <c r="H118" s="16">
         <v>42799</v>
       </c>
-      <c r="I118" s="144">
+      <c r="I118" s="149">
         <v>4</v>
       </c>
-      <c r="J118" s="145"/>
+      <c r="J118" s="150"/>
       <c r="K118" s="15" t="s">
         <v>83</v>
       </c>
@@ -29652,10 +31197,10 @@
       <c r="H119" s="16">
         <v>42799</v>
       </c>
-      <c r="I119" s="144">
+      <c r="I119" s="149">
         <v>4</v>
       </c>
-      <c r="J119" s="145"/>
+      <c r="J119" s="150"/>
       <c r="K119" s="15" t="s">
         <v>7</v>
       </c>
@@ -29674,11 +31219,11 @@
       <c r="H120" s="42">
         <v>42860</v>
       </c>
-      <c r="I120" s="149">
+      <c r="I120" s="151">
         <f>SUM(I121:J122)</f>
         <v>16</v>
       </c>
-      <c r="J120" s="151"/>
+      <c r="J120" s="152"/>
       <c r="K120" s="37"/>
       <c r="L120" s="50"/>
     </row>
@@ -29695,10 +31240,10 @@
       <c r="H121" s="16">
         <v>42830</v>
       </c>
-      <c r="I121" s="144">
-        <v>8</v>
-      </c>
-      <c r="J121" s="145"/>
+      <c r="I121" s="149">
+        <v>8</v>
+      </c>
+      <c r="J121" s="150"/>
       <c r="K121" s="15" t="s">
         <v>65</v>
       </c>
@@ -29717,32 +31262,114 @@
       <c r="H122" s="16">
         <v>42860</v>
       </c>
-      <c r="I122" s="144">
-        <v>8</v>
-      </c>
-      <c r="J122" s="145"/>
+      <c r="I122" s="149">
+        <v>8</v>
+      </c>
+      <c r="J122" s="150"/>
       <c r="K122" s="15" t="s">
         <v>65</v>
       </c>
       <c r="L122" s="51"/>
     </row>
     <row r="123" spans="5:12" ht="17.25" thickBot="1">
-      <c r="E123" s="146" t="s">
+      <c r="E123" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="F123" s="147"/>
-      <c r="G123" s="147"/>
-      <c r="H123" s="147"/>
-      <c r="I123" s="148"/>
-      <c r="J123" s="149">
+      <c r="F123" s="160"/>
+      <c r="G123" s="160"/>
+      <c r="H123" s="160"/>
+      <c r="I123" s="161"/>
+      <c r="J123" s="151">
         <f>SUM(I4,I7,I18,I54)</f>
         <v>626</v>
       </c>
-      <c r="K123" s="150"/>
-      <c r="L123" s="151"/>
+      <c r="K123" s="162"/>
+      <c r="L123" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="E123:I123"/>
+    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
@@ -29755,94 +31382,12 @@
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="E123:I123"/>
-    <mergeCell ref="J123:L123"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F91"/>
   <sheetViews>
@@ -31574,16 +33119,16 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A91" s="146" t="s">
+      <c r="A91" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="147"/>
-      <c r="C91" s="147"/>
-      <c r="D91" s="148"/>
-      <c r="E91" s="149" t="s">
+      <c r="B91" s="160"/>
+      <c r="C91" s="160"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="151"/>
+      <c r="F91" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="2">
